--- a/Projekt1/Hipot.xlsx
+++ b/Projekt1/Hipot.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Projekt1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Algorytmy-Numeryczne/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F971B60-EDEC-8848-9A67-AC3273128F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19767F5B-49BF-7A42-804B-60D1345F1A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{74BB15E0-4915-1E4F-A2F9-6208C2E7AD03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{74BB15E0-4915-1E4F-A2F9-6208C2E7AD03}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$AX$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$AX$2:$AX$89</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$AY$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$AY$2:$AY$89</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Arkusz1!$AX$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Arkusz1!$AX$2:$AX$89</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Arkusz1!$AY$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Arkusz1!$AY$2:$AY$89</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$AS$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$AS$2:$AS$88</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Arkusz1!$AY$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Arkusz1!$AY$2:$AY$88</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$AX$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$AX$2:$AX$88</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Arkusz1!$AY$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Arkusz1!$AY$2:$AY$88</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Arkusz1!$AS$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Arkusz1!$AS$2:$AS$88</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Arkusz1!$AX$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Arkusz1!$AX$2:$AX$88</definedName>
     <definedName name="test_1" localSheetId="0">Arkusz1!$A$2:$T$87</definedName>
     <definedName name="test_2" localSheetId="0">Arkusz1!$A$88:$T$88</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -196,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -236,12 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1089,6 +1092,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> do 2PI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5366,6 +5398,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Monte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Carlo vs Sumy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5398,8 +5459,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5416,7 +5477,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5427,12 +5488,282 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$AX$2:$AX$89</c:f>
+              <c:f>Arkusz1!$AS$2:$AS$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AX$2:$AX$88</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0.85588265358979321</c:v>
                 </c:pt>
@@ -5696,11 +6027,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15C7-D74D-890B-A5630C68A7BC}"/>
+              <c16:uniqueId val="{00000000-E4E2-5B4B-A1D3-C1716903EA58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5719,7 +6050,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5730,12 +6061,282 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$AY$2:$AY$89</c:f>
+              <c:f>Arkusz1!$AS$2:$AS$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$AY$2:$AY$88</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2.6297653589792969E-2</c:v>
                 </c:pt>
@@ -5999,11 +6600,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-15C7-D74D-890B-A5630C68A7BC}"/>
+              <c16:uniqueId val="{00000001-E4E2-5B4B-A1D3-C1716903EA58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6015,17 +6616,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2089831855"/>
-        <c:axId val="2090273551"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2089831855"/>
+        <c:axId val="782018175"/>
+        <c:axId val="1606191615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782018175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6035,8 +6649,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -6063,15 +6677,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090273551"/>
+        <c:crossAx val="1606191615"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2090273551"/>
+        <c:axId val="1606191615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6097,8 +6708,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6122,9 +6739,9 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089831855"/>
+        <c:crossAx val="782018175"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6167,6 +6784,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -8467,7 +9091,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8494,8 +9118,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8575,11 +9199,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8590,11 +9209,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8606,7 +9220,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8626,9 +9240,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8641,10 +9252,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8684,22 +9295,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8804,8 +9416,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8937,19 +9549,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8963,6 +9576,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9131,22 +9755,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>67733</xdr:colOff>
+      <xdr:colOff>193040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>491066</xdr:colOff>
+      <xdr:colOff>650240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Wykres 26">
+        <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3607DE-CB88-3172-446E-E9BEB026E907}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75775AA1-1905-2E58-7350-F9FA3F49D313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9176,9 +9800,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9216,7 +9840,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9322,7 +9946,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9464,7 +10088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9474,16 +10098,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217E3B1-F151-234F-98DB-BDD998196096}">
   <dimension ref="A1:AZ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="BB24" sqref="BB24"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="BB22" sqref="BB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -9514,10 +10138,10 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
@@ -9621,10 +10245,10 @@
       <c r="B2">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>6.2305900000000003</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <f t="shared" ref="D2:D61" si="0">B2-C2</f>
         <v>5.259999999999998E-2</v>
       </c>
@@ -9660,7 +10284,7 @@
         <f>L2^2+K2^2</f>
         <v>1.4210857206499998E-13</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <f>IF(N2&lt;M2,1,0)</f>
         <v>0</v>
       </c>
@@ -9680,7 +10304,7 @@
       <c r="AD2" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="2">
         <v>14</v>
       </c>
       <c r="AG2" s="1">
@@ -9692,7 +10316,7 @@
       <c r="AS2">
         <v>14</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AT2" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -9703,14 +10327,14 @@
         <v>8</v>
       </c>
       <c r="AW2">
-        <f>$C2/2</f>
+        <f t="shared" ref="AW2:AW33" si="1">$C2/2</f>
         <v>3.1152950000000001</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2" s="3">
         <f>AT2-AU2</f>
         <v>0.85588265358979321</v>
       </c>
-      <c r="AY2" s="4">
+      <c r="AY2" s="3">
         <f>AT2-AW2</f>
         <v>2.6297653589792969E-2</v>
       </c>
@@ -9722,10 +10346,10 @@
       <c r="B3">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>6.2652599999999996</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <f t="shared" si="0"/>
         <v>1.7930000000000668E-2</v>
       </c>
@@ -9754,15 +10378,15 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M66" si="1">I3^2+J3^2</f>
+        <f t="shared" ref="M3:M66" si="2">I3^2+J3^2</f>
         <v>1.1368723912200002E-13</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N66" si="2">L3^2+K3^2</f>
+        <f t="shared" ref="N3:N66" si="3">L3^2+K3^2</f>
         <v>0</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="3">IF(N3&lt;M3,1,0)</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="4">IF(N3&lt;M3,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q3">
@@ -9778,7 +10402,7 @@
       <c r="T3">
         <v>18</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="2">
         <v>24</v>
       </c>
       <c r="AG3" s="1">
@@ -9790,7 +10414,7 @@
       <c r="AS3">
         <v>24</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT3" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -9801,15 +10425,15 @@
         <v>18</v>
       </c>
       <c r="AW3">
-        <f>$C3/2</f>
+        <f t="shared" si="1"/>
         <v>3.1326299999999998</v>
       </c>
-      <c r="AX3" s="4">
-        <f t="shared" ref="AX3:AX66" si="4">AT3-AU3</f>
+      <c r="AX3" s="3">
+        <f t="shared" ref="AX3:AX66" si="5">AT3-AU3</f>
         <v>0.14159265358979312</v>
       </c>
-      <c r="AY3" s="4">
-        <f t="shared" ref="AY3:AY66" si="5">AT3-AW3</f>
+      <c r="AY3" s="3">
+        <f t="shared" ref="AY3:AY66" si="6">AT3-AW3</f>
         <v>8.9626535897933124E-3</v>
       </c>
     </row>
@@ -9820,10 +10444,10 @@
       <c r="B4">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>6.2742500000000003</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>8.939999999999948E-3</v>
       </c>
@@ -9852,15 +10476,15 @@
         <v>-2.3841900000000001E-7</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1054405242000015E-14</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1368723912200002E-13</v>
       </c>
-      <c r="O4" s="2">
-        <f t="shared" si="3"/>
+      <c r="O4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q4">
@@ -9876,7 +10500,7 @@
       <c r="T4">
         <v>24</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="2">
         <v>34</v>
       </c>
       <c r="AG4" s="1">
@@ -9888,7 +10512,7 @@
       <c r="AS4">
         <v>34</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AT4" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -9899,15 +10523,15 @@
         <v>24</v>
       </c>
       <c r="AW4">
-        <f>$C4/2</f>
+        <f t="shared" si="1"/>
         <v>3.1371250000000002</v>
       </c>
-      <c r="AX4" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX4" s="3">
+        <f t="shared" si="5"/>
         <v>0.31806265358979324</v>
       </c>
-      <c r="AY4" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY4" s="3">
+        <f t="shared" si="6"/>
         <v>4.4676535897929526E-3</v>
       </c>
     </row>
@@ -9918,10 +10542,10 @@
       <c r="B5">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>6.2778499999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>5.3400000000003445E-3</v>
       </c>
@@ -9950,15 +10574,15 @@
         <v>1.1920900000000001E-7</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4158431025E-13</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1054405242000015E-14</v>
       </c>
-      <c r="O5" s="2">
-        <f t="shared" si="3"/>
+      <c r="O5">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q5">
@@ -9974,7 +10598,7 @@
       <c r="T5">
         <v>32</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="2">
         <v>44</v>
       </c>
       <c r="AG5" s="1">
@@ -9986,7 +10610,7 @@
       <c r="AS5">
         <v>44</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -9997,15 +10621,15 @@
         <v>32</v>
       </c>
       <c r="AW5">
-        <f>$C5/2</f>
+        <f t="shared" si="1"/>
         <v>3.138925</v>
       </c>
-      <c r="AX5" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX5" s="3">
+        <f t="shared" si="5"/>
         <v>0.23250265358979316</v>
       </c>
-      <c r="AY5" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY5" s="3">
+        <f t="shared" si="6"/>
         <v>2.6676535897931508E-3</v>
       </c>
     </row>
@@ -10016,10 +10640,10 @@
       <c r="B6">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>6.2796399999999997</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>3.5500000000006082E-3</v>
       </c>
@@ -10048,15 +10672,15 @@
         <v>-2.3841900000000001E-7</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6948276420610006E-12</v>
-      </c>
-      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>3.6948276420610006E-12</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="1">
         <f t="shared" si="3"/>
+        <v>3.6948276420610006E-12</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6">
@@ -10072,7 +10696,7 @@
       <c r="T6">
         <v>37</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="2">
         <v>54</v>
       </c>
       <c r="AG6" s="1">
@@ -10084,7 +10708,7 @@
       <c r="AS6">
         <v>54</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10095,15 +10719,15 @@
         <v>37</v>
       </c>
       <c r="AW6">
-        <f>$C6/2</f>
+        <f t="shared" si="1"/>
         <v>3.1398199999999998</v>
       </c>
-      <c r="AX6" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX6" s="3">
+        <f t="shared" si="5"/>
         <v>0.40085265358979294</v>
       </c>
-      <c r="AY6" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY6" s="3">
+        <f t="shared" si="6"/>
         <v>1.7726535897932827E-3</v>
       </c>
     </row>
@@ -10114,10 +10738,10 @@
       <c r="B7">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>6.2806600000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>2.5300000000001432E-3</v>
       </c>
@@ -10146,15 +10770,15 @@
         <v>1.1920900000000001E-7</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4210857206499998E-13</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1054405242000015E-14</v>
       </c>
-      <c r="O7" s="2">
-        <f t="shared" si="3"/>
+      <c r="O7">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q7">
@@ -10170,7 +10794,7 @@
       <c r="T7">
         <v>45</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7" s="2">
         <v>64</v>
       </c>
       <c r="AG7" s="1">
@@ -10182,7 +10806,7 @@
       <c r="AS7">
         <v>64</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AT7" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10193,15 +10817,15 @@
         <v>45</v>
       </c>
       <c r="AW7">
-        <f>$C7/2</f>
+        <f t="shared" si="1"/>
         <v>3.1403300000000001</v>
       </c>
-      <c r="AX7" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX7" s="3">
+        <f t="shared" si="5"/>
         <v>0.32909265358979312</v>
       </c>
-      <c r="AY7" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY7" s="3">
+        <f t="shared" si="6"/>
         <v>1.2626535897930502E-3</v>
       </c>
     </row>
@@ -10212,10 +10836,10 @@
       <c r="B8">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>6.2812999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>1.8900000000003914E-3</v>
       </c>
@@ -10244,15 +10868,15 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2370488395700003E-13</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1159114553599997E-13</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" si="3"/>
+      <c r="O8">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q8">
@@ -10268,7 +10892,7 @@
       <c r="T8">
         <v>53</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="2">
         <v>74</v>
       </c>
       <c r="AG8" s="1">
@@ -10280,7 +10904,7 @@
       <c r="AS8">
         <v>74</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="AT8" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10291,15 +10915,15 @@
         <v>53</v>
       </c>
       <c r="AW8">
-        <f>$C8/2</f>
+        <f t="shared" si="1"/>
         <v>3.1406499999999999</v>
       </c>
-      <c r="AX8" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX8" s="3">
+        <f t="shared" si="5"/>
         <v>0.27673265358979293</v>
       </c>
-      <c r="AY8" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY8" s="3">
+        <f t="shared" si="6"/>
         <v>9.4265358979317426E-4</v>
       </c>
     </row>
@@ -10310,10 +10934,10 @@
       <c r="B9">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>6.28172</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>1.4700000000003044E-3</v>
       </c>
@@ -10342,15 +10966,15 @@
         <v>4.76837E-7</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6948276420610006E-12</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3343189581689997E-12</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" si="3"/>
+      <c r="O9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9">
@@ -10366,7 +10990,7 @@
       <c r="T9">
         <v>61</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="2">
         <v>84</v>
       </c>
       <c r="AG9" s="1">
@@ -10378,7 +11002,7 @@
       <c r="AS9">
         <v>84</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AT9" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10389,15 +11013,15 @@
         <v>61</v>
       </c>
       <c r="AW9">
-        <f>$C9/2</f>
+        <f t="shared" si="1"/>
         <v>3.14086</v>
       </c>
-      <c r="AX9" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX9" s="3">
+        <f t="shared" si="5"/>
         <v>0.23683265358979311</v>
       </c>
-      <c r="AY9" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY9" s="3">
+        <f t="shared" si="6"/>
         <v>7.3265358979313078E-4</v>
       </c>
     </row>
@@ -10408,10 +11032,10 @@
       <c r="B10">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>6.282</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>1.1900000000002464E-3</v>
       </c>
@@ -10440,15 +11064,15 @@
         <v>5.9604599999999999E-7</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6948214431760001E-12</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1405981790160002E-12</v>
       </c>
-      <c r="O10" s="2">
-        <f t="shared" si="3"/>
+      <c r="O10">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q10">
@@ -10464,7 +11088,7 @@
       <c r="T10">
         <v>69</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="2">
         <v>94</v>
       </c>
       <c r="AG10" s="1">
@@ -10476,7 +11100,7 @@
       <c r="AS10">
         <v>94</v>
       </c>
-      <c r="AT10" s="4">
+      <c r="AT10" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10487,15 +11111,15 @@
         <v>69</v>
       </c>
       <c r="AW10">
-        <f>$C10/2</f>
+        <f t="shared" si="1"/>
         <v>3.141</v>
       </c>
-      <c r="AX10" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX10" s="3">
+        <f t="shared" si="5"/>
         <v>0.20542265358979295</v>
       </c>
-      <c r="AY10" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY10" s="3">
+        <f t="shared" si="6"/>
         <v>5.9265358979310179E-4</v>
       </c>
     </row>
@@ -10506,10 +11130,10 @@
       <c r="B11">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>6.2822300000000002</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>9.6000000000007191E-4</v>
       </c>
@@ -10538,15 +11162,15 @@
         <v>-2.3841900000000001E-7</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.66337717837E-13</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4779221876609998E-12</v>
       </c>
-      <c r="O11" s="2">
-        <f t="shared" si="3"/>
+      <c r="O11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11">
@@ -10562,7 +11186,7 @@
       <c r="T11">
         <v>76</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11" s="2">
         <v>104</v>
       </c>
       <c r="AG11" s="1">
@@ -10574,7 +11198,7 @@
       <c r="AS11">
         <v>104</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="AT11" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10585,15 +11209,15 @@
         <v>76</v>
       </c>
       <c r="AW11">
-        <f>$C11/2</f>
+        <f t="shared" si="1"/>
         <v>3.1411150000000001</v>
       </c>
-      <c r="AX11" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX11" s="3">
+        <f t="shared" si="5"/>
         <v>0.21851265358979299</v>
       </c>
-      <c r="AY11" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY11" s="3">
+        <f t="shared" si="6"/>
         <v>4.7765358979301453E-4</v>
       </c>
     </row>
@@ -10604,10 +11228,10 @@
       <c r="B12">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>6.2823799999999999</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>8.1000000000042149E-4</v>
       </c>
@@ -10636,15 +11260,15 @@
         <v>-1.1920900000000001E-7</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1054262190600001E-13</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2370488395700003E-13</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="3"/>
+      <c r="O12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12">
@@ -10663,7 +11287,7 @@
       <c r="AS12">
         <v>114</v>
       </c>
-      <c r="AT12" s="4">
+      <c r="AT12" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10674,15 +11298,15 @@
         <v>83</v>
       </c>
       <c r="AW12">
-        <f>$C12/2</f>
+        <f t="shared" si="1"/>
         <v>3.1411899999999999</v>
       </c>
-      <c r="AX12" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX12" s="3">
+        <f t="shared" si="5"/>
         <v>0.22931265358979314</v>
       </c>
-      <c r="AY12" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY12" s="3">
+        <f t="shared" si="6"/>
         <v>4.0265358979318933E-4</v>
       </c>
     </row>
@@ -10693,10 +11317,10 @@
       <c r="B13">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>6.2825300000000004</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>6.599999999998829E-4</v>
       </c>
@@ -10725,15 +11349,15 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8339018381690023E-12</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4551936090000001E-11</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" si="3"/>
+      <c r="O13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13">
@@ -10752,7 +11376,7 @@
       <c r="AS13">
         <v>124</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AT13" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10763,15 +11387,15 @@
         <v>92</v>
       </c>
       <c r="AW13">
-        <f>$C13/2</f>
+        <f t="shared" si="1"/>
         <v>3.1412650000000002</v>
       </c>
-      <c r="AX13" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX13" s="3">
+        <f t="shared" si="5"/>
         <v>0.17385265358979307</v>
       </c>
-      <c r="AY13" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY13" s="3">
+        <f t="shared" si="6"/>
         <v>3.2765358979292003E-4</v>
       </c>
     </row>
@@ -10782,10 +11406,10 @@
       <c r="B14">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>6.28261</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>5.8000000000024698E-4</v>
       </c>
@@ -10814,15 +11438,15 @@
         <v>-4.76837E-7</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.66337717837E-13</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5474704913799997E-13</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="3"/>
+      <c r="O14">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q14">
@@ -10841,7 +11465,7 @@
       <c r="AS14">
         <v>134</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="AT14" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10852,15 +11476,15 @@
         <v>99</v>
       </c>
       <c r="AW14">
-        <f>$C14/2</f>
+        <f t="shared" si="1"/>
         <v>3.141305</v>
       </c>
-      <c r="AX14" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX14" s="3">
+        <f t="shared" si="5"/>
         <v>0.18637265358979294</v>
       </c>
-      <c r="AY14" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY14" s="3">
+        <f t="shared" si="6"/>
         <v>2.8765358979310207E-4</v>
       </c>
     </row>
@@ -10871,10 +11495,10 @@
       <c r="B15">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>6.2826899999999997</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>5.0000000000061107E-4</v>
       </c>
@@ -10903,15 +11527,15 @@
         <v>-4.76837E-7</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.865357547069E-12</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6484520926689999E-12</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="3"/>
+      <c r="O15">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q15">
@@ -10930,7 +11554,7 @@
       <c r="AS15">
         <v>144</v>
       </c>
-      <c r="AT15" s="4">
+      <c r="AT15" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -10941,15 +11565,15 @@
         <v>107</v>
       </c>
       <c r="AW15">
-        <f>$C15/2</f>
+        <f t="shared" si="1"/>
         <v>3.1413449999999998</v>
       </c>
-      <c r="AX15" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX15" s="3">
+        <f t="shared" si="5"/>
         <v>0.16937265358979303</v>
       </c>
-      <c r="AY15" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY15" s="3">
+        <f t="shared" si="6"/>
         <v>2.4765358979328411E-4</v>
       </c>
     </row>
@@ -10960,10 +11584,10 @@
       <c r="B16">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>6.2827599999999997</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>4.3000000000059657E-4</v>
       </c>
@@ -10992,15 +11616,15 @@
         <v>-4.76837E-7</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6484520926689999E-12</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5474704913799997E-13</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="3"/>
+      <c r="O16">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q16">
@@ -11019,7 +11643,7 @@
       <c r="AS16">
         <v>154</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="AT16" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11030,15 +11654,15 @@
         <v>115</v>
       </c>
       <c r="AW16">
-        <f>$C16/2</f>
+        <f t="shared" si="1"/>
         <v>3.1413799999999998</v>
       </c>
-      <c r="AX16" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX16" s="3">
+        <f t="shared" si="5"/>
         <v>0.15458265358979295</v>
       </c>
-      <c r="AY16" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY16" s="3">
+        <f t="shared" si="6"/>
         <v>2.1265358979327686E-4</v>
       </c>
     </row>
@@ -11049,10 +11673,10 @@
       <c r="B17">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>6.2828200000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>3.700000000002035E-4</v>
       </c>
@@ -11081,15 +11705,15 @@
         <v>7.1525600000000001E-7</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4210857206499999E-11</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1652900525136E-11</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" si="3"/>
+      <c r="O17">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q17">
@@ -11108,7 +11732,7 @@
       <c r="AS17">
         <v>164</v>
       </c>
-      <c r="AT17" s="4">
+      <c r="AT17" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11119,15 +11743,15 @@
         <v>124</v>
       </c>
       <c r="AW17">
-        <f>$C17/2</f>
+        <f t="shared" si="1"/>
         <v>3.14141</v>
       </c>
-      <c r="AX17" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX17" s="3">
+        <f t="shared" si="5"/>
         <v>0.1172026535897932</v>
       </c>
-      <c r="AY17" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY17" s="3">
+        <f t="shared" si="6"/>
         <v>1.8265358979308033E-4</v>
       </c>
     </row>
@@ -11138,10 +11762,10 @@
       <c r="B18">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>6.2828499999999998</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>3.4000000000045105E-4</v>
       </c>
@@ -11170,15 +11794,15 @@
         <v>4.76837E-7</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3896467010499998E-13</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5474704913799997E-13</v>
       </c>
-      <c r="O18" s="2">
-        <f t="shared" si="3"/>
+      <c r="O18">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q18">
@@ -11204,7 +11828,7 @@
       <c r="AS18">
         <v>174</v>
       </c>
-      <c r="AT18" s="4">
+      <c r="AT18" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11215,15 +11839,15 @@
         <v>134</v>
       </c>
       <c r="AW18">
-        <f>$C18/2</f>
+        <f t="shared" si="1"/>
         <v>3.1414249999999999</v>
       </c>
-      <c r="AX18" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX18" s="3">
+        <f t="shared" si="5"/>
         <v>6.113265358979314E-2</v>
       </c>
-      <c r="AY18" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY18" s="3">
+        <f t="shared" si="6"/>
         <v>1.6765358979320411E-4</v>
       </c>
       <c r="AZ18" t="s">
@@ -11237,10 +11861,10 @@
       <c r="B19">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>6.2828600000000003</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>3.2999999999994145E-4</v>
       </c>
@@ -11269,15 +11893,15 @@
         <v>8.34465E-7</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3806937923250012E-12</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9633433962250002E-12</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="3"/>
+      <c r="O19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19">
@@ -11303,7 +11927,7 @@
       <c r="AS19">
         <v>184</v>
       </c>
-      <c r="AT19" s="4">
+      <c r="AT19" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11314,15 +11938,15 @@
         <v>140</v>
       </c>
       <c r="AW19">
-        <f>$C19/2</f>
+        <f t="shared" si="1"/>
         <v>3.1414300000000002</v>
       </c>
-      <c r="AX19" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX19" s="3">
+        <f t="shared" si="5"/>
         <v>9.8112653589792931E-2</v>
       </c>
-      <c r="AY19" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY19" s="3">
+        <f t="shared" si="6"/>
         <v>1.626535897929493E-4</v>
       </c>
       <c r="AZ19" t="s">
@@ -11336,10 +11960,10 @@
       <c r="B20">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>6.2829300000000003</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>2.5999999999992696E-4</v>
       </c>
@@ -11368,15 +11992,15 @@
         <v>1.1920900000000001E-7</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2865250243284005E-11</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5082156889781001E-11</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" si="3"/>
+      <c r="O20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20">
@@ -11395,7 +12019,7 @@
       <c r="AS20">
         <v>194</v>
       </c>
-      <c r="AT20" s="4">
+      <c r="AT20" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11406,15 +12030,15 @@
         <v>147</v>
       </c>
       <c r="AW20">
-        <f>$C20/2</f>
+        <f t="shared" si="1"/>
         <v>3.1414650000000002</v>
       </c>
-      <c r="AX20" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX20" s="3">
+        <f t="shared" si="5"/>
         <v>0.11066265358979299</v>
       </c>
-      <c r="AY20" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY20" s="3">
+        <f t="shared" si="6"/>
         <v>1.2765358979294206E-4</v>
       </c>
       <c r="AZ20" t="b">
@@ -11428,10 +12052,10 @@
       <c r="B21">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>6.2829499999999996</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>2.4000000000068411E-4</v>
       </c>
@@ -11460,15 +12084,15 @@
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0949409827599994E-13</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2737352456899999E-13</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="3"/>
+      <c r="O21">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q21">
@@ -11487,7 +12111,7 @@
       <c r="AS21">
         <v>204</v>
       </c>
-      <c r="AT21" s="4">
+      <c r="AT21" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11498,15 +12122,15 @@
         <v>155</v>
       </c>
       <c r="AW21">
-        <f>$C21/2</f>
+        <f t="shared" si="1"/>
         <v>3.1414749999999998</v>
       </c>
-      <c r="AX21" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX21" s="3">
+        <f t="shared" si="5"/>
         <v>0.10237265358979331</v>
       </c>
-      <c r="AY21" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY21" s="3">
+        <f t="shared" si="6"/>
         <v>1.1765358979332063E-4</v>
       </c>
     </row>
@@ -11517,10 +12141,10 @@
       <c r="B22">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>6.2829499999999996</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>2.4000000000068411E-4</v>
       </c>
@@ -11549,15 +12173,15 @@
         <v>-1.1920900000000001E-7</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2580321867840009E-12</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1443451860810008E-12</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" si="3"/>
+      <c r="O22">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q22">
@@ -11576,7 +12200,7 @@
       <c r="AS22">
         <v>214</v>
       </c>
-      <c r="AT22" s="4">
+      <c r="AT22" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11587,15 +12211,15 @@
         <v>164</v>
       </c>
       <c r="AW22">
-        <f>$C22/2</f>
+        <f t="shared" si="1"/>
         <v>3.1414749999999998</v>
       </c>
-      <c r="AX22" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX22" s="3">
+        <f t="shared" si="5"/>
         <v>7.6172653589793082E-2</v>
       </c>
-      <c r="AY22" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY22" s="3">
+        <f t="shared" si="6"/>
         <v>1.1765358979332063E-4</v>
       </c>
     </row>
@@ -11606,10 +12230,10 @@
       <c r="B23">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>6.2829699999999997</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>2.2000000000055309E-4</v>
       </c>
@@ -11638,15 +12262,15 @@
         <v>-1.1920900000000001E-7</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0587081347069001E-11</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4566146875681E-11</v>
       </c>
-      <c r="O23" s="2">
-        <f t="shared" si="3"/>
+      <c r="O23">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q23">
@@ -11665,7 +12289,7 @@
       <c r="AS23">
         <v>224</v>
       </c>
-      <c r="AT23" s="4">
+      <c r="AT23" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11676,15 +12300,15 @@
         <v>171</v>
       </c>
       <c r="AW23">
-        <f>$C23/2</f>
+        <f t="shared" si="1"/>
         <v>3.1414849999999999</v>
       </c>
-      <c r="AX23" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX23" s="3">
+        <f t="shared" si="5"/>
         <v>8.8022653589792998E-2</v>
       </c>
-      <c r="AY23" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY23" s="3">
+        <f t="shared" si="6"/>
         <v>1.0765358979325512E-4</v>
       </c>
     </row>
@@ -11695,10 +12319,10 @@
       <c r="B24">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>6.2829800000000002</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>2.1000000000004349E-4</v>
       </c>
@@ -11727,15 +12351,15 @@
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7465181248461002E-11</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0520447002499998E-11</v>
       </c>
-      <c r="O24" s="2">
-        <f t="shared" si="3"/>
+      <c r="O24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q24">
@@ -11754,7 +12378,7 @@
       <c r="AS24">
         <v>234</v>
       </c>
-      <c r="AT24" s="4">
+      <c r="AT24" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11765,15 +12389,15 @@
         <v>179</v>
       </c>
       <c r="AW24">
-        <f>$C24/2</f>
+        <f t="shared" si="1"/>
         <v>3.1414900000000001</v>
       </c>
-      <c r="AX24" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX24" s="3">
+        <f t="shared" si="5"/>
         <v>8.1762653589793288E-2</v>
       </c>
-      <c r="AY24" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY24" s="3">
+        <f t="shared" si="6"/>
         <v>1.0265358979300032E-4</v>
       </c>
     </row>
@@ -11784,10 +12408,10 @@
       <c r="B25">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>6.2830300000000001</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>1.6000000000016001E-4</v>
       </c>
@@ -11816,15 +12440,15 @@
         <v>7.1525600000000001E-7</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6948214431760001E-12</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.115920038436E-12</v>
       </c>
-      <c r="O25" s="2">
-        <f t="shared" si="3"/>
+      <c r="O25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q25">
@@ -11843,7 +12467,7 @@
       <c r="AS25">
         <v>244</v>
       </c>
-      <c r="AT25" s="4">
+      <c r="AT25" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11854,15 +12478,15 @@
         <v>188</v>
       </c>
       <c r="AW25">
-        <f>$C25/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415150000000001</v>
       </c>
-      <c r="AX25" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX25" s="3">
+        <f t="shared" si="5"/>
         <v>5.9622653589793018E-2</v>
       </c>
-      <c r="AY25" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY25" s="3">
+        <f t="shared" si="6"/>
         <v>7.7653589793058586E-5</v>
       </c>
     </row>
@@ -11873,10 +12497,10 @@
       <c r="B26">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>6.2830399999999997</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>1.5000000000053859E-4</v>
       </c>
@@ -11905,15 +12529,15 @@
         <v>4.76837E-7</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6185396785809994E-12</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3575079249690008E-12</v>
       </c>
-      <c r="O26" s="2">
-        <f t="shared" si="3"/>
+      <c r="O26">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q26">
@@ -11932,7 +12556,7 @@
       <c r="AS26">
         <v>254</v>
       </c>
-      <c r="AT26" s="4">
+      <c r="AT26" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -11943,15 +12567,15 @@
         <v>197</v>
       </c>
       <c r="AW26">
-        <f>$C26/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415199999999999</v>
       </c>
-      <c r="AX26" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX26" s="3">
+        <f t="shared" si="5"/>
         <v>3.9232653589793109E-2</v>
       </c>
-      <c r="AY26" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY26" s="3">
+        <f t="shared" si="6"/>
         <v>7.2653589793247875E-5</v>
       </c>
     </row>
@@ -11962,10 +12586,10 @@
       <c r="B27">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>6.2830500000000002</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>1.4000000000002899E-4</v>
       </c>
@@ -11994,15 +12618,15 @@
         <v>4.76837E-7</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2794196076461004E-11</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0747820527068999E-11</v>
       </c>
-      <c r="O27" s="2">
-        <f t="shared" si="3"/>
+      <c r="O27">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q27">
@@ -12021,7 +12645,7 @@
       <c r="AS27">
         <v>264</v>
       </c>
-      <c r="AT27" s="4">
+      <c r="AT27" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12032,15 +12656,15 @@
         <v>205</v>
       </c>
       <c r="AW27">
-        <f>$C27/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415250000000001</v>
       </c>
-      <c r="AX27" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX27" s="3">
+        <f t="shared" si="5"/>
         <v>3.5532653589793295E-2</v>
       </c>
-      <c r="AY27" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY27" s="3">
+        <f t="shared" si="6"/>
         <v>6.7653589792993074E-5</v>
       </c>
     </row>
@@ -12051,10 +12675,10 @@
       <c r="B28">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>6.2830300000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>1.6000000000016001E-4</v>
       </c>
@@ -12083,15 +12707,15 @@
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4779221876609998E-12</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0949409827599994E-13</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="3"/>
+      <c r="O28">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q28">
@@ -12110,7 +12734,7 @@
       <c r="AS28">
         <v>274</v>
       </c>
-      <c r="AT28" s="4">
+      <c r="AT28" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12121,15 +12745,15 @@
         <v>211</v>
       </c>
       <c r="AW28">
-        <f>$C28/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415150000000001</v>
       </c>
-      <c r="AX28" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX28" s="3">
+        <f t="shared" si="5"/>
         <v>6.1302653589792921E-2</v>
       </c>
-      <c r="AY28" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY28" s="3">
+        <f t="shared" si="6"/>
         <v>7.7653589793058586E-5</v>
       </c>
     </row>
@@ -12140,10 +12764,10 @@
       <c r="B29">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>6.2830399999999997</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>1.5000000000053859E-4</v>
       </c>
@@ -12172,15 +12796,15 @@
         <v>-7.1525600000000001E-7</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3006607291249992E-12</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1495751680359998E-12</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="3"/>
+      <c r="O29">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q29">
@@ -12199,7 +12823,7 @@
       <c r="AS29">
         <v>284</v>
       </c>
-      <c r="AT29" s="4">
+      <c r="AT29" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12210,15 +12834,15 @@
         <v>220</v>
       </c>
       <c r="AW29">
-        <f>$C29/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415199999999999</v>
       </c>
-      <c r="AX29" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX29" s="3">
+        <f t="shared" si="5"/>
         <v>4.3002653589792939E-2</v>
       </c>
-      <c r="AY29" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY29" s="3">
+        <f t="shared" si="6"/>
         <v>7.2653589793247875E-5</v>
       </c>
     </row>
@@ -12229,10 +12853,10 @@
       <c r="B30">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>6.2830599999999999</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>1.3000000000040757E-4</v>
       </c>
@@ -12261,15 +12885,15 @@
         <v>2.3841900000000001E-7</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0059285463840007E-12</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1198152999161001E-11</v>
       </c>
-      <c r="O30" s="2">
-        <f t="shared" si="3"/>
+      <c r="O30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30">
@@ -12288,7 +12912,7 @@
       <c r="AS30">
         <v>294</v>
       </c>
-      <c r="AT30" s="4">
+      <c r="AT30" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12299,15 +12923,15 @@
         <v>227</v>
       </c>
       <c r="AW30">
-        <f>$C30/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415299999999999</v>
       </c>
-      <c r="AX30" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX30" s="3">
+        <f t="shared" si="5"/>
         <v>5.3152653589793264E-2</v>
       </c>
-      <c r="AY30" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY30" s="3">
+        <f t="shared" si="6"/>
         <v>6.2653589793182363E-5</v>
       </c>
     </row>
@@ -12318,10 +12942,10 @@
       <c r="B31">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>6.28308</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>1.1000000000027654E-4</v>
       </c>
@@ -12350,15 +12974,15 @@
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1950422435536002E-11</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1438831290000002E-11</v>
       </c>
-      <c r="O31" s="2">
-        <f t="shared" si="3"/>
+      <c r="O31">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q31">
@@ -12377,7 +13001,7 @@
       <c r="AS31">
         <v>304</v>
       </c>
-      <c r="AT31" s="4">
+      <c r="AT31" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12388,15 +13012,15 @@
         <v>234</v>
       </c>
       <c r="AW31">
-        <f>$C31/2</f>
+        <f t="shared" si="1"/>
         <v>3.14154</v>
       </c>
-      <c r="AX31" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX31" s="3">
+        <f t="shared" si="5"/>
         <v>6.2642653589793262E-2</v>
       </c>
-      <c r="AY31" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY31" s="3">
+        <f t="shared" si="6"/>
         <v>5.2653589793116851E-5</v>
       </c>
     </row>
@@ -12407,10 +13031,10 @@
       <c r="B32">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>6.2830399999999997</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>1.5000000000053859E-4</v>
       </c>
@@ -12439,15 +13063,15 @@
         <v>-3.57628E-7</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9004375460969004E-11</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4248216173983996E-11</v>
       </c>
-      <c r="O32" s="2">
-        <f t="shared" si="3"/>
+      <c r="O32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32">
@@ -12466,7 +13090,7 @@
       <c r="AS32">
         <v>314</v>
       </c>
-      <c r="AT32" s="4">
+      <c r="AT32" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12477,15 +13101,15 @@
         <v>244</v>
       </c>
       <c r="AW32">
-        <f>$C32/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415199999999999</v>
       </c>
-      <c r="AX32" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX32" s="3">
+        <f t="shared" si="5"/>
         <v>3.3312653589792962E-2</v>
       </c>
-      <c r="AY32" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY32" s="3">
+        <f t="shared" si="6"/>
         <v>7.2653589793247875E-5</v>
       </c>
     </row>
@@ -12496,10 +13120,10 @@
       <c r="B33">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>6.2830599999999999</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>1.3000000000040757E-4</v>
       </c>
@@ -12528,15 +13152,15 @@
         <v>3.57628E-7</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6227917324461005E-11</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9595910008884003E-11</v>
       </c>
-      <c r="O33" s="2">
-        <f t="shared" si="3"/>
+      <c r="O33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33">
@@ -12555,7 +13179,7 @@
       <c r="AS33">
         <v>324</v>
       </c>
-      <c r="AT33" s="4">
+      <c r="AT33" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12566,15 +13190,15 @@
         <v>254</v>
       </c>
       <c r="AW33">
-        <f>$C33/2</f>
+        <f t="shared" si="1"/>
         <v>3.1415299999999999</v>
       </c>
-      <c r="AX33" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX33" s="3">
+        <f t="shared" si="5"/>
         <v>5.7926535897929732E-3</v>
       </c>
-      <c r="AY33" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY33" s="3">
+        <f t="shared" si="6"/>
         <v>6.2653589793182363E-5</v>
       </c>
     </row>
@@ -12585,10 +13209,10 @@
       <c r="B34">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>6.2830899999999996</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>1.0000000000065512E-4</v>
       </c>
@@ -12617,15 +13241,15 @@
         <v>-9.5367399999999999E-7</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0845610588276011E-11</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4578584723176014E-11</v>
       </c>
-      <c r="O34" s="2">
-        <f t="shared" si="3"/>
+      <c r="O34">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q34">
@@ -12644,7 +13268,7 @@
       <c r="AS34">
         <v>334</v>
       </c>
-      <c r="AT34" s="4">
+      <c r="AT34" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12655,15 +13279,15 @@
         <v>262</v>
       </c>
       <c r="AW34">
-        <f>$C34/2</f>
+        <f t="shared" ref="AW34:AW65" si="7">$C34/2</f>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX34" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX34" s="3">
+        <f t="shared" si="5"/>
         <v>3.8726535897932735E-3</v>
       </c>
-      <c r="AY34" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY34" s="3">
+        <f t="shared" si="6"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
@@ -12674,10 +13298,10 @@
       <c r="B35">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>6.2831099999999998</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>8.0000000000524096E-5</v>
       </c>
@@ -12706,15 +13330,15 @@
         <v>2.3841900000000001E-7</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3725934244461009E-11</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2138812827660997E-11</v>
       </c>
-      <c r="O35" s="2">
-        <f t="shared" si="3"/>
+      <c r="O35">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q35">
@@ -12733,7 +13357,7 @@
       <c r="AS35">
         <v>344</v>
       </c>
-      <c r="AT35" s="4">
+      <c r="AT35" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12744,15 +13368,15 @@
         <v>268</v>
       </c>
       <c r="AW35">
-        <f>$C35/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415549999999999</v>
       </c>
-      <c r="AX35" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX35" s="3">
+        <f t="shared" si="5"/>
         <v>2.5312653589792955E-2</v>
       </c>
-      <c r="AY35" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY35" s="3">
+        <f t="shared" si="6"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
@@ -12763,10 +13387,10 @@
       <c r="B36">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>6.2830899999999996</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>1.0000000000065512E-4</v>
       </c>
@@ -12795,15 +13419,15 @@
         <v>2.3841900000000001E-7</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5786520817960998E-11</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1693769719160981E-11</v>
       </c>
-      <c r="O36" s="2">
-        <f t="shared" si="3"/>
+      <c r="O36">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q36">
@@ -12822,7 +13446,7 @@
       <c r="AS36">
         <v>354</v>
       </c>
-      <c r="AT36" s="4">
+      <c r="AT36" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12833,15 +13457,15 @@
         <v>278</v>
       </c>
       <c r="AW36">
-        <f>$C36/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX36" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX36" s="3">
+        <f t="shared" si="5"/>
         <v>3.5265358979330585E-4</v>
       </c>
-      <c r="AY36" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY36" s="3">
+        <f t="shared" si="6"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
@@ -12852,10 +13476,10 @@
       <c r="B37">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>6.2831299999999999</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>6.0000000000393072E-5</v>
       </c>
@@ -12884,15 +13508,15 @@
         <v>9.5367399999999999E-7</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7879833390499997E-11</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2811928294376005E-11</v>
       </c>
-      <c r="O37" s="2">
-        <f t="shared" si="3"/>
+      <c r="O37">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q37">
@@ -12911,7 +13535,7 @@
       <c r="AS37">
         <v>364</v>
       </c>
-      <c r="AT37" s="4">
+      <c r="AT37" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -12922,15 +13546,15 @@
         <v>285</v>
       </c>
       <c r="AW37">
-        <f>$C37/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415649999999999</v>
       </c>
-      <c r="AX37" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX37" s="3">
+        <f t="shared" si="5"/>
         <v>9.7226535897929622E-3</v>
       </c>
-      <c r="AY37" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY37" s="3">
+        <f t="shared" si="6"/>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
@@ -12941,10 +13565,10 @@
       <c r="B38">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>6.2830500000000002</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>1.4000000000002899E-4</v>
       </c>
@@ -12973,15 +13597,15 @@
         <v>7.1525600000000001E-7</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.379698841128401E-11</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8169454339136016E-11</v>
       </c>
-      <c r="O38" s="2">
-        <f t="shared" si="3"/>
+      <c r="O38">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q38">
@@ -13000,7 +13624,7 @@
       <c r="AS38">
         <v>374</v>
       </c>
-      <c r="AT38" s="4">
+      <c r="AT38" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13011,15 +13635,15 @@
         <v>292</v>
       </c>
       <c r="AW38">
-        <f>$C38/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415250000000001</v>
       </c>
-      <c r="AX38" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX38" s="3">
+        <f t="shared" si="5"/>
         <v>1.8602653589792961E-2</v>
       </c>
-      <c r="AY38" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY38" s="3">
+        <f t="shared" si="6"/>
         <v>6.7653589792993074E-5</v>
       </c>
     </row>
@@ -13030,10 +13654,10 @@
       <c r="B39">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>6.2830899999999996</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>1.0000000000065512E-4</v>
       </c>
@@ -13062,15 +13686,15 @@
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.661172512461E-12</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1854354404E-12</v>
       </c>
-      <c r="O39" s="2">
-        <f t="shared" si="3"/>
+      <c r="O39">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q39">
@@ -13089,7 +13713,7 @@
       <c r="AS39">
         <v>384</v>
       </c>
-      <c r="AT39" s="4">
+      <c r="AT39" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13100,15 +13724,15 @@
         <v>300</v>
       </c>
       <c r="AW39">
-        <f>$C39/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX39" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX39" s="3">
+        <f t="shared" si="5"/>
         <v>1.6592653589793116E-2</v>
       </c>
-      <c r="AY39" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY39" s="3">
+        <f t="shared" si="6"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
@@ -13119,10 +13743,10 @@
       <c r="B40">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>6.2831400000000004</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>4.9999999999883471E-5</v>
       </c>
@@ -13151,15 +13775,15 @@
         <v>-3.57628E-7</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5545776723600001E-11</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8335489558484008E-11</v>
       </c>
-      <c r="O40" s="2">
-        <f t="shared" si="3"/>
+      <c r="O40">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q40">
@@ -13178,7 +13802,7 @@
       <c r="AS40">
         <v>394</v>
       </c>
-      <c r="AT40" s="4">
+      <c r="AT40" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13189,15 +13813,15 @@
         <v>308</v>
       </c>
       <c r="AW40">
-        <f>$C40/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="AX40" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX40" s="3">
+        <f t="shared" si="5"/>
         <v>1.4692653589793103E-2</v>
       </c>
-      <c r="AY40" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY40" s="3">
+        <f t="shared" si="6"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
@@ -13208,10 +13832,10 @@
       <c r="B41">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>6.2830899999999996</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>1.0000000000065512E-4</v>
       </c>
@@ -13240,15 +13864,15 @@
         <v>-4.76837E-7</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.55271310953E-13</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8264435868499992E-13</v>
       </c>
-      <c r="O41" s="2">
-        <f t="shared" si="3"/>
+      <c r="O41">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q41">
@@ -13267,7 +13891,7 @@
       <c r="AS41">
         <v>404</v>
       </c>
-      <c r="AT41" s="4">
+      <c r="AT41" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13278,15 +13902,15 @@
         <v>316</v>
       </c>
       <c r="AW41">
-        <f>$C41/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX41" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX41" s="3">
+        <f t="shared" si="5"/>
         <v>1.2882653589793236E-2</v>
       </c>
-      <c r="AY41" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY41" s="3">
+        <f t="shared" si="6"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
@@ -13297,10 +13921,10 @@
       <c r="B42">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>6.2831599999999996</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>3.0000000000640625E-5</v>
       </c>
@@ -13329,15 +13953,15 @@
         <v>1.1920899999999999E-6</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2964725981469004E-11</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6489024672200001E-11</v>
       </c>
-      <c r="O42" s="2">
-        <f t="shared" si="3"/>
+      <c r="O42">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q42">
@@ -13356,7 +13980,7 @@
       <c r="AS42">
         <v>414</v>
       </c>
-      <c r="AT42" s="4">
+      <c r="AT42" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13367,15 +13991,15 @@
         <v>325</v>
       </c>
       <c r="AW42">
-        <f>$C42/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415799999999998</v>
       </c>
-      <c r="AX42" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX42" s="3">
+        <f t="shared" si="5"/>
         <v>1.4926535897932247E-3</v>
       </c>
-      <c r="AY42" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY42" s="3">
+        <f t="shared" si="6"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
@@ -13386,10 +14010,10 @@
       <c r="B43">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>6.2831200000000003</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>7.0000000000014495E-5</v>
       </c>
@@ -13418,15 +14042,15 @@
         <v>-7.1525600000000001E-7</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1368723912200002E-13</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6843476509699993E-13</v>
       </c>
-      <c r="O43" s="2">
-        <f t="shared" si="3"/>
+      <c r="O43">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q43">
@@ -13445,7 +14069,7 @@
       <c r="AS43">
         <v>424</v>
       </c>
-      <c r="AT43" s="4">
+      <c r="AT43" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13456,15 +14080,15 @@
         <v>333</v>
       </c>
       <c r="AW43">
-        <f>$C43/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415600000000001</v>
       </c>
-      <c r="AX43" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX43" s="3">
+        <f t="shared" si="5"/>
         <v>8.2653589793313387E-5</v>
       </c>
-      <c r="AY43" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY43" s="3">
+        <f t="shared" si="6"/>
         <v>3.2653589792985827E-5</v>
       </c>
     </row>
@@ -13475,10 +14099,10 @@
       <c r="B44">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>6.2831299999999999</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>6.0000000000393072E-5</v>
       </c>
@@ -13507,15 +14131,15 @@
         <v>-3.57628E-7</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7640125730484002E-11</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8545127527284002E-11</v>
       </c>
-      <c r="O44" s="2">
-        <f t="shared" si="3"/>
+      <c r="O44">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q44">
@@ -13534,7 +14158,7 @@
       <c r="AS44">
         <v>434</v>
       </c>
-      <c r="AT44" s="4">
+      <c r="AT44" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13545,15 +14169,15 @@
         <v>341</v>
       </c>
       <c r="AW44">
-        <f>$C44/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415649999999999</v>
       </c>
-      <c r="AX44" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX44" s="3">
+        <f t="shared" si="5"/>
         <v>-1.267346410207093E-3</v>
       </c>
-      <c r="AY44" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY44" s="3">
+        <f t="shared" si="6"/>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
@@ -13564,10 +14188,10 @@
       <c r="B45">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>6.2831000000000001</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>9.0000000000145519E-5</v>
       </c>
@@ -13596,15 +14220,15 @@
         <v>3.57628E-7</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5423216938216003E-11</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7536235415284003E-11</v>
       </c>
-      <c r="O45" s="2">
-        <f t="shared" si="3"/>
+      <c r="O45">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q45">
@@ -13623,7 +14247,7 @@
       <c r="AS45">
         <v>444</v>
       </c>
-      <c r="AT45" s="4">
+      <c r="AT45" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13634,15 +14258,15 @@
         <v>349</v>
       </c>
       <c r="AW45">
-        <f>$C45/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415500000000001</v>
       </c>
-      <c r="AX45" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX45" s="3">
+        <f t="shared" si="5"/>
         <v>-2.5473464102070409E-3</v>
       </c>
-      <c r="AY45" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY45" s="3">
+        <f t="shared" si="6"/>
         <v>4.2653589793051339E-5</v>
       </c>
     </row>
@@ -13653,10 +14277,10 @@
       <c r="B46">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>6.2830899999999996</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>1.0000000000065512E-4</v>
       </c>
@@ -13685,15 +14309,15 @@
         <v>2.3841900000000001E-7</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0471999470010001E-10</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1262045577956098E-10</v>
       </c>
-      <c r="O46" s="2">
-        <f t="shared" si="3"/>
+      <c r="O46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q46">
@@ -13712,7 +14336,7 @@
       <c r="AS46">
         <v>454</v>
       </c>
-      <c r="AT46" s="4">
+      <c r="AT46" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13723,15 +14347,15 @@
         <v>355</v>
       </c>
       <c r="AW46">
-        <f>$C46/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX46" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX46" s="3">
+        <f t="shared" si="5"/>
         <v>1.3842653589793308E-2</v>
       </c>
-      <c r="AY46" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY46" s="3">
+        <f t="shared" si="6"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
@@ -13742,10 +14366,10 @@
       <c r="B47">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>6.2831299999999999</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>6.0000000000393072E-5</v>
       </c>
@@ -13774,15 +14398,15 @@
         <v>-7.1525600000000001E-7</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3301369783935998E-11</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0118119459136001E-11</v>
       </c>
-      <c r="O47" s="2">
-        <f t="shared" si="3"/>
+      <c r="O47">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q47">
@@ -13801,7 +14425,7 @@
       <c r="AS47">
         <v>464</v>
       </c>
-      <c r="AT47" s="4">
+      <c r="AT47" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13812,15 +14436,15 @@
         <v>364</v>
       </c>
       <c r="AW47">
-        <f>$C47/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415649999999999</v>
       </c>
-      <c r="AX47" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX47" s="3">
+        <f t="shared" si="5"/>
         <v>3.66265358979323E-3</v>
       </c>
-      <c r="AY47" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY47" s="3">
+        <f t="shared" si="6"/>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
@@ -13831,10 +14455,10 @@
       <c r="B48">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>6.28315</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>4.0000000000262048E-5</v>
       </c>
@@ -13863,15 +14487,15 @@
         <v>-9.5367399999999999E-7</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1652822800810001E-12</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0373918846599999E-12</v>
       </c>
-      <c r="O48" s="2">
-        <f t="shared" si="3"/>
+      <c r="O48">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q48">
@@ -13890,7 +14514,7 @@
       <c r="AS48">
         <v>474</v>
       </c>
-      <c r="AT48" s="4">
+      <c r="AT48" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13901,15 +14525,15 @@
         <v>370</v>
       </c>
       <c r="AW48">
-        <f>$C48/2</f>
+        <f t="shared" si="7"/>
         <v>3.141575</v>
       </c>
-      <c r="AX48" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX48" s="3">
+        <f t="shared" si="5"/>
         <v>1.9232653589793092E-2</v>
       </c>
-      <c r="AY48" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY48" s="3">
+        <f t="shared" si="6"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
@@ -13920,10 +14544,10 @@
       <c r="B49">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>6.28308</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>1.1000000000027654E-4</v>
       </c>
@@ -13952,15 +14576,15 @@
         <v>1.3113E-6</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1006270294568101E-10</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3268693249999999E-10</v>
       </c>
-      <c r="O49" s="2">
-        <f t="shared" si="3"/>
+      <c r="O49">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q49">
@@ -13979,7 +14603,7 @@
       <c r="AS49">
         <v>484</v>
       </c>
-      <c r="AT49" s="4">
+      <c r="AT49" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -13990,15 +14614,15 @@
         <v>378</v>
       </c>
       <c r="AW49">
-        <f>$C49/2</f>
+        <f t="shared" si="7"/>
         <v>3.14154</v>
       </c>
-      <c r="AX49" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX49" s="3">
+        <f t="shared" si="5"/>
         <v>1.7622653589793202E-2</v>
       </c>
-      <c r="AY49" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY49" s="3">
+        <f t="shared" si="6"/>
         <v>5.2653589793116851E-5</v>
       </c>
     </row>
@@ -14009,10 +14633,10 @@
       <c r="B50">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>6.2831400000000004</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>4.9999999999883471E-5</v>
       </c>
@@ -14041,15 +14665,15 @@
         <v>1.1920899999999999E-6</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2079151139610001E-12</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5489763544839999E-12</v>
       </c>
-      <c r="O50" s="2">
-        <f t="shared" si="3"/>
+      <c r="O50">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q50">
@@ -14068,7 +14692,7 @@
       <c r="AS50">
         <v>494</v>
       </c>
-      <c r="AT50" s="4">
+      <c r="AT50" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14079,15 +14703,15 @@
         <v>387</v>
       </c>
       <c r="AW50">
-        <f>$C50/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="AX50" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX50" s="3">
+        <f t="shared" si="5"/>
         <v>7.992653589793175E-3</v>
       </c>
-      <c r="AY50" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY50" s="3">
+        <f t="shared" si="6"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
@@ -14098,10 +14722,10 @@
       <c r="B51">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>6.2831000000000001</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>9.0000000000145519E-5</v>
       </c>
@@ -14130,15 +14754,15 @@
         <v>-1.3113E-6</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1964620108200001E-11</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1789705666899995E-11</v>
       </c>
-      <c r="O51" s="2">
-        <f t="shared" si="3"/>
+      <c r="O51">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q51">
@@ -14157,7 +14781,7 @@
       <c r="AS51">
         <v>504</v>
       </c>
-      <c r="AT51" s="4">
+      <c r="AT51" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14168,15 +14792,15 @@
         <v>395</v>
       </c>
       <c r="AW51">
-        <f>$C51/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415500000000001</v>
       </c>
-      <c r="AX51" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX51" s="3">
+        <f t="shared" si="5"/>
         <v>6.6726535897929651E-3</v>
       </c>
-      <c r="AY51" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY51" s="3">
+        <f t="shared" si="6"/>
         <v>4.2653589793051339E-5</v>
       </c>
     </row>
@@ -14187,10 +14811,10 @@
       <c r="B52">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>6.2831799999999998</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>1.0000000000509601E-5</v>
       </c>
@@ -14219,15 +14843,15 @@
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0581789122435996E-11</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0520447002499998E-11</v>
       </c>
-      <c r="O52" s="2">
-        <f t="shared" si="3"/>
+      <c r="O52">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q52">
@@ -14246,7 +14870,7 @@
       <c r="AS52">
         <v>524</v>
       </c>
-      <c r="AT52" s="4">
+      <c r="AT52" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14257,15 +14881,15 @@
         <v>413</v>
       </c>
       <c r="AW52">
-        <f>$C52/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415899999999999</v>
       </c>
-      <c r="AX52" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX52" s="3">
+        <f t="shared" si="5"/>
         <v>-1.1077346410206967E-2</v>
       </c>
-      <c r="AY52" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY52" s="3">
+        <f t="shared" si="6"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
@@ -14276,10 +14900,10 @@
       <c r="B53">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>6.2831700000000001</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>2.0000000000131024E-5</v>
       </c>
@@ -14308,15 +14932,15 @@
         <v>7.1525600000000001E-7</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6843476509699993E-13</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.421085243812E-12</v>
       </c>
-      <c r="O53" s="2">
-        <f t="shared" si="3"/>
+      <c r="O53">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q53">
@@ -14335,7 +14959,7 @@
       <c r="AS53">
         <v>544</v>
       </c>
-      <c r="AT53" s="4">
+      <c r="AT53" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14346,15 +14970,15 @@
         <v>430</v>
       </c>
       <c r="AW53">
-        <f>$C53/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX53" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX53" s="3">
+        <f t="shared" si="5"/>
         <v>-2.016734641020701E-2</v>
       </c>
-      <c r="AY53" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY53" s="3">
+        <f t="shared" si="6"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
@@ -14365,10 +14989,10 @@
       <c r="B54">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>6.2831700000000001</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>2.0000000000131024E-5</v>
       </c>
@@ -14397,15 +15021,15 @@
         <v>-1.3113E-6</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8421714412999997E-13</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7763513095610002E-12</v>
       </c>
-      <c r="O54" s="2">
-        <f t="shared" si="3"/>
+      <c r="O54">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q54">
@@ -14424,7 +15048,7 @@
       <c r="AS54">
         <v>554</v>
       </c>
-      <c r="AT54" s="4">
+      <c r="AT54" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14435,15 +15059,15 @@
         <v>435</v>
       </c>
       <c r="AW54">
-        <f>$C54/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX54" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX54" s="3">
+        <f t="shared" si="5"/>
         <v>8.0265358979314527E-4</v>
       </c>
-      <c r="AY54" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY54" s="3">
+        <f t="shared" si="6"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
@@ -14454,10 +15078,10 @@
       <c r="B55">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>6.2831599999999996</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>3.0000000000640625E-5</v>
       </c>
@@ -14486,15 +15110,15 @@
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3896467010499998E-13</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1159114553599997E-13</v>
       </c>
-      <c r="O55" s="2">
-        <f t="shared" si="3"/>
+      <c r="O55">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q55">
@@ -14513,7 +15137,7 @@
       <c r="AS55">
         <v>564</v>
       </c>
-      <c r="AT55" s="4">
+      <c r="AT55" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14524,15 +15148,15 @@
         <v>442</v>
       </c>
       <c r="AW55">
-        <f>$C55/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415799999999998</v>
       </c>
-      <c r="AX55" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX55" s="3">
+        <f t="shared" si="5"/>
         <v>6.8426535897931906E-3</v>
       </c>
-      <c r="AY55" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY55" s="3">
+        <f t="shared" si="6"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
@@ -14543,10 +15167,10 @@
       <c r="B56">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>6.2831599999999996</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>3.0000000000640625E-5</v>
       </c>
@@ -14575,15 +15199,15 @@
         <v>-5.9604599999999999E-7</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3145049472515998E-11</v>
-      </c>
-      <c r="N56" s="1">
         <f t="shared" si="2"/>
         <v>1.3145049472515998E-11</v>
       </c>
-      <c r="O56" s="2">
+      <c r="N56" s="1">
         <f t="shared" si="3"/>
+        <v>1.3145049472515998E-11</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q56">
@@ -14602,7 +15226,7 @@
       <c r="AS56">
         <v>574</v>
       </c>
-      <c r="AT56" s="4">
+      <c r="AT56" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14613,15 +15237,15 @@
         <v>450</v>
       </c>
       <c r="AW56">
-        <f>$C56/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415799999999998</v>
       </c>
-      <c r="AX56" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX56" s="3">
+        <f t="shared" si="5"/>
         <v>5.7026535897932717E-3</v>
       </c>
-      <c r="AY56" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY56" s="3">
+        <f t="shared" si="6"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
@@ -14632,10 +15256,10 @@
       <c r="B57">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>6.2831799999999998</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>1.0000000000509601E-5</v>
       </c>
@@ -14664,15 +15288,15 @@
         <v>-2.3841900000000001E-7</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4210857206499998E-13</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6843476509699993E-13</v>
       </c>
-      <c r="O57" s="2">
-        <f t="shared" si="3"/>
+      <c r="O57">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q57">
@@ -14691,7 +15315,7 @@
       <c r="AS57">
         <v>584</v>
       </c>
-      <c r="AT57" s="4">
+      <c r="AT57" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14702,15 +15326,15 @@
         <v>457</v>
       </c>
       <c r="AW57">
-        <f>$C57/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415899999999999</v>
       </c>
-      <c r="AX57" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX57" s="3">
+        <f t="shared" si="5"/>
         <v>1.1452653589793194E-2</v>
       </c>
-      <c r="AY57" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY57" s="3">
+        <f t="shared" si="6"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
@@ -14721,10 +15345,10 @@
       <c r="B58">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>6.2831400000000004</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>4.9999999999883471E-5</v>
       </c>
@@ -14753,15 +15377,15 @@
         <v>4.76837E-7</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8424517994000005E-10</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3288849452456899E-10</v>
       </c>
-      <c r="O58" s="2">
-        <f t="shared" si="3"/>
+      <c r="O58">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q58">
@@ -14780,7 +15404,7 @@
       <c r="AS58">
         <v>594</v>
       </c>
-      <c r="AT58" s="4">
+      <c r="AT58" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14791,15 +15415,15 @@
         <v>467</v>
       </c>
       <c r="AW58">
-        <f>$C58/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="AX58" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX58" s="3">
+        <f t="shared" si="5"/>
         <v>-3.1873464102067928E-3</v>
       </c>
-      <c r="AY58" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY58" s="3">
+        <f t="shared" si="6"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
@@ -14810,10 +15434,10 @@
       <c r="B59">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>6.28315</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>4.0000000000262048E-5</v>
       </c>
@@ -14842,15 +15466,15 @@
         <v>-1.3113E-6</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6463247123875999E-11</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5975751664399991E-11</v>
       </c>
-      <c r="O59" s="2">
-        <f t="shared" si="3"/>
+      <c r="O59">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q59">
@@ -14869,7 +15493,7 @@
       <c r="AS59">
         <v>604</v>
       </c>
-      <c r="AT59" s="4">
+      <c r="AT59" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14880,15 +15504,15 @@
         <v>474</v>
       </c>
       <c r="AW59">
-        <f>$C59/2</f>
+        <f t="shared" si="7"/>
         <v>3.141575</v>
       </c>
-      <c r="AX59" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX59" s="3">
+        <f t="shared" si="5"/>
         <v>2.5226535897933111E-3</v>
       </c>
-      <c r="AY59" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY59" s="3">
+        <f t="shared" si="6"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
@@ -14899,10 +15523,10 @@
       <c r="B60">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>6.2830899999999996</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <f t="shared" si="0"/>
         <v>1.0000000000065512E-4</v>
       </c>
@@ -14931,15 +15555,15 @@
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3753509838553596E-10</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2832715203999998E-10</v>
       </c>
-      <c r="O60" s="2">
-        <f t="shared" si="3"/>
+      <c r="O60">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q60">
@@ -14958,7 +15582,7 @@
       <c r="AS60">
         <v>624</v>
       </c>
-      <c r="AT60" s="4">
+      <c r="AT60" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -14969,15 +15593,15 @@
         <v>491</v>
       </c>
       <c r="AW60">
-        <f>$C60/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX60" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX60" s="3">
+        <f t="shared" si="5"/>
         <v>-5.8473464102068995E-3</v>
       </c>
-      <c r="AY60" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY60" s="3">
+        <f t="shared" si="6"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
@@ -14988,10 +15612,10 @@
       <c r="B61">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>6.2831000000000001</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <f t="shared" si="0"/>
         <v>9.0000000000145519E-5</v>
       </c>
@@ -15020,15 +15644,15 @@
         <v>1.1920900000000001E-7</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9918261248099998E-11</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1406026851281002E-11</v>
       </c>
-      <c r="O61" s="2">
-        <f t="shared" si="3"/>
+      <c r="O61">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q61">
@@ -15047,7 +15671,7 @@
       <c r="AS61">
         <v>634</v>
       </c>
-      <c r="AT61" s="4">
+      <c r="AT61" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15058,15 +15682,15 @@
         <v>500</v>
       </c>
       <c r="AW61">
-        <f>$C61/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415500000000001</v>
       </c>
-      <c r="AX61" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX61" s="3">
+        <f t="shared" si="5"/>
         <v>-1.297734641020698E-2</v>
       </c>
-      <c r="AY61" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY61" s="3">
+        <f t="shared" si="6"/>
         <v>4.2653589793051339E-5</v>
       </c>
     </row>
@@ -15077,11 +15701,11 @@
       <c r="B62">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>6.2831799999999998</v>
       </c>
-      <c r="D62" s="2">
-        <f t="shared" ref="D62:D88" si="6">B62-C62</f>
+      <c r="D62">
+        <f t="shared" ref="D62:D88" si="8">B62-C62</f>
         <v>1.0000000000509601E-5</v>
       </c>
       <c r="E62">
@@ -15109,15 +15733,15 @@
         <v>-3.57628E-7</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2558192327568102E-10</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3660870403638401E-10</v>
       </c>
-      <c r="O62" s="2">
-        <f t="shared" si="3"/>
+      <c r="O62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q62">
@@ -15136,7 +15760,7 @@
       <c r="AS62">
         <v>654</v>
       </c>
-      <c r="AT62" s="4">
+      <c r="AT62" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15147,15 +15771,15 @@
         <v>516</v>
       </c>
       <c r="AW62">
-        <f>$C62/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415899999999999</v>
       </c>
-      <c r="AX62" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX62" s="3">
+        <f t="shared" si="5"/>
         <v>-1.4367346410206761E-2</v>
       </c>
-      <c r="AY62" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY62" s="3">
+        <f t="shared" si="6"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
@@ -15166,11 +15790,11 @@
       <c r="B63">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>6.2831400000000004</v>
       </c>
-      <c r="D63" s="2">
-        <f t="shared" si="6"/>
+      <c r="D63">
+        <f t="shared" si="8"/>
         <v>4.9999999999883471E-5</v>
       </c>
       <c r="E63">
@@ -15198,15 +15822,15 @@
         <v>9.5367399999999999E-7</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.84741405945E-13</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.421085243812E-12</v>
       </c>
-      <c r="O63" s="2">
-        <f t="shared" si="3"/>
+      <c r="O63">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q63">
@@ -15225,7 +15849,7 @@
       <c r="AS63">
         <v>674</v>
       </c>
-      <c r="AT63" s="4">
+      <c r="AT63" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15236,15 +15860,15 @@
         <v>531</v>
       </c>
       <c r="AW63">
-        <f>$C63/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="AX63" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX63" s="3">
+        <f t="shared" si="5"/>
         <v>-9.747346410206692E-3</v>
       </c>
-      <c r="AY63" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY63" s="3">
+        <f t="shared" si="6"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
@@ -15255,11 +15879,11 @@
       <c r="B64">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>6.2831099999999998</v>
       </c>
-      <c r="D64" s="2">
-        <f t="shared" si="6"/>
+      <c r="D64">
+        <f t="shared" si="8"/>
         <v>8.0000000000524096E-5</v>
       </c>
       <c r="E64">
@@ -15287,15 +15911,15 @@
         <v>5.9604599999999999E-7</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3792488480399999E-11</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3233909767016E-11</v>
       </c>
-      <c r="O64" s="2">
-        <f t="shared" si="3"/>
+      <c r="O64">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q64">
@@ -15314,7 +15938,7 @@
       <c r="AS64">
         <v>684</v>
       </c>
-      <c r="AT64" s="4">
+      <c r="AT64" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15325,15 +15949,15 @@
         <v>538</v>
       </c>
       <c r="AW64">
-        <f>$C64/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415549999999999</v>
       </c>
-      <c r="AX64" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX64" s="3">
+        <f t="shared" si="5"/>
         <v>-4.6073464102067696E-3</v>
       </c>
-      <c r="AY64" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY64" s="3">
+        <f t="shared" si="6"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
@@ -15344,11 +15968,11 @@
       <c r="B65">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>6.2830500000000002</v>
       </c>
-      <c r="D65" s="2">
-        <f t="shared" si="6"/>
+      <c r="D65">
+        <f t="shared" si="8"/>
         <v>1.4000000000002899E-4</v>
       </c>
       <c r="E65">
@@ -15376,15 +16000,15 @@
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9890949387638394E-10</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7456821400999997E-10</v>
       </c>
-      <c r="O65" s="2">
-        <f t="shared" si="3"/>
+      <c r="O65">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q65">
@@ -15403,7 +16027,7 @@
       <c r="AS65">
         <v>694</v>
       </c>
-      <c r="AT65" s="4">
+      <c r="AT65" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15414,15 +16038,15 @@
         <v>548</v>
       </c>
       <c r="AW65">
-        <f>$C65/2</f>
+        <f t="shared" si="7"/>
         <v>3.1415250000000001</v>
       </c>
-      <c r="AX65" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX65" s="3">
+        <f t="shared" si="5"/>
         <v>-1.6907346410206969E-2</v>
       </c>
-      <c r="AY65" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY65" s="3">
+        <f t="shared" si="6"/>
         <v>6.7653589792993074E-5</v>
       </c>
     </row>
@@ -15433,11 +16057,11 @@
       <c r="B66">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>6.2831700000000001</v>
       </c>
-      <c r="D66" s="2">
-        <f t="shared" si="6"/>
+      <c r="D66">
+        <f t="shared" si="8"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E66">
@@ -15465,15 +16089,15 @@
         <v>-1.43051E-6</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5715449485000008E-11</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7757323673000007E-11</v>
       </c>
-      <c r="O66" s="2">
-        <f t="shared" si="3"/>
+      <c r="O66">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q66">
@@ -15492,7 +16116,7 @@
       <c r="AS66">
         <v>704</v>
       </c>
-      <c r="AT66" s="4">
+      <c r="AT66" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15503,15 +16127,15 @@
         <v>553</v>
       </c>
       <c r="AW66">
-        <f>$C66/2</f>
+        <f t="shared" ref="AW66:AW88" si="9">$C66/2</f>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX66" s="4">
-        <f t="shared" si="4"/>
+      <c r="AX66" s="3">
+        <f t="shared" si="5"/>
         <v>-4.5734641020667155E-4</v>
       </c>
-      <c r="AY66" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY66" s="3">
+        <f t="shared" si="6"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
@@ -15522,11 +16146,11 @@
       <c r="B67">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>6.2831299999999999</v>
       </c>
-      <c r="D67" s="2">
-        <f t="shared" si="6"/>
+      <c r="D67">
+        <f t="shared" si="8"/>
         <v>6.0000000000393072E-5</v>
       </c>
       <c r="E67">
@@ -15554,15 +16178,15 @@
         <v>-1.1920899999999999E-6</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:M88" si="7">I67^2+J67^2</f>
+        <f t="shared" ref="M67:M87" si="10">I67^2+J67^2</f>
         <v>3.4313381845000006E-10</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" ref="N67:N88" si="8">L67^2+K67^2</f>
+        <f t="shared" ref="N67:N88" si="11">L67^2+K67^2</f>
         <v>3.0850464500809999E-10</v>
       </c>
-      <c r="O67" s="2">
-        <f t="shared" ref="O67:O88" si="9">IF(N67&lt;M67,1,0)</f>
+      <c r="O67">
+        <f t="shared" ref="O67:O88" si="12">IF(N67&lt;M67,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q67">
@@ -15581,7 +16205,7 @@
       <c r="AS67">
         <v>714</v>
       </c>
-      <c r="AT67" s="4">
+      <c r="AT67" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15592,15 +16216,15 @@
         <v>563</v>
       </c>
       <c r="AW67">
-        <f>$C67/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415649999999999</v>
       </c>
-      <c r="AX67" s="4">
-        <f t="shared" ref="AX67:AX88" si="10">AT67-AU67</f>
+      <c r="AX67" s="3">
+        <f t="shared" ref="AX67:AX88" si="13">AT67-AU67</f>
         <v>-1.2467346410206748E-2</v>
       </c>
-      <c r="AY67" s="4">
-        <f t="shared" ref="AY67:AY88" si="11">AT67-AW67</f>
+      <c r="AY67" s="3">
+        <f t="shared" ref="AY67:AY88" si="14">AT67-AW67</f>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
@@ -15611,11 +16235,11 @@
       <c r="B68">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>6.2831799999999998</v>
       </c>
-      <c r="D68" s="2">
-        <f t="shared" si="6"/>
+      <c r="D68">
+        <f t="shared" si="8"/>
         <v>1.0000000000509601E-5</v>
       </c>
       <c r="E68">
@@ -15643,15 +16267,15 @@
         <v>-5.9604599999999999E-7</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.1304680661716015E-11</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.4611514808515994E-11</v>
       </c>
-      <c r="O68" s="2">
-        <f t="shared" si="9"/>
+      <c r="O68">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q68">
@@ -15670,7 +16294,7 @@
       <c r="AS68">
         <v>724</v>
       </c>
-      <c r="AT68" s="4">
+      <c r="AT68" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15681,15 +16305,15 @@
         <v>571</v>
       </c>
       <c r="AW68">
-        <f>$C68/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415899999999999</v>
       </c>
-      <c r="AX68" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX68" s="3">
+        <f t="shared" si="13"/>
         <v>-1.3107346410206944E-2</v>
       </c>
-      <c r="AY68" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY68" s="3">
+        <f t="shared" si="14"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
@@ -15700,11 +16324,11 @@
       <c r="B69">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>6.2831700000000001</v>
       </c>
-      <c r="D69" s="2">
-        <f t="shared" si="6"/>
+      <c r="D69">
+        <f t="shared" si="8"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E69">
@@ -15732,15 +16356,15 @@
         <v>9.5367399999999999E-7</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.9809942241456902E-10</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0214925290827601E-10</v>
       </c>
-      <c r="O69" s="2">
-        <f t="shared" si="9"/>
+      <c r="O69">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q69">
@@ -15759,7 +16383,7 @@
       <c r="AS69">
         <v>734</v>
       </c>
-      <c r="AT69" s="4">
+      <c r="AT69" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15770,15 +16394,15 @@
         <v>578</v>
       </c>
       <c r="AW69">
-        <f>$C69/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX69" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX69" s="3">
+        <f t="shared" si="13"/>
         <v>-8.2673464102067662E-3</v>
       </c>
-      <c r="AY69" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY69" s="3">
+        <f t="shared" si="14"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
@@ -15789,11 +16413,11 @@
       <c r="B70">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>6.2830599999999999</v>
       </c>
-      <c r="D70" s="2">
-        <f t="shared" si="6"/>
+      <c r="D70">
+        <f t="shared" si="8"/>
         <v>1.3000000000040757E-4</v>
       </c>
       <c r="E70">
@@ -15821,15 +16445,15 @@
         <v>-4.76837E-7</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7419115682956101E-10</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.7094812873456902E-10</v>
       </c>
-      <c r="O70" s="2">
-        <f t="shared" si="9"/>
+      <c r="O70">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q70">
@@ -15848,7 +16472,7 @@
       <c r="AS70">
         <v>754</v>
       </c>
-      <c r="AT70" s="4">
+      <c r="AT70" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15859,15 +16483,15 @@
         <v>593</v>
       </c>
       <c r="AW70">
-        <f>$C70/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415299999999999</v>
       </c>
-      <c r="AX70" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX70" s="3">
+        <f t="shared" si="13"/>
         <v>-4.2973464102069592E-3</v>
       </c>
-      <c r="AY70" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY70" s="3">
+        <f t="shared" si="14"/>
         <v>6.2653589793182363E-5</v>
       </c>
     </row>
@@ -15878,11 +16502,11 @@
       <c r="B71">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>6.2831700000000001</v>
       </c>
-      <c r="D71" s="2">
-        <f t="shared" si="6"/>
+      <c r="D71">
+        <f t="shared" si="8"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E71">
@@ -15910,15 +16534,15 @@
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3702350723999997E-10</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8221423009000008E-10</v>
       </c>
-      <c r="O71" s="2">
-        <f t="shared" si="9"/>
+      <c r="O71">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q71">
@@ -15937,7 +16561,7 @@
       <c r="AS71">
         <v>764</v>
       </c>
-      <c r="AT71" s="4">
+      <c r="AT71" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -15948,15 +16572,15 @@
         <v>599</v>
       </c>
       <c r="AW71">
-        <f>$C71/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX71" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX71" s="3">
+        <f t="shared" si="13"/>
         <v>5.4626535897930317E-3</v>
       </c>
-      <c r="AY71" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY71" s="3">
+        <f t="shared" si="14"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
@@ -15967,11 +16591,11 @@
       <c r="B72">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>6.2831099999999998</v>
       </c>
-      <c r="D72" s="2">
-        <f t="shared" si="6"/>
+      <c r="D72">
+        <f t="shared" si="8"/>
         <v>8.0000000000524096E-5</v>
       </c>
       <c r="E72">
@@ -15999,15 +16623,15 @@
         <v>-1.1920900000000001E-7</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.7672073979281005E-11</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.9647394408180992E-11</v>
       </c>
-      <c r="O72" s="2">
-        <f t="shared" si="9"/>
+      <c r="O72">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q72">
@@ -16026,7 +16650,7 @@
       <c r="AS72">
         <v>774</v>
       </c>
-      <c r="AT72" s="4">
+      <c r="AT72" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16037,15 +16661,15 @@
         <v>608</v>
       </c>
       <c r="AW72">
-        <f>$C72/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415549999999999</v>
       </c>
-      <c r="AX72" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX72" s="3">
+        <f t="shared" si="13"/>
         <v>-5.2734641020668604E-4</v>
       </c>
-      <c r="AY72" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY72" s="3">
+        <f t="shared" si="14"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
@@ -16056,11 +16680,11 @@
       <c r="B73">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>6.2831400000000004</v>
       </c>
-      <c r="D73" s="2">
-        <f t="shared" si="6"/>
+      <c r="D73">
+        <f t="shared" si="8"/>
         <v>4.9999999999883471E-5</v>
       </c>
       <c r="E73">
@@ -16088,15 +16712,15 @@
         <v>-7.1525600000000001E-7</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7312447934375999E-11</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1950422435536002E-11</v>
       </c>
-      <c r="O73" s="2">
-        <f t="shared" si="9"/>
+      <c r="O73">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q73">
@@ -16115,7 +16739,7 @@
       <c r="AS73">
         <v>784</v>
       </c>
-      <c r="AT73" s="4">
+      <c r="AT73" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16126,15 +16750,15 @@
         <v>615</v>
       </c>
       <c r="AW73">
-        <f>$C73/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="AX73" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX73" s="3">
+        <f t="shared" si="13"/>
         <v>3.8326535897930114E-3</v>
       </c>
-      <c r="AY73" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY73" s="3">
+        <f t="shared" si="14"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
@@ -16145,11 +16769,11 @@
       <c r="B74">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>6.2831700000000001</v>
       </c>
-      <c r="D74" s="2">
-        <f t="shared" si="6"/>
+      <c r="D74">
+        <f t="shared" si="8"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E74">
@@ -16177,15 +16801,15 @@
         <v>0</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7825988196000001E-10</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7825988196000001E-10</v>
       </c>
-      <c r="O74" s="2">
-        <f t="shared" si="9"/>
+      <c r="O74">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q74">
@@ -16204,7 +16828,7 @@
       <c r="AS74">
         <v>804</v>
       </c>
-      <c r="AT74" s="4">
+      <c r="AT74" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16215,15 +16839,15 @@
         <v>631</v>
       </c>
       <c r="AW74">
-        <f>$C74/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX74" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX74" s="3">
+        <f t="shared" si="13"/>
         <v>2.2926535897931366E-3</v>
       </c>
-      <c r="AY74" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY74" s="3">
+        <f t="shared" si="14"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
@@ -16234,11 +16858,11 @@
       <c r="B75">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>6.2831900000000003</v>
       </c>
-      <c r="D75" s="2">
-        <f t="shared" si="6"/>
+      <c r="D75">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E75">
@@ -16266,15 +16890,15 @@
         <v>1.7881399999999999E-6</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0678058127360002E-10</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2610792690959998E-10</v>
       </c>
-      <c r="O75" s="2">
-        <f t="shared" si="9"/>
+      <c r="O75">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q75">
@@ -16293,7 +16917,7 @@
       <c r="AS75">
         <v>814</v>
       </c>
-      <c r="AT75" s="4">
+      <c r="AT75" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16304,15 +16928,15 @@
         <v>640</v>
       </c>
       <c r="AW75">
-        <f>$C75/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415950000000001</v>
       </c>
-      <c r="AX75" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX75" s="3">
+        <f t="shared" si="13"/>
         <v>-3.3673464102070838E-3</v>
       </c>
-      <c r="AY75" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY75" s="3">
+        <f t="shared" si="14"/>
         <v>-2.346410207021421E-6</v>
       </c>
     </row>
@@ -16323,11 +16947,11 @@
       <c r="B76">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>6.2831099999999998</v>
       </c>
-      <c r="D76" s="2">
-        <f t="shared" si="6"/>
+      <c r="D76">
+        <f t="shared" si="8"/>
         <v>8.0000000000524096E-5</v>
       </c>
       <c r="E76">
@@ -16355,15 +16979,15 @@
         <v>2.3841900000000001E-7</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.28608630844116E-10</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3653764986956101E-10</v>
       </c>
-      <c r="O76" s="2">
-        <f t="shared" si="9"/>
+      <c r="O76">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q76">
@@ -16382,7 +17006,7 @@
       <c r="AS76">
         <v>824</v>
       </c>
-      <c r="AT76" s="4">
+      <c r="AT76" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16393,15 +17017,15 @@
         <v>648</v>
       </c>
       <c r="AW76">
-        <f>$C76/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415549999999999</v>
       </c>
-      <c r="AX76" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX76" s="3">
+        <f t="shared" si="13"/>
         <v>-4.0373464102070322E-3</v>
       </c>
-      <c r="AY76" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY76" s="3">
+        <f t="shared" si="14"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
@@ -16412,11 +17036,11 @@
       <c r="B77">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>6.28315</v>
       </c>
-      <c r="D77" s="2">
-        <f t="shared" si="6"/>
+      <c r="D77">
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E77">
@@ -16444,15 +17068,15 @@
         <v>-1.1920899999999999E-6</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.1054405242000008E-12</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.5280240016999999E-12</v>
       </c>
-      <c r="O77" s="2">
-        <f t="shared" si="9"/>
+      <c r="O77">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q77">
@@ -16471,7 +17095,7 @@
       <c r="AS77">
         <v>844</v>
       </c>
-      <c r="AT77" s="4">
+      <c r="AT77" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16482,15 +17106,15 @@
         <v>662</v>
       </c>
       <c r="AW77">
-        <f>$C77/2</f>
+        <f t="shared" si="9"/>
         <v>3.141575</v>
       </c>
-      <c r="AX77" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX77" s="3">
+        <f t="shared" si="13"/>
         <v>4.1526535897933314E-3</v>
       </c>
-      <c r="AY77" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY77" s="3">
+        <f t="shared" si="14"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
@@ -16501,11 +17125,11 @@
       <c r="B78">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>6.28315</v>
       </c>
-      <c r="D78" s="2">
-        <f t="shared" si="6"/>
+      <c r="D78">
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E78">
@@ -16533,15 +17157,15 @@
         <v>7.1525600000000001E-7</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5095502432622492E-10</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.4070555978553605E-10</v>
       </c>
-      <c r="O78" s="2">
-        <f t="shared" si="9"/>
+      <c r="O78">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q78">
@@ -16560,7 +17184,7 @@
       <c r="AS78">
         <v>864</v>
       </c>
-      <c r="AT78" s="4">
+      <c r="AT78" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16571,15 +17195,15 @@
         <v>676</v>
       </c>
       <c r="AW78">
-        <f>$C78/2</f>
+        <f t="shared" si="9"/>
         <v>3.141575</v>
       </c>
-      <c r="AX78" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX78" s="3">
+        <f t="shared" si="13"/>
         <v>1.1962653589792982E-2</v>
       </c>
-      <c r="AY78" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY78" s="3">
+        <f t="shared" si="14"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
@@ -16590,11 +17214,11 @@
       <c r="B79">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>6.2830700000000004</v>
       </c>
-      <c r="D79" s="2">
-        <f t="shared" si="6"/>
+      <c r="D79">
+        <f t="shared" si="8"/>
         <v>1.1999999999989797E-4</v>
       </c>
       <c r="E79">
@@ -16622,15 +17246,15 @@
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.0668914443249994E-10</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.8561580025000003E-10</v>
       </c>
-      <c r="O79" s="2">
-        <f t="shared" si="9"/>
+      <c r="O79">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q79">
@@ -16649,7 +17273,7 @@
       <c r="AS79">
         <v>874</v>
       </c>
-      <c r="AT79" s="4">
+      <c r="AT79" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16660,15 +17284,15 @@
         <v>683</v>
       </c>
       <c r="AW79">
-        <f>$C79/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415350000000002</v>
       </c>
-      <c r="AX79" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX79" s="3">
+        <f t="shared" si="13"/>
         <v>1.5732653589793255E-2</v>
       </c>
-      <c r="AY79" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY79" s="3">
+        <f t="shared" si="14"/>
         <v>5.7653589792927562E-5</v>
       </c>
     </row>
@@ -16679,11 +17303,11 @@
       <c r="B80">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>6.2831700000000001</v>
       </c>
-      <c r="D80" s="2">
-        <f t="shared" si="6"/>
+      <c r="D80">
+        <f t="shared" si="8"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E80">
@@ -16711,15 +17335,15 @@
         <v>4.76837E-7</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.42235754596384E-10</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5393281836456901E-10</v>
       </c>
-      <c r="O80" s="2">
-        <f t="shared" si="9"/>
+      <c r="O80">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q80">
@@ -16738,7 +17362,7 @@
       <c r="AS80">
         <v>884</v>
       </c>
-      <c r="AT80" s="4">
+      <c r="AT80" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16749,15 +17373,15 @@
         <v>693</v>
       </c>
       <c r="AW80">
-        <f>$C80/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX80" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX80" s="3">
+        <f t="shared" si="13"/>
         <v>5.8426535897933007E-3</v>
       </c>
-      <c r="AY80" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY80" s="3">
+        <f t="shared" si="14"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
@@ -16768,11 +17392,11 @@
       <c r="B81">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>6.2831799999999998</v>
       </c>
-      <c r="D81" s="2">
-        <f t="shared" si="6"/>
+      <c r="D81">
+        <f t="shared" si="8"/>
         <v>1.0000000000509601E-5</v>
       </c>
       <c r="E81">
@@ -16800,15 +17424,15 @@
         <v>9.5367399999999999E-7</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3708035085956096E-10</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1160403745827608E-10</v>
       </c>
-      <c r="O81" s="2">
-        <f t="shared" si="9"/>
+      <c r="O81">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q81">
@@ -16827,7 +17451,7 @@
       <c r="AS81">
         <v>894</v>
       </c>
-      <c r="AT81" s="4">
+      <c r="AT81" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16838,15 +17462,15 @@
         <v>701</v>
       </c>
       <c r="AW81">
-        <f>$C81/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415899999999999</v>
       </c>
-      <c r="AX81" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX81" s="3">
+        <f t="shared" si="13"/>
         <v>5.1226535897930248E-3</v>
       </c>
-      <c r="AY81" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY81" s="3">
+        <f t="shared" si="14"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
@@ -16857,11 +17481,11 @@
       <c r="B82">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>6.28315</v>
       </c>
-      <c r="D82" s="2">
-        <f t="shared" si="6"/>
+      <c r="D82">
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E82">
@@ -16889,15 +17513,15 @@
         <v>1.66893E-6</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.671764037281E-10</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6245887778489999E-10</v>
       </c>
-      <c r="O82" s="2">
-        <f t="shared" si="9"/>
+      <c r="O82">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q82">
@@ -16916,7 +17540,7 @@
       <c r="AS82">
         <v>904</v>
       </c>
-      <c r="AT82" s="4">
+      <c r="AT82" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -16927,15 +17551,15 @@
         <v>709</v>
       </c>
       <c r="AW82">
-        <f>$C82/2</f>
+        <f t="shared" si="9"/>
         <v>3.141575</v>
       </c>
-      <c r="AX82" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX82" s="3">
+        <f t="shared" si="13"/>
         <v>4.4226535897933239E-3</v>
       </c>
-      <c r="AY82" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY82" s="3">
+        <f t="shared" si="14"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
@@ -16946,11 +17570,11 @@
       <c r="B83">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>6.28315</v>
       </c>
-      <c r="D83" s="2">
-        <f t="shared" si="6"/>
+      <c r="D83">
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E83">
@@ -16978,15 +17602,15 @@
         <v>2.02656E-6</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.3799168190490001E-10</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.3435410319359997E-10</v>
       </c>
-      <c r="O83" s="2">
-        <f t="shared" si="9"/>
+      <c r="O83">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q83">
@@ -17005,7 +17629,7 @@
       <c r="AS83">
         <v>934</v>
       </c>
-      <c r="AT83" s="4">
+      <c r="AT83" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -17016,15 +17640,15 @@
         <v>733</v>
       </c>
       <c r="AW83">
-        <f>$C83/2</f>
+        <f t="shared" si="9"/>
         <v>3.141575</v>
       </c>
-      <c r="AX83" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX83" s="3">
+        <f t="shared" si="13"/>
         <v>2.4026535897929691E-3</v>
       </c>
-      <c r="AY83" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY83" s="3">
+        <f t="shared" si="14"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
@@ -17035,11 +17659,11 @@
       <c r="B84">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>6.2830899999999996</v>
       </c>
-      <c r="D84" s="2">
-        <f t="shared" si="6"/>
+      <c r="D84">
+        <f t="shared" si="8"/>
         <v>1.0000000000065512E-4</v>
       </c>
       <c r="E84">
@@ -17067,15 +17691,15 @@
         <v>-1.7881399999999999E-6</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.8227336174440005E-10</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.3803707221960001E-10</v>
       </c>
-      <c r="O84" s="2">
-        <f t="shared" si="9"/>
+      <c r="O84">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q84">
@@ -17094,7 +17718,7 @@
       <c r="AS84">
         <v>944</v>
       </c>
-      <c r="AT84" s="4">
+      <c r="AT84" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -17105,15 +17729,15 @@
         <v>741</v>
       </c>
       <c r="AW84">
-        <f>$C84/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX84" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX84" s="3">
+        <f t="shared" si="13"/>
         <v>1.7626535897932172E-3</v>
       </c>
-      <c r="AY84" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY84" s="3">
+        <f t="shared" si="14"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
@@ -17124,11 +17748,11 @@
       <c r="B85">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>6.2831200000000003</v>
       </c>
-      <c r="D85" s="2">
-        <f t="shared" si="6"/>
+      <c r="D85">
+        <f t="shared" si="8"/>
         <v>7.0000000000014495E-5</v>
       </c>
       <c r="E85">
@@ -17156,15 +17780,15 @@
         <v>-3.57628E-7</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.7862175559160994E-11</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.3920386266783998E-11</v>
       </c>
-      <c r="O85" s="2">
-        <f t="shared" si="9"/>
+      <c r="O85">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q85">
@@ -17183,7 +17807,7 @@
       <c r="AS85">
         <v>954</v>
       </c>
-      <c r="AT85" s="4">
+      <c r="AT85" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -17194,15 +17818,15 @@
         <v>750</v>
       </c>
       <c r="AW85">
-        <f>$C85/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415600000000001</v>
       </c>
-      <c r="AX85" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX85" s="3">
+        <f t="shared" si="13"/>
         <v>-3.0573464102068293E-3</v>
       </c>
-      <c r="AY85" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY85" s="3">
+        <f t="shared" si="14"/>
         <v>3.2653589792985827E-5</v>
       </c>
     </row>
@@ -17213,11 +17837,11 @@
       <c r="B86">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>6.2831599999999996</v>
       </c>
-      <c r="D86" s="2">
-        <f t="shared" si="6"/>
+      <c r="D86">
+        <f t="shared" si="8"/>
         <v>3.0000000000640625E-5</v>
       </c>
       <c r="E86">
@@ -17245,15 +17869,15 @@
         <v>1.43051E-6</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2519754875399999E-11</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.02317943005E-11</v>
       </c>
-      <c r="O86" s="2">
-        <f t="shared" si="9"/>
+      <c r="O86">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q86">
@@ -17272,7 +17896,7 @@
       <c r="AS86">
         <v>984</v>
       </c>
-      <c r="AT86" s="4">
+      <c r="AT86" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -17283,15 +17907,15 @@
         <v>773</v>
       </c>
       <c r="AW86">
-        <f>$C86/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415799999999998</v>
       </c>
-      <c r="AX86" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX86" s="3">
+        <f t="shared" si="13"/>
         <v>-6.8734641020684606E-4</v>
       </c>
-      <c r="AY86" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY86" s="3">
+        <f t="shared" si="14"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
@@ -17302,11 +17926,11 @@
       <c r="B87">
         <v>6.2831900000000003</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>6.28315</v>
       </c>
-      <c r="D87" s="2">
-        <f t="shared" si="6"/>
+      <c r="D87">
+        <f t="shared" si="8"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E87">
@@ -17334,15 +17958,15 @@
         <v>1.1920899999999999E-6</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4836016763553601E-10</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.671764037281E-10</v>
       </c>
-      <c r="O87" s="2">
-        <f t="shared" si="9"/>
+      <c r="O87">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q87">
@@ -17361,7 +17985,7 @@
       <c r="AS87">
         <v>994</v>
       </c>
-      <c r="AT87" s="4">
+      <c r="AT87" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -17372,20 +17996,20 @@
         <v>780</v>
       </c>
       <c r="AW87">
-        <f>$C87/2</f>
+        <f t="shared" si="9"/>
         <v>3.141575</v>
       </c>
-      <c r="AX87" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX87" s="3">
+        <f t="shared" si="13"/>
         <v>2.762653589793107E-3</v>
       </c>
-      <c r="AY87" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY87" s="3">
+        <f t="shared" si="14"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
     <row r="88" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88">
         <v>1010</v>
       </c>
       <c r="B88">
@@ -17394,8 +18018,8 @@
       <c r="C88">
         <v>6.2830700000000004</v>
       </c>
-      <c r="D88" s="2">
-        <f t="shared" si="6"/>
+      <c r="D88">
+        <f t="shared" si="8"/>
         <v>1.1999999999989797E-4</v>
       </c>
       <c r="E88">
@@ -17427,11 +18051,11 @@
         <v>5.7412055756609993E-10</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.7356633001039994E-10</v>
       </c>
-      <c r="O88" s="2">
-        <f t="shared" si="9"/>
+      <c r="O88">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q88">
@@ -17450,7 +18074,7 @@
       <c r="AS88">
         <v>1010</v>
       </c>
-      <c r="AT88" s="4">
+      <c r="AT88" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
@@ -17461,15 +18085,15 @@
         <v>795</v>
       </c>
       <c r="AW88">
-        <f>$C88/2</f>
+        <f t="shared" si="9"/>
         <v>3.1415350000000002</v>
       </c>
-      <c r="AX88" s="4">
-        <f t="shared" si="10"/>
+      <c r="AX88" s="3">
+        <f t="shared" si="13"/>
         <v>-6.9173464102068039E-3</v>
       </c>
-      <c r="AY88" s="4">
-        <f t="shared" si="11"/>
+      <c r="AY88" s="3">
+        <f t="shared" si="14"/>
         <v>5.7653589792927562E-5</v>
       </c>
     </row>

--- a/Projekt1/Hipot.xlsx
+++ b/Projekt1/Hipot.xlsx
@@ -1,35 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safurynm/Desktop/StudiaUG/AlgNum/Algorytmy-Numeryczne/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19767F5B-49BF-7A42-804B-60D1345F1A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB162270-A437-AB45-AEDD-B0C521B686E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{74BB15E0-4915-1E4F-A2F9-6208C2E7AD03}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" xr2:uid="{74BB15E0-4915-1E4F-A2F9-6208C2E7AD03}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$AS$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$AS$2:$AS$88</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Arkusz1!$AY$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Arkusz1!$AY$2:$AY$88</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$AX$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$AX$2:$AX$88</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Arkusz1!$AY$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Arkusz1!$AY$2:$AY$88</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Arkusz1!$AS$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Arkusz1!$AS$2:$AS$88</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Arkusz1!$AX$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Arkusz1!$AX$2:$AX$88</definedName>
-    <definedName name="test_1" localSheetId="0">Arkusz1!$A$2:$T$87</definedName>
-    <definedName name="test_2" localSheetId="0">Arkusz1!$A$88:$T$88</definedName>
+    <definedName name="test_1" localSheetId="0">Arkusz1!$A$2:$Y$87</definedName>
+    <definedName name="test_2" localSheetId="0">Arkusz1!$A$88:$Y$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>N</t>
   </si>
@@ -194,6 +182,27 @@
   <si>
     <t xml:space="preserve">Dla wiekszych się wyrównuje </t>
   </si>
+  <si>
+    <t>Kolejka_X</t>
+  </si>
+  <si>
+    <t>Kolejka_Y</t>
+  </si>
+  <si>
+    <t>Od_kolejki</t>
+  </si>
+  <si>
+    <t>Ile blizej 0 kolejka</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>Kolejka blizej 0</t>
+  </si>
+  <si>
+    <t>Orginalne</t>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +223,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -240,11 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -5467,7 +5484,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AX$1</c:f>
+              <c:f>Arkusz1!$BC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5490,7 +5507,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$AS$2:$AS$88</c:f>
+              <c:f>Arkusz1!$AX$2:$AX$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="87"/>
@@ -5760,7 +5777,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AX$2:$AX$88</c:f>
+              <c:f>Arkusz1!$BC$2:$BC$88</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="87"/>
@@ -6040,7 +6057,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$AY$1</c:f>
+              <c:f>Arkusz1!$BD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6063,7 +6080,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$AS$2:$AS$88</c:f>
+              <c:f>Arkusz1!$AX$2:$AX$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="87"/>
@@ -6333,7 +6350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$AY$2:$AY$88</c:f>
+              <c:f>Arkusz1!$BD$2:$BD$88</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="87"/>
@@ -6826,6 +6843,1433 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum_Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$2:$I$192</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.90735E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.90735E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.66893E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0994400000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.90735E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5762799999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3841900000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7683700000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.2649800000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.2186500000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.1723300000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.66893E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.1457699999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7683700000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.1457699999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6226000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4373000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.3644200000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.7949300000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.9407000000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5830700000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.70228E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.2983200000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.5830700000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.1457699999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.4373000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7683700000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.24521E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.0067900000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.0132800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5762799999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.04904E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.3180899999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.4836299999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5762799999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.68085E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-9.7751599999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.83582E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-6.3180899999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.12057E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-7.9870199999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.7285299999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.5830700000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.84774E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-9.5367400000000008E-6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.40667E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.39611E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.83582E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-8.2254400000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-7.5101899999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3351400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.0132800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.1324900000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.3841900000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.1219299999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.4557099999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.19209E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.83582E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.28746E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.08616E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.1934500000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6.9141399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.9802299999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2159300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.38419E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$J$2:$J$192</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.02656E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.9604599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.43051E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.07288E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.07288E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.43051E-6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5.9604599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3113E-6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.43051E-6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.3113E-6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.9604599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.02656E-6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.9604599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.90735E-6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.66893E-6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.07288E-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.90735E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3841900000000001E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3932-714F-B9A3-0F7BDA71846B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kolejka_Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$P$2:$P$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>-1.7881399999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>-2.5034E-6</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>-1.7881399999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-1.07288E-6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>3.5762799999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>1.90735E-6</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>-5.9604599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>3.5762799999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>-2.2649800000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>4.5299499999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>-2.5034E-6</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>-3.4570699999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>-4.5299499999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>1.43051E-6</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>-2.2649800000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>5.0067900000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>-2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>-2.02656E-6</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>6.67572E-6</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>-5.0067900000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>-6.3180899999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>-8.70228E-6</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>9.0599100000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>-7.8678100000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>8.1062300000000008E-6</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>-8.1062300000000008E-6</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>-3.0994400000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>6.9141399999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>-1.5497200000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>4.7683700000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>5.24521E-6</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>-3.5762800000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>-4.7683700000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>-1.78814E-7</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00E+00">
+                  <c:v>-2.3841900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>7.1525600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>-1.78814E-7</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>-1.07288E-7</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>4.7683700000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00E+00">
+                  <c:v>1.9073499999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>-5.9604600000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00E+00">
+                  <c:v>3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00E+00">
+                  <c:v>7.1525600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>4.5299500000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>7.1525600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>-3.4570700000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>1.43051E-7</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>-2.2649799999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>5.0067899999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>-2.3841900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>-2.0265600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>6.6757200000000004E-7</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>-6.3180899999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>-8.7022799999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>9.0599099999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>-7.8678100000000004E-7</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00E+00">
+                  <c:v>-8.1062300000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>-3.0994399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>6.9141400000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>5.2452099999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>-3.57628E-9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00E+00">
+                  <c:v>2.3841899999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00E+00">
+                  <c:v>-4.7683699999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00E+00">
+                  <c:v>7.15256E-9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00E+00">
+                  <c:v>-2.5034000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00E+00">
+                  <c:v>-1.7881400000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00E+00">
+                  <c:v>3.5762800000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00E+00">
+                  <c:v>4.7683699999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00E+00">
+                  <c:v>-2.37E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$Q$2:$Q$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>-4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>-8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>-5.9604599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>-7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>-9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>1.1920899999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>4.76837E-7</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>-3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>3.57628E-7</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>-8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>1.66893E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>-7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>-9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>-5.9604599999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>9.5367399999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>-1.43051E-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00E+00">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>-3.5762800000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>-3.5762800000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>1.1920899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>7.1525600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>1.1920899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>-8.3446500000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00E+00">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00E+00">
+                  <c:v>3.5762800000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>8.34465E-7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>7.1525600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>1.1920899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>2.3841900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>-7.1525600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>-9.5367400000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>4.7683700000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>3.5762800000000003E-8</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>-8.3446500000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>9.5367400000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>-7.1525600000000006E-8</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>-9.5367400000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>9.5367400000000005E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>2.3841899999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00E+00">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00E+00">
+                  <c:v>-1.1920900000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00E+00">
+                  <c:v>-3.57628E-9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00E+00">
+                  <c:v>7.1525600000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00E+00">
+                  <c:v>7.15256E-9</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00E+00">
+                  <c:v>1.19209E-9</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00E+00">
+                  <c:v>2.5000000000000002E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3932-714F-B9A3-0F7BDA71846B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1781875135"/>
+        <c:axId val="1781877103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1781875135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781877103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1781877103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781875135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6987,6 +8431,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9606,17 +11090,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>22364</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>30193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>474453</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>125564</xdr:rowOff>
@@ -9646,13 +11646,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>7961</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>4984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>465573</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>198817</xdr:rowOff>
@@ -9682,13 +11682,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>525234</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>27383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>102408</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190896</xdr:rowOff>
@@ -9718,13 +11718,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>804332</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>84666</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>186267</xdr:rowOff>
@@ -9754,13 +11754,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>193040</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>650240</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -9783,6 +11783,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E8DA66-B17E-4495-1B5E-E6D86A4E434A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10096,10 +12132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217E3B1-F151-234F-98DB-BDD998196096}">
-  <dimension ref="A1:AZ88"/>
+  <dimension ref="A1:BN92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="BB22" sqref="BB22"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="BK31" sqref="BK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10116,22 +12152,27 @@
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.1640625" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
-    <col min="45" max="45" width="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.6640625" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1640625" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.6640625" customWidth="1"/>
+    <col min="52" max="52" width="13" customWidth="1"/>
+    <col min="53" max="53" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10177,68 +12218,83 @@
       <c r="O1" t="s">
         <v>23</v>
       </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
       <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>1</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>13</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BB1" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
         <v>28</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
         <v>29</v>
       </c>
+      <c r="BL1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>14</v>
       </c>
@@ -10288,58 +12344,76 @@
         <f>IF(N2&lt;M2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="4">
+        <v>-3.57628E-7</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2.3841900000000001E-7</v>
+      </c>
+      <c r="R2" s="4">
+        <f>P2^2+Q2^2</f>
+        <v>1.84741405945E-13</v>
+      </c>
+      <c r="S2">
+        <f>IF(R2&lt;M2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>SUM(S2:S1000)</f>
+        <v>58</v>
+      </c>
+      <c r="V2">
         <v>14</v>
       </c>
-      <c r="R2">
+      <c r="W2">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S2">
+      <c r="X2">
         <v>2.2857099999999999</v>
       </c>
-      <c r="T2">
+      <c r="Y2">
         <v>8</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AI2" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AK2" s="2">
         <v>14</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AL2" s="1">
         <v>-1.6391299999999999E-7</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AM2" s="1">
         <v>2.9802299999999999E-7</v>
       </c>
-      <c r="AS2">
+      <c r="AX2">
         <v>14</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AY2" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <v>2.2857099999999999</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <v>8</v>
       </c>
-      <c r="AW2">
-        <f t="shared" ref="AW2:AW33" si="1">$C2/2</f>
+      <c r="BB2">
+        <f t="shared" ref="BB2:BB33" si="1">$C2/2</f>
         <v>3.1152950000000001</v>
       </c>
-      <c r="AX2" s="3">
-        <f>AT2-AU2</f>
+      <c r="BC2" s="3">
+        <f>AY2-AZ2</f>
         <v>0.85588265358979321</v>
       </c>
-      <c r="AY2" s="3">
-        <f>AT2-AW2</f>
+      <c r="BD2" s="3">
+        <f>AY2-BB2</f>
         <v>2.6297653589792969E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>24</v>
       </c>
@@ -10389,55 +12463,69 @@
         <f t="shared" ref="O3:O66" si="4">IF(N3&lt;M3,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R66" si="5">P3^2+Q3^2</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="6">IF(R3&lt;M3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>24</v>
       </c>
-      <c r="R3">
+      <c r="W3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S3">
+      <c r="X3">
         <v>3</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <v>18</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AK3" s="2">
         <v>24</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AL3" s="1">
         <v>-3.3527599999999999E-8</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AM3" s="1">
         <v>5.9604600000000002E-8</v>
       </c>
-      <c r="AS3">
+      <c r="AX3">
         <v>24</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AY3" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU3">
+      <c r="AZ3">
         <v>3</v>
       </c>
-      <c r="AV3">
+      <c r="BA3">
         <v>18</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <f t="shared" si="1"/>
         <v>3.1326299999999998</v>
       </c>
-      <c r="AX3" s="3">
-        <f t="shared" ref="AX3:AX66" si="5">AT3-AU3</f>
+      <c r="BC3" s="3">
+        <f t="shared" ref="BC3:BC66" si="7">AY3-AZ3</f>
         <v>0.14159265358979312</v>
       </c>
-      <c r="AY3" s="3">
-        <f t="shared" ref="AY3:AY66" si="6">AT3-AW3</f>
+      <c r="BD3" s="3">
+        <f t="shared" ref="BD3:BD66" si="8">AY3-BB3</f>
         <v>8.9626535897933124E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34</v>
       </c>
@@ -10487,55 +12575,69 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="P4" s="4">
+        <v>2.3841900000000001E-7</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-1.1920900000000001E-7</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="5"/>
+        <v>7.1054405242000015E-14</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>34</v>
       </c>
-      <c r="R4">
+      <c r="W4">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S4">
+      <c r="X4">
         <v>2.8235299999999999</v>
       </c>
-      <c r="T4">
+      <c r="Y4">
         <v>24</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AK4" s="2">
         <v>34</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AL4" s="1">
         <v>2.70084E-7</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AM4" s="1">
         <v>-2.8312200000000001E-7</v>
       </c>
-      <c r="AS4">
+      <c r="AX4">
         <v>34</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AY4" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU4">
+      <c r="AZ4">
         <v>2.8235299999999999</v>
       </c>
-      <c r="AV4">
+      <c r="BA4">
         <v>24</v>
       </c>
-      <c r="AW4">
+      <c r="BB4">
         <f t="shared" si="1"/>
         <v>3.1371250000000002</v>
       </c>
-      <c r="AX4" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC4" s="3">
+        <f t="shared" si="7"/>
         <v>0.31806265358979324</v>
       </c>
-      <c r="AY4" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD4" s="3">
+        <f t="shared" si="8"/>
         <v>4.4676535897929526E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>44</v>
       </c>
@@ -10585,55 +12687,69 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="P5" s="4">
+        <v>-4.76837E-7</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>-1.1920900000000001E-7</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4158431025E-13</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>44</v>
       </c>
-      <c r="R5">
+      <c r="W5">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S5">
+      <c r="X5">
         <v>2.90909</v>
       </c>
-      <c r="T5">
+      <c r="Y5">
         <v>32</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AK5" s="2">
         <v>44</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AL5" s="1">
         <v>-1.16415E-7</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AM5" s="1">
         <v>5.9604600000000002E-8</v>
       </c>
-      <c r="AS5">
+      <c r="AX5">
         <v>44</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AY5" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU5">
+      <c r="AZ5">
         <v>2.90909</v>
       </c>
-      <c r="AV5">
+      <c r="BA5">
         <v>32</v>
       </c>
-      <c r="AW5">
+      <c r="BB5">
         <f t="shared" si="1"/>
         <v>3.138925</v>
       </c>
-      <c r="AX5" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC5" s="3">
+        <f t="shared" si="7"/>
         <v>0.23250265358979316</v>
       </c>
-      <c r="AY5" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD5" s="3">
+        <f t="shared" si="8"/>
         <v>2.6676535897931508E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>54</v>
       </c>
@@ -10683,55 +12799,69 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="P6" s="4">
+        <v>-1.7881399999999999E-6</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-3.57628E-7</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3253424459839996E-12</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>54</v>
       </c>
-      <c r="R6">
+      <c r="W6">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S6">
+      <c r="X6">
         <v>2.7407400000000002</v>
       </c>
-      <c r="T6">
+      <c r="Y6">
         <v>37</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AK6" s="2">
         <v>54</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AL6" s="1">
         <v>-2.0833699999999998E-6</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AM6" s="1">
         <v>-1.11759E-7</v>
       </c>
-      <c r="AS6">
+      <c r="AX6">
         <v>54</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AY6" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU6">
+      <c r="AZ6">
         <v>2.7407400000000002</v>
       </c>
-      <c r="AV6">
+      <c r="BA6">
         <v>37</v>
       </c>
-      <c r="AW6">
+      <c r="BB6">
         <f t="shared" si="1"/>
         <v>3.1398199999999998</v>
       </c>
-      <c r="AX6" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC6" s="3">
+        <f t="shared" si="7"/>
         <v>0.40085265358979294</v>
       </c>
-      <c r="AY6" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD6" s="3">
+        <f t="shared" si="8"/>
         <v>1.7726535897932827E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64</v>
       </c>
@@ -10781,55 +12911,69 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="P7" s="4">
+        <v>-2.3841900000000001E-7</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="5"/>
+        <v>5.684361956100001E-14</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
         <v>64</v>
       </c>
-      <c r="R7">
+      <c r="W7">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S7">
+      <c r="X7">
         <v>2.8125</v>
       </c>
-      <c r="T7">
+      <c r="Y7">
         <v>45</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AK7" s="2">
         <v>64</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AL7" s="1">
         <v>-5.46221E-7</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AM7" s="1">
         <v>5.9604600000000002E-8</v>
       </c>
-      <c r="AS7">
+      <c r="AX7">
         <v>64</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AY7" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU7">
+      <c r="AZ7">
         <v>2.8125</v>
       </c>
-      <c r="AV7">
+      <c r="BA7">
         <v>45</v>
       </c>
-      <c r="AW7">
+      <c r="BB7">
         <f t="shared" si="1"/>
         <v>3.1403300000000001</v>
       </c>
-      <c r="AX7" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC7" s="3">
+        <f t="shared" si="7"/>
         <v>0.32909265358979312</v>
       </c>
-      <c r="AY7" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD7" s="3">
+        <f t="shared" si="8"/>
         <v>1.2626535897930502E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>74</v>
       </c>
@@ -10879,55 +13023,69 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="P8" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>-3.57628E-7</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3948893191999996E-13</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>74</v>
       </c>
-      <c r="R8">
+      <c r="W8">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S8">
+      <c r="X8">
         <v>2.8648600000000002</v>
       </c>
-      <c r="T8">
+      <c r="Y8">
         <v>53</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AK8" s="2">
         <v>74</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AL8" s="1">
         <v>1.06217E-6</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AM8" s="1">
         <v>-7.4505799999999995E-8</v>
       </c>
-      <c r="AS8">
+      <c r="AX8">
         <v>74</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AY8" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU8">
+      <c r="AZ8">
         <v>2.8648600000000002</v>
       </c>
-      <c r="AV8">
+      <c r="BA8">
         <v>53</v>
       </c>
-      <c r="AW8">
+      <c r="BB8">
         <f t="shared" si="1"/>
         <v>3.1406499999999999</v>
       </c>
-      <c r="AX8" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC8" s="3">
+        <f t="shared" si="7"/>
         <v>0.27673265358979293</v>
       </c>
-      <c r="AY8" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD8" s="3">
+        <f t="shared" si="8"/>
         <v>9.4265358979317426E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>84</v>
       </c>
@@ -10977,55 +13135,69 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="P9" s="4">
+        <v>-2.5034E-6</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="5"/>
+        <v>6.7786027055360009E-12</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>84</v>
       </c>
-      <c r="R9">
+      <c r="W9">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S9">
+      <c r="X9">
         <v>2.90476</v>
       </c>
-      <c r="T9">
+      <c r="Y9">
         <v>61</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AK9" s="2">
         <v>84</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AL9" s="1">
         <v>-2.1092099999999999E-6</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AM9" s="1">
         <v>3.50177E-7</v>
       </c>
-      <c r="AS9">
+      <c r="AX9">
         <v>84</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AY9" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU9">
+      <c r="AZ9">
         <v>2.90476</v>
       </c>
-      <c r="AV9">
+      <c r="BA9">
         <v>61</v>
       </c>
-      <c r="AW9">
+      <c r="BB9">
         <f t="shared" si="1"/>
         <v>3.14086</v>
       </c>
-      <c r="AX9" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC9" s="3">
+        <f t="shared" si="7"/>
         <v>0.23683265358979311</v>
       </c>
-      <c r="AY9" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD9" s="3">
+        <f t="shared" si="8"/>
         <v>7.3265358979313078E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>94</v>
       </c>
@@ -11075,55 +13247,69 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="P10" s="4">
+        <v>-1.7881399999999999E-6</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="5"/>
+        <v>3.7090358051360001E-12</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>94</v>
       </c>
-      <c r="R10">
+      <c r="W10">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <v>2.9361700000000002</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <v>69</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AK10" s="2">
         <v>94</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AL10" s="1">
         <v>-1.72015E-6</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AM10" s="1">
         <v>6.0349700000000005E-7</v>
       </c>
-      <c r="AS10">
+      <c r="AX10">
         <v>94</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AY10" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU10">
+      <c r="AZ10">
         <v>2.9361700000000002</v>
       </c>
-      <c r="AV10">
+      <c r="BA10">
         <v>69</v>
       </c>
-      <c r="AW10">
+      <c r="BB10">
         <f t="shared" si="1"/>
         <v>3.141</v>
       </c>
-      <c r="AX10" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC10" s="3">
+        <f t="shared" si="7"/>
         <v>0.20542265358979295</v>
       </c>
-      <c r="AY10" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD10" s="3">
+        <f t="shared" si="8"/>
         <v>5.9265358979310179E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>104</v>
       </c>
@@ -11173,55 +13359,69 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="P11" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>-4.76837E-7</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="5"/>
+        <v>7.3896467010499998E-13</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>104</v>
       </c>
-      <c r="R11">
+      <c r="W11">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S11">
+      <c r="X11">
         <v>2.9230800000000001</v>
       </c>
-      <c r="T11">
+      <c r="Y11">
         <v>76</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AK11" s="2">
         <v>104</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AL11" s="1">
         <v>1.1577500000000001E-6</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AM11" s="1">
         <v>-3.3900099999999998E-7</v>
       </c>
-      <c r="AS11">
+      <c r="AX11">
         <v>104</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AY11" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU11">
+      <c r="AZ11">
         <v>2.9230800000000001</v>
       </c>
-      <c r="AV11">
+      <c r="BA11">
         <v>76</v>
       </c>
-      <c r="AW11">
+      <c r="BB11">
         <f t="shared" si="1"/>
         <v>3.1411150000000001</v>
       </c>
-      <c r="AX11" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC11" s="3">
+        <f t="shared" si="7"/>
         <v>0.21851265358979299</v>
       </c>
-      <c r="AY11" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD11" s="3">
+        <f t="shared" si="8"/>
         <v>4.7765358979301453E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>114</v>
       </c>
@@ -11271,46 +13471,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12">
+      <c r="P12" s="4">
+        <v>-1.07288E-6</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1.1920900000000001E-7</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1652822800810001E-12</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>114</v>
       </c>
-      <c r="R12">
+      <c r="W12">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S12">
+      <c r="X12">
         <v>2.91228</v>
       </c>
-      <c r="T12">
+      <c r="Y12">
         <v>83</v>
       </c>
-      <c r="AS12">
+      <c r="AX12">
         <v>114</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="AY12" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU12">
+      <c r="AZ12">
         <v>2.91228</v>
       </c>
-      <c r="AV12">
+      <c r="BA12">
         <v>83</v>
       </c>
-      <c r="AW12">
+      <c r="BB12">
         <f t="shared" si="1"/>
         <v>3.1411899999999999</v>
       </c>
-      <c r="AX12" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC12" s="3">
+        <f t="shared" si="7"/>
         <v>0.22931265358979314</v>
       </c>
-      <c r="AY12" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD12" s="3">
+        <f t="shared" si="8"/>
         <v>4.0265358979318933E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>124</v>
       </c>
@@ -11360,46 +13574,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="4">
+        <v>3.5762799999999998E-6</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3301369783935998E-11</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>124</v>
       </c>
-      <c r="R13">
+      <c r="W13">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S13">
+      <c r="X13">
         <v>2.96774</v>
       </c>
-      <c r="T13">
+      <c r="Y13">
         <v>92</v>
       </c>
-      <c r="AS13">
+      <c r="AX13">
         <v>124</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AY13" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU13">
+      <c r="AZ13">
         <v>2.96774</v>
       </c>
-      <c r="AV13">
+      <c r="BA13">
         <v>92</v>
       </c>
-      <c r="AW13">
+      <c r="BB13">
         <f t="shared" si="1"/>
         <v>3.1412650000000002</v>
       </c>
-      <c r="AX13" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC13" s="3">
+        <f t="shared" si="7"/>
         <v>0.17385265358979307</v>
       </c>
-      <c r="AY13" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD13" s="3">
+        <f t="shared" si="8"/>
         <v>3.2765358979292003E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>134</v>
       </c>
@@ -11449,46 +13677,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q14">
+      <c r="P14" s="4">
+        <v>4.76837E-7</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1.1920900000000001E-7</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4158431025E-13</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V14">
         <v>134</v>
       </c>
-      <c r="R14">
+      <c r="W14">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S14">
+      <c r="X14">
         <v>2.9552200000000002</v>
       </c>
-      <c r="T14">
+      <c r="Y14">
         <v>99</v>
       </c>
-      <c r="AS14">
+      <c r="AX14">
         <v>134</v>
       </c>
-      <c r="AT14" s="3">
+      <c r="AY14" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU14">
+      <c r="AZ14">
         <v>2.9552200000000002</v>
       </c>
-      <c r="AV14">
+      <c r="BA14">
         <v>99</v>
       </c>
-      <c r="AW14">
+      <c r="BB14">
         <f t="shared" si="1"/>
         <v>3.141305</v>
       </c>
-      <c r="AX14" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC14" s="3">
+        <f t="shared" si="7"/>
         <v>0.18637265358979294</v>
       </c>
-      <c r="AY14" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD14" s="3">
+        <f t="shared" si="8"/>
         <v>2.8765358979310207E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>144</v>
       </c>
@@ -11538,46 +13780,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q15">
+      <c r="P15" s="4">
+        <v>1.90735E-6</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6379840225000002E-12</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V15">
         <v>144</v>
       </c>
-      <c r="R15">
+      <c r="W15">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S15">
+      <c r="X15">
         <v>2.9722200000000001</v>
       </c>
-      <c r="T15">
+      <c r="Y15">
         <v>107</v>
       </c>
-      <c r="AS15">
+      <c r="AX15">
         <v>144</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AY15" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU15">
+      <c r="AZ15">
         <v>2.9722200000000001</v>
       </c>
-      <c r="AV15">
+      <c r="BA15">
         <v>107</v>
       </c>
-      <c r="AW15">
+      <c r="BB15">
         <f t="shared" si="1"/>
         <v>3.1413449999999998</v>
       </c>
-      <c r="AX15" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC15" s="3">
+        <f t="shared" si="7"/>
         <v>0.16937265358979303</v>
       </c>
-      <c r="AY15" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD15" s="3">
+        <f t="shared" si="8"/>
         <v>2.4765358979328411E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>154</v>
       </c>
@@ -11627,46 +13883,67 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="P16" s="4">
+        <v>-5.9604599999999999E-7</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>-8.34465E-7</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0516026703409999E-12</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
         <v>154</v>
       </c>
-      <c r="R16">
+      <c r="W16">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S16">
+      <c r="X16">
         <v>2.9870100000000002</v>
       </c>
-      <c r="T16">
+      <c r="Y16">
         <v>115</v>
       </c>
-      <c r="AS16">
+      <c r="AX16">
         <v>154</v>
       </c>
-      <c r="AT16" s="3">
+      <c r="AY16" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU16">
+      <c r="AZ16">
         <v>2.9870100000000002</v>
       </c>
-      <c r="AV16">
+      <c r="BA16">
         <v>115</v>
       </c>
-      <c r="AW16">
+      <c r="BB16">
         <f t="shared" si="1"/>
         <v>3.1413799999999998</v>
       </c>
-      <c r="AX16" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC16" s="3">
+        <f t="shared" si="7"/>
         <v>0.15458265358979295</v>
       </c>
-      <c r="AY16" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD16" s="3">
+        <f t="shared" si="8"/>
         <v>2.1265358979327686E-4</v>
       </c>
+      <c r="BM16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN16">
+        <f>SUM(S2:S88)</f>
+        <v>58</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>164</v>
       </c>
@@ -11716,46 +13993,67 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="P17" s="4">
+        <v>3.5762799999999998E-6</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1.1920899999999999E-6</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4210857206499999E-11</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>164</v>
       </c>
-      <c r="R17">
+      <c r="W17">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S17">
+      <c r="X17">
         <v>3.0243899999999999</v>
       </c>
-      <c r="T17">
+      <c r="Y17">
         <v>124</v>
       </c>
-      <c r="AS17">
+      <c r="AX17">
         <v>164</v>
       </c>
-      <c r="AT17" s="3">
+      <c r="AY17" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU17">
+      <c r="AZ17">
         <v>3.0243899999999999</v>
       </c>
-      <c r="AV17">
+      <c r="BA17">
         <v>124</v>
       </c>
-      <c r="AW17">
+      <c r="BB17">
         <f t="shared" si="1"/>
         <v>3.14141</v>
       </c>
-      <c r="AX17" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC17" s="3">
+        <f t="shared" si="7"/>
         <v>0.1172026535897932</v>
       </c>
-      <c r="AY17" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD17" s="3">
+        <f t="shared" si="8"/>
         <v>1.8265358979308033E-4</v>
       </c>
+      <c r="BM17" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN17">
+        <f>87-BN16</f>
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>174</v>
       </c>
@@ -11805,56 +14103,70 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q18">
+      <c r="P18" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>3.57628E-7</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3948893191999996E-13</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
         <v>174</v>
       </c>
-      <c r="R18">
+      <c r="W18">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S18">
+      <c r="X18">
         <v>3.08046</v>
       </c>
-      <c r="T18">
+      <c r="Y18">
         <v>134</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AP18" t="s">
         <v>24</v>
       </c>
-      <c r="AL18">
+      <c r="AQ18">
         <f>SUM(O2:O88)</f>
         <v>44</v>
       </c>
-      <c r="AS18">
+      <c r="AX18">
         <v>174</v>
       </c>
-      <c r="AT18" s="3">
+      <c r="AY18" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU18">
+      <c r="AZ18">
         <v>3.08046</v>
       </c>
-      <c r="AV18">
+      <c r="BA18">
         <v>134</v>
       </c>
-      <c r="AW18">
+      <c r="BB18">
         <f t="shared" si="1"/>
         <v>3.1414249999999999</v>
       </c>
-      <c r="AX18" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC18" s="3">
+        <f t="shared" si="7"/>
         <v>6.113265358979314E-2</v>
       </c>
-      <c r="AY18" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD18" s="3">
+        <f t="shared" si="8"/>
         <v>1.6765358979320411E-4</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BE18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>184</v>
       </c>
@@ -11904,56 +14216,70 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19">
+      <c r="P19" s="4">
+        <v>-2.2649800000000002E-6</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>8.34465E-7</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="5"/>
+        <v>5.8264662366250014E-12</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V19">
         <v>184</v>
       </c>
-      <c r="R19">
+      <c r="W19">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S19">
+      <c r="X19">
         <v>3.0434800000000002</v>
       </c>
-      <c r="T19">
+      <c r="Y19">
         <v>140</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AP19" t="s">
         <v>25</v>
       </c>
-      <c r="AL19">
+      <c r="AQ19">
         <f>87-44</f>
         <v>43</v>
       </c>
-      <c r="AS19">
+      <c r="AX19">
         <v>184</v>
       </c>
-      <c r="AT19" s="3">
+      <c r="AY19" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU19">
+      <c r="AZ19">
         <v>3.0434800000000002</v>
       </c>
-      <c r="AV19">
+      <c r="BA19">
         <v>140</v>
       </c>
-      <c r="AW19">
+      <c r="BB19">
         <f t="shared" si="1"/>
         <v>3.1414300000000002</v>
       </c>
-      <c r="AX19" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC19" s="3">
+        <f t="shared" si="7"/>
         <v>9.8112653589792931E-2</v>
       </c>
-      <c r="AY19" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD19" s="3">
+        <f t="shared" si="8"/>
         <v>1.626535897929493E-4</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BE19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>194</v>
       </c>
@@ -12003,49 +14329,63 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="P20" s="4">
+        <v>4.5299499999999997E-6</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>8.34465E-7</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1216778838724997E-11</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V20">
         <v>194</v>
       </c>
-      <c r="R20">
+      <c r="W20">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S20">
+      <c r="X20">
         <v>3.0309300000000001</v>
       </c>
-      <c r="T20">
+      <c r="Y20">
         <v>147</v>
       </c>
-      <c r="AS20">
+      <c r="AX20">
         <v>194</v>
       </c>
-      <c r="AT20" s="3">
+      <c r="AY20" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU20">
+      <c r="AZ20">
         <v>3.0309300000000001</v>
       </c>
-      <c r="AV20">
+      <c r="BA20">
         <v>147</v>
       </c>
-      <c r="AW20">
+      <c r="BB20">
         <f t="shared" si="1"/>
         <v>3.1414650000000002</v>
       </c>
-      <c r="AX20" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC20" s="3">
+        <f t="shared" si="7"/>
         <v>0.11066265358979299</v>
       </c>
-      <c r="AY20" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD20" s="3">
+        <f t="shared" si="8"/>
         <v>1.2765358979294206E-4</v>
       </c>
-      <c r="AZ20" t="b">
+      <c r="BE20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>204</v>
       </c>
@@ -12095,46 +14435,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q21">
+      <c r="P21" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1159114553599997E-13</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V21">
         <v>204</v>
       </c>
-      <c r="R21">
+      <c r="W21">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S21">
+      <c r="X21">
         <v>3.0392199999999998</v>
       </c>
-      <c r="T21">
+      <c r="Y21">
         <v>155</v>
       </c>
-      <c r="AS21">
+      <c r="AX21">
         <v>204</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AY21" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU21">
+      <c r="AZ21">
         <v>3.0392199999999998</v>
       </c>
-      <c r="AV21">
+      <c r="BA21">
         <v>155</v>
       </c>
-      <c r="AW21">
+      <c r="BB21">
         <f t="shared" si="1"/>
         <v>3.1414749999999998</v>
       </c>
-      <c r="AX21" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC21" s="3">
+        <f t="shared" si="7"/>
         <v>0.10237265358979331</v>
       </c>
-      <c r="AY21" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD21" s="3">
+        <f t="shared" si="8"/>
         <v>1.1765358979332063E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>214</v>
       </c>
@@ -12184,46 +14538,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q22">
+      <c r="P22" s="4">
+        <v>-2.5034E-6</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>8.34465E-7</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="5"/>
+        <v>6.9633433962250002E-12</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>214</v>
       </c>
-      <c r="R22">
+      <c r="W22">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S22">
+      <c r="X22">
         <v>3.06542</v>
       </c>
-      <c r="T22">
+      <c r="Y22">
         <v>164</v>
       </c>
-      <c r="AS22">
+      <c r="AX22">
         <v>214</v>
       </c>
-      <c r="AT22" s="3">
+      <c r="AY22" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU22">
+      <c r="AZ22">
         <v>3.06542</v>
       </c>
-      <c r="AV22">
+      <c r="BA22">
         <v>164</v>
       </c>
-      <c r="AW22">
+      <c r="BB22">
         <f t="shared" si="1"/>
         <v>3.1414749999999998</v>
       </c>
-      <c r="AX22" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC22" s="3">
+        <f t="shared" si="7"/>
         <v>7.6172653589793082E-2</v>
       </c>
-      <c r="AY22" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD22" s="3">
+        <f t="shared" si="8"/>
         <v>1.1765358979332063E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>224</v>
       </c>
@@ -12273,46 +14641,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q23">
+      <c r="P23" s="4">
+        <v>-3.4570699999999999E-6</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1951332984899999E-11</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>224</v>
       </c>
-      <c r="R23">
+      <c r="W23">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S23">
+      <c r="X23">
         <v>3.0535700000000001</v>
       </c>
-      <c r="T23">
+      <c r="Y23">
         <v>171</v>
       </c>
-      <c r="AS23">
+      <c r="AX23">
         <v>224</v>
       </c>
-      <c r="AT23" s="3">
+      <c r="AY23" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU23">
+      <c r="AZ23">
         <v>3.0535700000000001</v>
       </c>
-      <c r="AV23">
+      <c r="BA23">
         <v>171</v>
       </c>
-      <c r="AW23">
+      <c r="BB23">
         <f t="shared" si="1"/>
         <v>3.1414849999999999</v>
       </c>
-      <c r="AX23" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC23" s="3">
+        <f t="shared" si="7"/>
         <v>8.8022653589792998E-2</v>
       </c>
-      <c r="AY23" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD23" s="3">
+        <f t="shared" si="8"/>
         <v>1.0765358979325512E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>234</v>
       </c>
@@ -12362,46 +14744,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="P24" s="4">
+        <v>-4.5299499999999997E-6</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-5.9604599999999999E-7</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0875717836615999E-11</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>234</v>
       </c>
-      <c r="R24">
+      <c r="W24">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S24">
+      <c r="X24">
         <v>3.0598299999999998</v>
       </c>
-      <c r="T24">
+      <c r="Y24">
         <v>179</v>
       </c>
-      <c r="AS24">
+      <c r="AX24">
         <v>234</v>
       </c>
-      <c r="AT24" s="3">
+      <c r="AY24" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU24">
+      <c r="AZ24">
         <v>3.0598299999999998</v>
       </c>
-      <c r="AV24">
+      <c r="BA24">
         <v>179</v>
       </c>
-      <c r="AW24">
+      <c r="BB24">
         <f t="shared" si="1"/>
         <v>3.1414900000000001</v>
       </c>
-      <c r="AX24" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC24" s="3">
+        <f t="shared" si="7"/>
         <v>8.1762653589793288E-2</v>
       </c>
-      <c r="AY24" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD24" s="3">
+        <f t="shared" si="8"/>
         <v>1.0265358979300032E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>244</v>
       </c>
@@ -12451,46 +14847,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="P25" s="4">
+        <v>1.43051E-6</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="5"/>
+        <v>2.557950005636E-12</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V25">
         <v>244</v>
       </c>
-      <c r="R25">
+      <c r="W25">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S25">
+      <c r="X25">
         <v>3.0819700000000001</v>
       </c>
-      <c r="T25">
+      <c r="Y25">
         <v>188</v>
       </c>
-      <c r="AS25">
+      <c r="AX25">
         <v>244</v>
       </c>
-      <c r="AT25" s="3">
+      <c r="AY25" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU25">
+      <c r="AZ25">
         <v>3.0819700000000001</v>
       </c>
-      <c r="AV25">
+      <c r="BA25">
         <v>188</v>
       </c>
-      <c r="AW25">
+      <c r="BB25">
         <f t="shared" si="1"/>
         <v>3.1415150000000001</v>
       </c>
-      <c r="AX25" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC25" s="3">
+        <f t="shared" si="7"/>
         <v>5.9622653589793018E-2</v>
       </c>
-      <c r="AY25" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD25" s="3">
+        <f t="shared" si="8"/>
         <v>7.7653589793058586E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>254</v>
       </c>
@@ -12540,46 +14950,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q26">
+      <c r="P26" s="4">
+        <v>-2.2649800000000002E-6</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1.1920900000000001E-7</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1443451860810008E-12</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>254</v>
       </c>
-      <c r="R26">
+      <c r="W26">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S26">
+      <c r="X26">
         <v>3.10236</v>
       </c>
-      <c r="T26">
+      <c r="Y26">
         <v>197</v>
       </c>
-      <c r="AS26">
+      <c r="AX26">
         <v>254</v>
       </c>
-      <c r="AT26" s="3">
+      <c r="AY26" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU26">
+      <c r="AZ26">
         <v>3.10236</v>
       </c>
-      <c r="AV26">
+      <c r="BA26">
         <v>197</v>
       </c>
-      <c r="AW26">
+      <c r="BB26">
         <f t="shared" si="1"/>
         <v>3.1415199999999999</v>
       </c>
-      <c r="AX26" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC26" s="3">
+        <f t="shared" si="7"/>
         <v>3.9232653589793109E-2</v>
       </c>
-      <c r="AY26" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD26" s="3">
+        <f t="shared" si="8"/>
         <v>7.2653589793247875E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>264</v>
       </c>
@@ -12629,46 +15053,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q27">
+      <c r="P27" s="4">
+        <v>5.0067900000000002E-6</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2.3841900000000001E-7</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5124789723661002E-11</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>264</v>
       </c>
-      <c r="R27">
+      <c r="W27">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S27">
+      <c r="X27">
         <v>3.1060599999999998</v>
       </c>
-      <c r="T27">
+      <c r="Y27">
         <v>205</v>
       </c>
-      <c r="AS27">
+      <c r="AX27">
         <v>264</v>
       </c>
-      <c r="AT27" s="3">
+      <c r="AY27" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU27">
+      <c r="AZ27">
         <v>3.1060599999999998</v>
       </c>
-      <c r="AV27">
+      <c r="BA27">
         <v>205</v>
       </c>
-      <c r="AW27">
+      <c r="BB27">
         <f t="shared" si="1"/>
         <v>3.1415250000000001</v>
       </c>
-      <c r="AX27" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC27" s="3">
+        <f t="shared" si="7"/>
         <v>3.5532653589793295E-2</v>
       </c>
-      <c r="AY27" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD27" s="3">
+        <f t="shared" si="8"/>
         <v>6.7653589792993074E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>274</v>
       </c>
@@ -12718,46 +15156,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q28">
+      <c r="P28" s="4">
+        <v>-2.3841900000000001E-7</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>-7.1525600000000001E-7</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="5"/>
+        <v>5.6843476509699993E-13</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
         <v>274</v>
       </c>
-      <c r="R28">
+      <c r="W28">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S28">
+      <c r="X28">
         <v>3.0802900000000002</v>
       </c>
-      <c r="T28">
+      <c r="Y28">
         <v>211</v>
       </c>
-      <c r="AS28">
+      <c r="AX28">
         <v>274</v>
       </c>
-      <c r="AT28" s="3">
+      <c r="AY28" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU28">
+      <c r="AZ28">
         <v>3.0802900000000002</v>
       </c>
-      <c r="AV28">
+      <c r="BA28">
         <v>211</v>
       </c>
-      <c r="AW28">
+      <c r="BB28">
         <f t="shared" si="1"/>
         <v>3.1415150000000001</v>
       </c>
-      <c r="AX28" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC28" s="3">
+        <f t="shared" si="7"/>
         <v>6.1302653589792921E-2</v>
       </c>
-      <c r="AY28" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD28" s="3">
+        <f t="shared" si="8"/>
         <v>7.7653589793058586E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>284</v>
       </c>
@@ -12807,46 +15259,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q29">
+      <c r="P29" s="4">
+        <v>-2.02656E-6</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>-9.5367399999999999E-7</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0164395318759999E-12</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V29">
         <v>284</v>
       </c>
-      <c r="R29">
+      <c r="W29">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S29">
+      <c r="X29">
         <v>3.0985900000000002</v>
       </c>
-      <c r="T29">
+      <c r="Y29">
         <v>220</v>
       </c>
-      <c r="AS29">
+      <c r="AX29">
         <v>284</v>
       </c>
-      <c r="AT29" s="3">
+      <c r="AY29" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU29">
+      <c r="AZ29">
         <v>3.0985900000000002</v>
       </c>
-      <c r="AV29">
+      <c r="BA29">
         <v>220</v>
       </c>
-      <c r="AW29">
+      <c r="BB29">
         <f t="shared" si="1"/>
         <v>3.1415199999999999</v>
       </c>
-      <c r="AX29" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC29" s="3">
+        <f t="shared" si="7"/>
         <v>4.3002653589792939E-2</v>
       </c>
-      <c r="AY29" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD29" s="3">
+        <f t="shared" si="8"/>
         <v>7.2653589793247875E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>294</v>
       </c>
@@ -12896,46 +15362,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q30">
+      <c r="P30" s="4">
+        <v>2.3841900000000001E-6</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1.1920899999999999E-6</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="5"/>
+        <v>7.1054405242000008E-12</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>294</v>
       </c>
-      <c r="R30">
+      <c r="W30">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S30">
+      <c r="X30">
         <v>3.0884399999999999</v>
       </c>
-      <c r="T30">
+      <c r="Y30">
         <v>227</v>
       </c>
-      <c r="AS30">
+      <c r="AX30">
         <v>294</v>
       </c>
-      <c r="AT30" s="3">
+      <c r="AY30" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU30">
+      <c r="AZ30">
         <v>3.0884399999999999</v>
       </c>
-      <c r="AV30">
+      <c r="BA30">
         <v>227</v>
       </c>
-      <c r="AW30">
+      <c r="BB30">
         <f t="shared" si="1"/>
         <v>3.1415299999999999</v>
       </c>
-      <c r="AX30" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC30" s="3">
+        <f t="shared" si="7"/>
         <v>5.3152653589793264E-2</v>
       </c>
-      <c r="AY30" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD30" s="3">
+        <f t="shared" si="8"/>
         <v>6.2653589793182363E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>304</v>
       </c>
@@ -12985,46 +15465,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q31">
+      <c r="P31" s="4">
+        <v>6.67572E-6</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>4.76837E-7</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" si="5"/>
+        <v>4.4792611042968998E-11</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>304</v>
       </c>
-      <c r="R31">
+      <c r="W31">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S31">
+      <c r="X31">
         <v>3.0789499999999999</v>
       </c>
-      <c r="T31">
+      <c r="Y31">
         <v>234</v>
       </c>
-      <c r="AS31">
+      <c r="AX31">
         <v>304</v>
       </c>
-      <c r="AT31" s="3">
+      <c r="AY31" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU31">
+      <c r="AZ31">
         <v>3.0789499999999999</v>
       </c>
-      <c r="AV31">
+      <c r="BA31">
         <v>234</v>
       </c>
-      <c r="AW31">
+      <c r="BB31">
         <f t="shared" si="1"/>
         <v>3.14154</v>
       </c>
-      <c r="AX31" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC31" s="3">
+        <f t="shared" si="7"/>
         <v>6.2642653589793262E-2</v>
       </c>
-      <c r="AY31" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD31" s="3">
+        <f t="shared" si="8"/>
         <v>5.2653589793116851E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>314</v>
       </c>
@@ -13074,46 +15568,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q32">
+      <c r="P32" s="4">
+        <v>-5.0067900000000002E-6</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>-3.57628E-7</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5195843890484004E-11</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V32">
         <v>314</v>
       </c>
-      <c r="R32">
+      <c r="W32">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S32">
+      <c r="X32">
         <v>3.1082800000000002</v>
       </c>
-      <c r="T32">
+      <c r="Y32">
         <v>244</v>
       </c>
-      <c r="AS32">
+      <c r="AX32">
         <v>314</v>
       </c>
-      <c r="AT32" s="3">
+      <c r="AY32" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU32">
+      <c r="AZ32">
         <v>3.1082800000000002</v>
       </c>
-      <c r="AV32">
+      <c r="BA32">
         <v>244</v>
       </c>
-      <c r="AW32">
+      <c r="BB32">
         <f t="shared" si="1"/>
         <v>3.1415199999999999</v>
       </c>
-      <c r="AX32" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC32" s="3">
+        <f t="shared" si="7"/>
         <v>3.3312653589792962E-2</v>
       </c>
-      <c r="AY32" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD32" s="3">
+        <f t="shared" si="8"/>
         <v>7.2653589793247875E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>324</v>
       </c>
@@ -13163,46 +15671,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q33">
+      <c r="P33" s="4">
+        <v>-6.3180899999999998E-6</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>3.57628E-7</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="5"/>
+        <v>4.0046159034483996E-11</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V33">
         <v>324</v>
       </c>
-      <c r="R33">
+      <c r="W33">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S33">
+      <c r="X33">
         <v>3.1358000000000001</v>
       </c>
-      <c r="T33">
+      <c r="Y33">
         <v>254</v>
       </c>
-      <c r="AS33">
+      <c r="AX33">
         <v>324</v>
       </c>
-      <c r="AT33" s="3">
+      <c r="AY33" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU33">
+      <c r="AZ33">
         <v>3.1358000000000001</v>
       </c>
-      <c r="AV33">
+      <c r="BA33">
         <v>254</v>
       </c>
-      <c r="AW33">
+      <c r="BB33">
         <f t="shared" si="1"/>
         <v>3.1415299999999999</v>
       </c>
-      <c r="AX33" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC33" s="3">
+        <f t="shared" si="7"/>
         <v>5.7926535897929732E-3</v>
       </c>
-      <c r="AY33" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD33" s="3">
+        <f t="shared" si="8"/>
         <v>6.2653589793182363E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>334</v>
       </c>
@@ -13252,46 +15774,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q34">
+      <c r="P34" s="4">
+        <v>-8.70228E-6</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>-8.34465E-7</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="5"/>
+        <v>7.6426009034624997E-11</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
         <v>334</v>
       </c>
-      <c r="R34">
+      <c r="W34">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S34">
+      <c r="X34">
         <v>3.1377199999999998</v>
       </c>
-      <c r="T34">
+      <c r="Y34">
         <v>262</v>
       </c>
-      <c r="AS34">
+      <c r="AX34">
         <v>334</v>
       </c>
-      <c r="AT34" s="3">
+      <c r="AY34" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU34">
+      <c r="AZ34">
         <v>3.1377199999999998</v>
       </c>
-      <c r="AV34">
+      <c r="BA34">
         <v>262</v>
       </c>
-      <c r="AW34">
-        <f t="shared" ref="AW34:AW65" si="7">$C34/2</f>
+      <c r="BB34">
+        <f t="shared" ref="BB34:BB65" si="9">$C34/2</f>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX34" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC34" s="3">
+        <f t="shared" si="7"/>
         <v>3.8726535897932735E-3</v>
       </c>
-      <c r="AY34" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD34" s="3">
+        <f t="shared" si="8"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>344</v>
       </c>
@@ -13341,46 +15877,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q35">
+      <c r="P35" s="4">
+        <v>9.0599100000000001E-6</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="5"/>
+        <v>8.20819692081E-11</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
         <v>344</v>
       </c>
-      <c r="R35">
+      <c r="W35">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S35">
+      <c r="X35">
         <v>3.1162800000000002</v>
       </c>
-      <c r="T35">
+      <c r="Y35">
         <v>268</v>
       </c>
-      <c r="AS35">
+      <c r="AX35">
         <v>344</v>
       </c>
-      <c r="AT35" s="3">
+      <c r="AY35" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU35">
+      <c r="AZ35">
         <v>3.1162800000000002</v>
       </c>
-      <c r="AV35">
+      <c r="BA35">
         <v>268</v>
       </c>
-      <c r="AW35">
+      <c r="BB35">
+        <f t="shared" si="9"/>
+        <v>3.1415549999999999</v>
+      </c>
+      <c r="BC35" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415549999999999</v>
-      </c>
-      <c r="AX35" s="3">
-        <f t="shared" si="5"/>
         <v>2.5312653589792955E-2</v>
       </c>
-      <c r="AY35" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD35" s="3">
+        <f t="shared" si="8"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>354</v>
       </c>
@@ -13430,46 +15980,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q36">
+      <c r="P36" s="4">
+        <v>-7.8678100000000001E-6</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>9.5367399999999999E-7</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="5"/>
+        <v>6.2811928294376005E-11</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
         <v>354</v>
       </c>
-      <c r="R36">
+      <c r="W36">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S36">
+      <c r="X36">
         <v>3.1412399999999998</v>
       </c>
-      <c r="T36">
+      <c r="Y36">
         <v>278</v>
       </c>
-      <c r="AS36">
+      <c r="AX36">
         <v>354</v>
       </c>
-      <c r="AT36" s="3">
+      <c r="AY36" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU36">
+      <c r="AZ36">
         <v>3.1412399999999998</v>
       </c>
-      <c r="AV36">
+      <c r="BA36">
         <v>278</v>
       </c>
-      <c r="AW36">
+      <c r="BB36">
+        <f t="shared" si="9"/>
+        <v>3.1415449999999998</v>
+      </c>
+      <c r="BC36" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415449999999998</v>
-      </c>
-      <c r="AX36" s="3">
-        <f t="shared" si="5"/>
         <v>3.5265358979330585E-4</v>
       </c>
-      <c r="AY36" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD36" s="3">
+        <f t="shared" si="8"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>364</v>
       </c>
@@ -13519,46 +16083,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q37">
+      <c r="P37" s="4">
+        <v>8.1062300000000008E-6</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>1.66893E-6</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="5"/>
+        <v>6.8496292157800006E-11</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
         <v>364</v>
       </c>
-      <c r="R37">
+      <c r="W37">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S37">
+      <c r="X37">
         <v>3.1318700000000002</v>
       </c>
-      <c r="T37">
+      <c r="Y37">
         <v>285</v>
       </c>
-      <c r="AS37">
+      <c r="AX37">
         <v>364</v>
       </c>
-      <c r="AT37" s="3">
+      <c r="AY37" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU37">
+      <c r="AZ37">
         <v>3.1318700000000002</v>
       </c>
-      <c r="AV37">
+      <c r="BA37">
         <v>285</v>
       </c>
-      <c r="AW37">
+      <c r="BB37">
+        <f t="shared" si="9"/>
+        <v>3.1415649999999999</v>
+      </c>
+      <c r="BC37" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415649999999999</v>
-      </c>
-      <c r="AX37" s="3">
-        <f t="shared" si="5"/>
         <v>9.7226535897929622E-3</v>
       </c>
-      <c r="AY37" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD37" s="3">
+        <f t="shared" si="8"/>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>374</v>
       </c>
@@ -13608,46 +16186,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q38">
+      <c r="P38" s="4">
+        <v>-8.1062300000000008E-6</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="5"/>
+        <v>6.5710964812900011E-11</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V38">
         <v>374</v>
       </c>
-      <c r="R38">
+      <c r="W38">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S38">
+      <c r="X38">
         <v>3.1229900000000002</v>
       </c>
-      <c r="T38">
+      <c r="Y38">
         <v>292</v>
       </c>
-      <c r="AS38">
+      <c r="AX38">
         <v>374</v>
       </c>
-      <c r="AT38" s="3">
+      <c r="AY38" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU38">
+      <c r="AZ38">
         <v>3.1229900000000002</v>
       </c>
-      <c r="AV38">
+      <c r="BA38">
         <v>292</v>
       </c>
-      <c r="AW38">
+      <c r="BB38">
+        <f t="shared" si="9"/>
+        <v>3.1415250000000001</v>
+      </c>
+      <c r="BC38" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415250000000001</v>
-      </c>
-      <c r="AX38" s="3">
-        <f t="shared" si="5"/>
         <v>1.8602653589792961E-2</v>
       </c>
-      <c r="AY38" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD38" s="3">
+        <f t="shared" si="8"/>
         <v>6.7653589792993074E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>384</v>
       </c>
@@ -13697,46 +16289,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q39">
+      <c r="P39" s="4">
+        <v>-3.0994400000000002E-6</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>-7.1525600000000001E-7</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0118119459136001E-11</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
         <v>384</v>
       </c>
-      <c r="R39">
+      <c r="W39">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S39">
+      <c r="X39">
         <v>3.125</v>
       </c>
-      <c r="T39">
+      <c r="Y39">
         <v>300</v>
       </c>
-      <c r="AS39">
+      <c r="AX39">
         <v>384</v>
       </c>
-      <c r="AT39" s="3">
+      <c r="AY39" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU39">
+      <c r="AZ39">
         <v>3.125</v>
       </c>
-      <c r="AV39">
+      <c r="BA39">
         <v>300</v>
       </c>
-      <c r="AW39">
+      <c r="BB39">
+        <f t="shared" si="9"/>
+        <v>3.1415449999999998</v>
+      </c>
+      <c r="BC39" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415449999999998</v>
-      </c>
-      <c r="AX39" s="3">
-        <f t="shared" si="5"/>
         <v>1.6592653589793116E-2</v>
       </c>
-      <c r="AY39" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD39" s="3">
+        <f t="shared" si="8"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>394</v>
       </c>
@@ -13786,46 +16392,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q40">
+      <c r="P40" s="4">
+        <v>6.9141399999999998E-6</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>-9.5367399999999999E-7</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="5"/>
+        <v>4.8714826037875999E-11</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
         <v>394</v>
       </c>
-      <c r="R40">
+      <c r="W40">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S40">
+      <c r="X40">
         <v>3.1269</v>
       </c>
-      <c r="T40">
+      <c r="Y40">
         <v>308</v>
       </c>
-      <c r="AS40">
+      <c r="AX40">
         <v>394</v>
       </c>
-      <c r="AT40" s="3">
+      <c r="AY40" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU40">
+      <c r="AZ40">
         <v>3.1269</v>
       </c>
-      <c r="AV40">
+      <c r="BA40">
         <v>308</v>
       </c>
-      <c r="AW40">
+      <c r="BB40">
+        <f t="shared" si="9"/>
+        <v>3.1415700000000002</v>
+      </c>
+      <c r="BC40" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415700000000002</v>
-      </c>
-      <c r="AX40" s="3">
-        <f t="shared" si="5"/>
         <v>1.4692653589793103E-2</v>
       </c>
-      <c r="AY40" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD40" s="3">
+        <f t="shared" si="8"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>404</v>
       </c>
@@ -13875,46 +16495,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q41">
+      <c r="P41" s="4">
+        <v>-1.5497200000000001E-6</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>-5.9604599999999999E-7</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7569029125160005E-12</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>404</v>
       </c>
-      <c r="R41">
+      <c r="W41">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S41">
+      <c r="X41">
         <v>3.1287099999999999</v>
       </c>
-      <c r="T41">
+      <c r="Y41">
         <v>316</v>
       </c>
-      <c r="AS41">
+      <c r="AX41">
         <v>404</v>
       </c>
-      <c r="AT41" s="3">
+      <c r="AY41" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU41">
+      <c r="AZ41">
         <v>3.1287099999999999</v>
       </c>
-      <c r="AV41">
+      <c r="BA41">
         <v>316</v>
       </c>
-      <c r="AW41">
+      <c r="BB41">
+        <f t="shared" si="9"/>
+        <v>3.1415449999999998</v>
+      </c>
+      <c r="BC41" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415449999999998</v>
-      </c>
-      <c r="AX41" s="3">
-        <f t="shared" si="5"/>
         <v>1.2882653589793236E-2</v>
       </c>
-      <c r="AY41" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD41" s="3">
+        <f t="shared" si="8"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>414</v>
       </c>
@@ -13964,46 +16598,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q42">
+      <c r="P42" s="4">
+        <v>4.7683700000000004E-6</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>9.5367399999999999E-7</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3646846555176003E-11</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>414</v>
       </c>
-      <c r="R42">
+      <c r="W42">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S42">
+      <c r="X42">
         <v>3.1400999999999999</v>
       </c>
-      <c r="T42">
+      <c r="Y42">
         <v>325</v>
       </c>
-      <c r="AS42">
+      <c r="AX42">
         <v>414</v>
       </c>
-      <c r="AT42" s="3">
+      <c r="AY42" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU42">
+      <c r="AZ42">
         <v>3.1400999999999999</v>
       </c>
-      <c r="AV42">
+      <c r="BA42">
         <v>325</v>
       </c>
-      <c r="AW42">
+      <c r="BB42">
+        <f t="shared" si="9"/>
+        <v>3.1415799999999998</v>
+      </c>
+      <c r="BC42" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415799999999998</v>
-      </c>
-      <c r="AX42" s="3">
-        <f t="shared" si="5"/>
         <v>1.4926535897932247E-3</v>
       </c>
-      <c r="AY42" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD42" s="3">
+        <f t="shared" si="8"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>424</v>
       </c>
@@ -14053,46 +16701,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q43">
+      <c r="P43" s="4">
+        <v>-4.76837E-7</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>-1.43051E-6</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2737323846689998E-12</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>424</v>
       </c>
-      <c r="R43">
+      <c r="W43">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S43">
+      <c r="X43">
         <v>3.1415099999999998</v>
       </c>
-      <c r="T43">
+      <c r="Y43">
         <v>333</v>
       </c>
-      <c r="AS43">
+      <c r="AX43">
         <v>424</v>
       </c>
-      <c r="AT43" s="3">
+      <c r="AY43" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU43">
+      <c r="AZ43">
         <v>3.1415099999999998</v>
       </c>
-      <c r="AV43">
+      <c r="BA43">
         <v>333</v>
       </c>
-      <c r="AW43">
+      <c r="BB43">
+        <f t="shared" si="9"/>
+        <v>3.1415600000000001</v>
+      </c>
+      <c r="BC43" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415600000000001</v>
-      </c>
-      <c r="AX43" s="3">
-        <f t="shared" si="5"/>
         <v>8.2653589793313387E-5</v>
       </c>
-      <c r="AY43" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD43" s="3">
+        <f t="shared" si="8"/>
         <v>3.2653589792985827E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>434</v>
       </c>
@@ -14142,46 +16804,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q44">
+      <c r="P44" s="4">
+        <v>5.24521E-6</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7512227944100001E-11</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V44">
         <v>434</v>
       </c>
-      <c r="R44">
+      <c r="W44">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S44">
+      <c r="X44">
         <v>3.1428600000000002</v>
       </c>
-      <c r="T44">
+      <c r="Y44">
         <v>341</v>
       </c>
-      <c r="AS44">
+      <c r="AX44">
         <v>434</v>
       </c>
-      <c r="AT44" s="3">
+      <c r="AY44" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU44">
+      <c r="AZ44">
         <v>3.1428600000000002</v>
       </c>
-      <c r="AV44">
+      <c r="BA44">
         <v>341</v>
       </c>
-      <c r="AW44">
+      <c r="BB44">
+        <f t="shared" si="9"/>
+        <v>3.1415649999999999</v>
+      </c>
+      <c r="BC44" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415649999999999</v>
-      </c>
-      <c r="AX44" s="3">
-        <f t="shared" si="5"/>
         <v>-1.267346410207093E-3</v>
       </c>
-      <c r="AY44" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD44" s="3">
+        <f t="shared" si="8"/>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>444</v>
       </c>
@@ -14231,46 +16907,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q45">
+      <c r="P45" s="4">
+        <v>-3.5762800000000003E-8</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>2.3841900000000001E-8</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8474140594500005E-15</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V45">
         <v>444</v>
       </c>
-      <c r="R45">
+      <c r="W45">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S45">
+      <c r="X45">
         <v>3.1441400000000002</v>
       </c>
-      <c r="T45">
+      <c r="Y45">
         <v>349</v>
       </c>
-      <c r="AS45">
+      <c r="AX45">
         <v>444</v>
       </c>
-      <c r="AT45" s="3">
+      <c r="AY45" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU45">
+      <c r="AZ45">
         <v>3.1441400000000002</v>
       </c>
-      <c r="AV45">
+      <c r="BA45">
         <v>349</v>
       </c>
-      <c r="AW45">
+      <c r="BB45">
+        <f t="shared" si="9"/>
+        <v>3.1415500000000001</v>
+      </c>
+      <c r="BC45" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415500000000001</v>
-      </c>
-      <c r="AX45" s="3">
-        <f t="shared" si="5"/>
         <v>-2.5473464102070409E-3</v>
       </c>
-      <c r="AY45" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD45" s="3">
+        <f t="shared" si="8"/>
         <v>4.2653589793051339E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>454</v>
       </c>
@@ -14320,46 +17010,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q46">
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V46">
         <v>454</v>
       </c>
-      <c r="R46">
+      <c r="W46">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S46">
+      <c r="X46">
         <v>3.1277499999999998</v>
       </c>
-      <c r="T46">
+      <c r="Y46">
         <v>355</v>
       </c>
-      <c r="AS46">
+      <c r="AX46">
         <v>454</v>
       </c>
-      <c r="AT46" s="3">
+      <c r="AY46" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU46">
+      <c r="AZ46">
         <v>3.1277499999999998</v>
       </c>
-      <c r="AV46">
+      <c r="BA46">
         <v>355</v>
       </c>
-      <c r="AW46">
+      <c r="BB46">
+        <f t="shared" si="9"/>
+        <v>3.1415449999999998</v>
+      </c>
+      <c r="BC46" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415449999999998</v>
-      </c>
-      <c r="AX46" s="3">
-        <f t="shared" si="5"/>
         <v>1.3842653589793308E-2</v>
       </c>
-      <c r="AY46" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD46" s="3">
+        <f t="shared" si="8"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>464</v>
       </c>
@@ -14409,46 +17113,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q47">
+      <c r="P47" s="4">
+        <v>2.3841900000000001E-8</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>-1.1920900000000001E-7</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4779221876610002E-14</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V47">
         <v>464</v>
       </c>
-      <c r="R47">
+      <c r="W47">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S47">
+      <c r="X47">
         <v>3.1379299999999999</v>
       </c>
-      <c r="T47">
+      <c r="Y47">
         <v>364</v>
       </c>
-      <c r="AS47">
+      <c r="AX47">
         <v>464</v>
       </c>
-      <c r="AT47" s="3">
+      <c r="AY47" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU47">
+      <c r="AZ47">
         <v>3.1379299999999999</v>
       </c>
-      <c r="AV47">
+      <c r="BA47">
         <v>364</v>
       </c>
-      <c r="AW47">
+      <c r="BB47">
+        <f t="shared" si="9"/>
+        <v>3.1415649999999999</v>
+      </c>
+      <c r="BC47" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415649999999999</v>
-      </c>
-      <c r="AX47" s="3">
-        <f t="shared" si="5"/>
         <v>3.66265358979323E-3</v>
       </c>
-      <c r="AY47" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD47" s="3">
+        <f t="shared" si="8"/>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>474</v>
       </c>
@@ -14498,46 +17216,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q48">
+      <c r="P48" s="4">
+        <v>-4.7683700000000002E-8</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>-1.1920900000000001E-7</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6484520926690001E-14</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V48">
         <v>474</v>
       </c>
-      <c r="R48">
+      <c r="W48">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S48">
+      <c r="X48">
         <v>3.12236</v>
       </c>
-      <c r="T48">
+      <c r="Y48">
         <v>370</v>
       </c>
-      <c r="AS48">
+      <c r="AX48">
         <v>474</v>
       </c>
-      <c r="AT48" s="3">
+      <c r="AY48" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU48">
+      <c r="AZ48">
         <v>3.12236</v>
       </c>
-      <c r="AV48">
+      <c r="BA48">
         <v>370</v>
       </c>
-      <c r="AW48">
+      <c r="BB48">
+        <f t="shared" si="9"/>
+        <v>3.141575</v>
+      </c>
+      <c r="BC48" s="3">
         <f t="shared" si="7"/>
-        <v>3.141575</v>
-      </c>
-      <c r="AX48" s="3">
-        <f t="shared" si="5"/>
         <v>1.9232653589793092E-2</v>
       </c>
-      <c r="AY48" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD48" s="3">
+        <f t="shared" si="8"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>484</v>
       </c>
@@ -14587,46 +17319,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q49">
+      <c r="P49" s="4">
+        <v>-1.78814E-7</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>-3.5762800000000003E-8</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3253424459839996E-14</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V49">
         <v>484</v>
       </c>
-      <c r="R49">
+      <c r="W49">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S49">
+      <c r="X49">
         <v>3.1239699999999999</v>
       </c>
-      <c r="T49">
+      <c r="Y49">
         <v>378</v>
       </c>
-      <c r="AS49">
+      <c r="AX49">
         <v>484</v>
       </c>
-      <c r="AT49" s="3">
+      <c r="AY49" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU49">
+      <c r="AZ49">
         <v>3.1239699999999999</v>
       </c>
-      <c r="AV49">
+      <c r="BA49">
         <v>378</v>
       </c>
-      <c r="AW49">
+      <c r="BB49">
+        <f t="shared" si="9"/>
+        <v>3.14154</v>
+      </c>
+      <c r="BC49" s="3">
         <f t="shared" si="7"/>
-        <v>3.14154</v>
-      </c>
-      <c r="AX49" s="3">
-        <f t="shared" si="5"/>
         <v>1.7622653589793202E-2</v>
       </c>
-      <c r="AY49" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD49" s="3">
+        <f t="shared" si="8"/>
         <v>5.2653589793116851E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>494</v>
       </c>
@@ -14676,46 +17422,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q50">
+      <c r="P50" s="4">
+        <v>-2.3841900000000001E-8</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V50">
         <v>494</v>
       </c>
-      <c r="R50">
+      <c r="W50">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S50">
+      <c r="X50">
         <v>3.1335999999999999</v>
       </c>
-      <c r="T50">
+      <c r="Y50">
         <v>387</v>
       </c>
-      <c r="AS50">
+      <c r="AX50">
         <v>494</v>
       </c>
-      <c r="AT50" s="3">
+      <c r="AY50" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU50">
+      <c r="AZ50">
         <v>3.1335999999999999</v>
       </c>
-      <c r="AV50">
+      <c r="BA50">
         <v>387</v>
       </c>
-      <c r="AW50">
+      <c r="BB50">
+        <f t="shared" si="9"/>
+        <v>3.1415700000000002</v>
+      </c>
+      <c r="BC50" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415700000000002</v>
-      </c>
-      <c r="AX50" s="3">
-        <f t="shared" si="5"/>
         <v>7.992653589793175E-3</v>
       </c>
-      <c r="AY50" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD50" s="3">
+        <f t="shared" si="8"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>504</v>
       </c>
@@ -14765,46 +17525,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q51">
+      <c r="P51" s="4">
+        <v>7.1525600000000006E-8</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>-3.5762800000000003E-8</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3948893192000014E-15</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V51">
         <v>504</v>
       </c>
-      <c r="R51">
+      <c r="W51">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S51">
+      <c r="X51">
         <v>3.1349200000000002</v>
       </c>
-      <c r="T51">
+      <c r="Y51">
         <v>395</v>
       </c>
-      <c r="AS51">
+      <c r="AX51">
         <v>504</v>
       </c>
-      <c r="AT51" s="3">
+      <c r="AY51" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU51">
+      <c r="AZ51">
         <v>3.1349200000000002</v>
       </c>
-      <c r="AV51">
+      <c r="BA51">
         <v>395</v>
       </c>
-      <c r="AW51">
+      <c r="BB51">
+        <f t="shared" si="9"/>
+        <v>3.1415500000000001</v>
+      </c>
+      <c r="BC51" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415500000000001</v>
-      </c>
-      <c r="AX51" s="3">
-        <f t="shared" si="5"/>
         <v>6.6726535897929651E-3</v>
       </c>
-      <c r="AY51" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD51" s="3">
+        <f t="shared" si="8"/>
         <v>4.2653589793051339E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>524</v>
       </c>
@@ -14854,46 +17628,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q52">
+      <c r="P52" s="4">
+        <v>-1.78814E-7</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="5"/>
+        <v>5.4356559213199994E-13</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V52">
         <v>524</v>
       </c>
-      <c r="R52">
+      <c r="W52">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S52">
+      <c r="X52">
         <v>3.1526700000000001</v>
       </c>
-      <c r="T52">
+      <c r="Y52">
         <v>413</v>
       </c>
-      <c r="AS52">
+      <c r="AX52">
         <v>524</v>
       </c>
-      <c r="AT52" s="3">
+      <c r="AY52" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU52">
+      <c r="AZ52">
         <v>3.1526700000000001</v>
       </c>
-      <c r="AV52">
+      <c r="BA52">
         <v>413</v>
       </c>
-      <c r="AW52">
+      <c r="BB52">
+        <f t="shared" si="9"/>
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="BC52" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="AX52" s="3">
-        <f t="shared" si="5"/>
         <v>-1.1077346410206967E-2</v>
       </c>
-      <c r="AY52" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD52" s="3">
+        <f t="shared" si="8"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>544</v>
       </c>
@@ -14943,46 +17731,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q53">
+      <c r="P53" s="4">
+        <v>-1.07288E-7</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1.1920899999999999E-8</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="5"/>
+        <v>1.165282280081E-14</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V53">
         <v>544</v>
       </c>
-      <c r="R53">
+      <c r="W53">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S53">
+      <c r="X53">
         <v>3.1617600000000001</v>
       </c>
-      <c r="T53">
+      <c r="Y53">
         <v>430</v>
       </c>
-      <c r="AS53">
+      <c r="AX53">
         <v>544</v>
       </c>
-      <c r="AT53" s="3">
+      <c r="AY53" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU53">
+      <c r="AZ53">
         <v>3.1617600000000001</v>
       </c>
-      <c r="AV53">
+      <c r="BA53">
         <v>430</v>
       </c>
-      <c r="AW53">
+      <c r="BB53">
+        <f t="shared" si="9"/>
+        <v>3.1415850000000001</v>
+      </c>
+      <c r="BC53" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415850000000001</v>
-      </c>
-      <c r="AX53" s="3">
-        <f t="shared" si="5"/>
         <v>-2.016734641020701E-2</v>
       </c>
-      <c r="AY53" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD53" s="3">
+        <f t="shared" si="8"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>554</v>
       </c>
@@ -15032,46 +17834,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q54">
+      <c r="P54" s="4">
+        <v>3.57628E-7</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>7.1525600000000006E-8</v>
+      </c>
+      <c r="R54" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3301369783935998E-13</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V54">
         <v>554</v>
       </c>
-      <c r="R54">
+      <c r="W54">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S54">
+      <c r="X54">
         <v>3.14079</v>
       </c>
-      <c r="T54">
+      <c r="Y54">
         <v>435</v>
       </c>
-      <c r="AS54">
+      <c r="AX54">
         <v>554</v>
       </c>
-      <c r="AT54" s="3">
+      <c r="AY54" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU54">
+      <c r="AZ54">
         <v>3.14079</v>
       </c>
-      <c r="AV54">
+      <c r="BA54">
         <v>435</v>
       </c>
-      <c r="AW54">
+      <c r="BB54">
+        <f t="shared" si="9"/>
+        <v>3.1415850000000001</v>
+      </c>
+      <c r="BC54" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415850000000001</v>
-      </c>
-      <c r="AX54" s="3">
-        <f t="shared" si="5"/>
         <v>8.0265358979314527E-4</v>
       </c>
-      <c r="AY54" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD54" s="3">
+        <f t="shared" si="8"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>564</v>
       </c>
@@ -15121,46 +17937,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q55">
+      <c r="P55" s="4">
+        <v>4.7683700000000002E-8</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>1.1920899999999999E-8</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4158431025000001E-15</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V55">
         <v>564</v>
       </c>
-      <c r="R55">
+      <c r="W55">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S55">
+      <c r="X55">
         <v>3.1347499999999999</v>
       </c>
-      <c r="T55">
+      <c r="Y55">
         <v>442</v>
       </c>
-      <c r="AS55">
+      <c r="AX55">
         <v>564</v>
       </c>
-      <c r="AT55" s="3">
+      <c r="AY55" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU55">
+      <c r="AZ55">
         <v>3.1347499999999999</v>
       </c>
-      <c r="AV55">
+      <c r="BA55">
         <v>442</v>
       </c>
-      <c r="AW55">
+      <c r="BB55">
+        <f t="shared" si="9"/>
+        <v>3.1415799999999998</v>
+      </c>
+      <c r="BC55" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415799999999998</v>
-      </c>
-      <c r="AX55" s="3">
-        <f t="shared" si="5"/>
         <v>6.8426535897931906E-3</v>
       </c>
-      <c r="AY55" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD55" s="3">
+        <f t="shared" si="8"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>574</v>
       </c>
@@ -15210,46 +18040,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q56">
+      <c r="P56" s="4">
+        <v>1.9073499999999999E-7</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000364</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V56">
         <v>574</v>
       </c>
-      <c r="R56">
+      <c r="W56">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S56">
+      <c r="X56">
         <v>3.1358899999999998</v>
       </c>
-      <c r="T56">
+      <c r="Y56">
         <v>450</v>
       </c>
-      <c r="AS56">
+      <c r="AX56">
         <v>574</v>
       </c>
-      <c r="AT56" s="3">
+      <c r="AY56" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU56">
+      <c r="AZ56">
         <v>3.1358899999999998</v>
       </c>
-      <c r="AV56">
+      <c r="BA56">
         <v>450</v>
       </c>
-      <c r="AW56">
+      <c r="BB56">
+        <f t="shared" si="9"/>
+        <v>3.1415799999999998</v>
+      </c>
+      <c r="BC56" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415799999999998</v>
-      </c>
-      <c r="AX56" s="3">
-        <f t="shared" si="5"/>
         <v>5.7026535897932717E-3</v>
       </c>
-      <c r="AY56" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD56" s="3">
+        <f t="shared" si="8"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>584</v>
       </c>
@@ -15299,46 +18143,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q57">
+      <c r="P57" s="4">
+        <v>-5.9604600000000002E-8</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>-8.3446500000000005E-8</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0516026703410001E-14</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V57">
         <v>584</v>
       </c>
-      <c r="R57">
+      <c r="W57">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S57">
+      <c r="X57">
         <v>3.1301399999999999</v>
       </c>
-      <c r="T57">
+      <c r="Y57">
         <v>457</v>
       </c>
-      <c r="AS57">
+      <c r="AX57">
         <v>584</v>
       </c>
-      <c r="AT57" s="3">
+      <c r="AY57" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU57">
+      <c r="AZ57">
         <v>3.1301399999999999</v>
       </c>
-      <c r="AV57">
+      <c r="BA57">
         <v>457</v>
       </c>
-      <c r="AW57">
+      <c r="BB57">
+        <f t="shared" si="9"/>
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="BC57" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="AX57" s="3">
-        <f t="shared" si="5"/>
         <v>1.1452653589793194E-2</v>
       </c>
-      <c r="AY57" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD57" s="3">
+        <f t="shared" si="8"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>594</v>
       </c>
@@ -15388,46 +18246,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q58">
+      <c r="P58" s="4">
+        <v>3.57628E-7</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1.1920900000000001E-7</v>
+      </c>
+      <c r="R58" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4210857206499998E-13</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V58">
         <v>594</v>
       </c>
-      <c r="R58">
+      <c r="W58">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S58">
+      <c r="X58">
         <v>3.1447799999999999</v>
       </c>
-      <c r="T58">
+      <c r="Y58">
         <v>467</v>
       </c>
-      <c r="AS58">
+      <c r="AX58">
         <v>594</v>
       </c>
-      <c r="AT58" s="3">
+      <c r="AY58" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU58">
+      <c r="AZ58">
         <v>3.1447799999999999</v>
       </c>
-      <c r="AV58">
+      <c r="BA58">
         <v>467</v>
       </c>
-      <c r="AW58">
+      <c r="BB58">
+        <f t="shared" si="9"/>
+        <v>3.1415700000000002</v>
+      </c>
+      <c r="BC58" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415700000000002</v>
-      </c>
-      <c r="AX58" s="3">
-        <f t="shared" si="5"/>
         <v>-3.1873464102067928E-3</v>
       </c>
-      <c r="AY58" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD58" s="3">
+        <f t="shared" si="8"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>604</v>
       </c>
@@ -15477,46 +18349,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q59">
+      <c r="P59" s="4">
+        <v>7.1525600000000006E-8</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>3.5762800000000003E-8</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3948893192000014E-15</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V59">
         <v>604</v>
       </c>
-      <c r="R59">
+      <c r="W59">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S59">
+      <c r="X59">
         <v>3.1390699999999998</v>
       </c>
-      <c r="T59">
+      <c r="Y59">
         <v>474</v>
       </c>
-      <c r="AS59">
+      <c r="AX59">
         <v>604</v>
       </c>
-      <c r="AT59" s="3">
+      <c r="AY59" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU59">
+      <c r="AZ59">
         <v>3.1390699999999998</v>
       </c>
-      <c r="AV59">
+      <c r="BA59">
         <v>474</v>
       </c>
-      <c r="AW59">
+      <c r="BB59">
+        <f t="shared" si="9"/>
+        <v>3.141575</v>
+      </c>
+      <c r="BC59" s="3">
         <f t="shared" si="7"/>
-        <v>3.141575</v>
-      </c>
-      <c r="AX59" s="3">
-        <f t="shared" si="5"/>
         <v>2.5226535897933111E-3</v>
       </c>
-      <c r="AY59" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD59" s="3">
+        <f t="shared" si="8"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>624</v>
       </c>
@@ -15566,46 +18452,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q60">
+      <c r="P60" s="4">
+        <v>4.5299500000000001E-7</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>8.34465E-7</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="5"/>
+        <v>9.0153630625E-13</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V60">
         <v>624</v>
       </c>
-      <c r="R60">
+      <c r="W60">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S60">
+      <c r="X60">
         <v>3.14744</v>
       </c>
-      <c r="T60">
+      <c r="Y60">
         <v>491</v>
       </c>
-      <c r="AS60">
+      <c r="AX60">
         <v>624</v>
       </c>
-      <c r="AT60" s="3">
+      <c r="AY60" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU60">
+      <c r="AZ60">
         <v>3.14744</v>
       </c>
-      <c r="AV60">
+      <c r="BA60">
         <v>491</v>
       </c>
-      <c r="AW60">
+      <c r="BB60">
+        <f t="shared" si="9"/>
+        <v>3.1415449999999998</v>
+      </c>
+      <c r="BC60" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415449999999998</v>
-      </c>
-      <c r="AX60" s="3">
-        <f t="shared" si="5"/>
         <v>-5.8473464102068995E-3</v>
       </c>
-      <c r="AY60" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD60" s="3">
+        <f t="shared" si="8"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>634</v>
       </c>
@@ -15655,46 +18555,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q61">
+      <c r="P61" s="4">
+        <v>7.1525600000000006E-8</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>1</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000051</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V61">
         <v>634</v>
       </c>
-      <c r="R61">
+      <c r="W61">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S61">
+      <c r="X61">
         <v>3.1545700000000001</v>
       </c>
-      <c r="T61">
+      <c r="Y61">
         <v>500</v>
       </c>
-      <c r="AS61">
+      <c r="AX61">
         <v>634</v>
       </c>
-      <c r="AT61" s="3">
+      <c r="AY61" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU61">
+      <c r="AZ61">
         <v>3.1545700000000001</v>
       </c>
-      <c r="AV61">
+      <c r="BA61">
         <v>500</v>
       </c>
-      <c r="AW61">
+      <c r="BB61">
+        <f t="shared" si="9"/>
+        <v>3.1415500000000001</v>
+      </c>
+      <c r="BC61" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415500000000001</v>
-      </c>
-      <c r="AX61" s="3">
-        <f t="shared" si="5"/>
         <v>-1.297734641020698E-2</v>
       </c>
-      <c r="AY61" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD61" s="3">
+        <f t="shared" si="8"/>
         <v>4.2653589793051339E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>654</v>
       </c>
@@ -15705,7 +18619,7 @@
         <v>6.2831799999999998</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D88" si="8">B62-C62</f>
+        <f t="shared" ref="D62:D88" si="10">B62-C62</f>
         <v>1.0000000000509601E-5</v>
       </c>
       <c r="E62">
@@ -15744,46 +18658,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q62">
+      <c r="P62" s="4">
+        <v>-3.4570700000000001E-7</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>1</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0000000000001195</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V62">
         <v>654</v>
       </c>
-      <c r="R62">
+      <c r="W62">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S62">
+      <c r="X62">
         <v>3.1559599999999999</v>
       </c>
-      <c r="T62">
+      <c r="Y62">
         <v>516</v>
       </c>
-      <c r="AS62">
+      <c r="AX62">
         <v>654</v>
       </c>
-      <c r="AT62" s="3">
+      <c r="AY62" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU62">
+      <c r="AZ62">
         <v>3.1559599999999999</v>
       </c>
-      <c r="AV62">
+      <c r="BA62">
         <v>516</v>
       </c>
-      <c r="AW62">
+      <c r="BB62">
+        <f t="shared" si="9"/>
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="BC62" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415899999999999</v>
-      </c>
-      <c r="AX62" s="3">
-        <f t="shared" si="5"/>
         <v>-1.4367346410206761E-2</v>
       </c>
-      <c r="AY62" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD62" s="3">
+        <f t="shared" si="8"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>674</v>
       </c>
@@ -15794,7 +18722,7 @@
         <v>6.2831400000000004</v>
       </c>
       <c r="D63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999883471E-5</v>
       </c>
       <c r="E63">
@@ -15833,46 +18761,60 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q63">
+      <c r="P63" s="4">
+        <v>1.43051E-7</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>7.1525600000000006E-8</v>
+      </c>
+      <c r="R63" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5579500056360002E-14</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V63">
         <v>674</v>
       </c>
-      <c r="R63">
+      <c r="W63">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S63">
+      <c r="X63">
         <v>3.1513399999999998</v>
       </c>
-      <c r="T63">
+      <c r="Y63">
         <v>531</v>
       </c>
-      <c r="AS63">
+      <c r="AX63">
         <v>674</v>
       </c>
-      <c r="AT63" s="3">
+      <c r="AY63" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU63">
+      <c r="AZ63">
         <v>3.1513399999999998</v>
       </c>
-      <c r="AV63">
+      <c r="BA63">
         <v>531</v>
       </c>
-      <c r="AW63">
+      <c r="BB63">
+        <f t="shared" si="9"/>
+        <v>3.1415700000000002</v>
+      </c>
+      <c r="BC63" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415700000000002</v>
-      </c>
-      <c r="AX63" s="3">
-        <f t="shared" si="5"/>
         <v>-9.747346410206692E-3</v>
       </c>
-      <c r="AY63" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD63" s="3">
+        <f t="shared" si="8"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>684</v>
       </c>
@@ -15883,7 +18825,7 @@
         <v>6.2831099999999998</v>
       </c>
       <c r="D64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000524096E-5</v>
       </c>
       <c r="E64">
@@ -15922,46 +18864,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q64">
+      <c r="P64" s="4">
+        <v>-2.2649799999999999E-7</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>1.1920899999999999E-8</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1443451860809996E-14</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V64">
         <v>684</v>
       </c>
-      <c r="R64">
+      <c r="W64">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S64">
+      <c r="X64">
         <v>3.1461999999999999</v>
       </c>
-      <c r="T64">
+      <c r="Y64">
         <v>538</v>
       </c>
-      <c r="AS64">
+      <c r="AX64">
         <v>684</v>
       </c>
-      <c r="AT64" s="3">
+      <c r="AY64" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU64">
+      <c r="AZ64">
         <v>3.1461999999999999</v>
       </c>
-      <c r="AV64">
+      <c r="BA64">
         <v>538</v>
       </c>
-      <c r="AW64">
+      <c r="BB64">
+        <f t="shared" si="9"/>
+        <v>3.1415549999999999</v>
+      </c>
+      <c r="BC64" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415549999999999</v>
-      </c>
-      <c r="AX64" s="3">
-        <f t="shared" si="5"/>
         <v>-4.6073464102067696E-3</v>
       </c>
-      <c r="AY64" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD64" s="3">
+        <f t="shared" si="8"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>694</v>
       </c>
@@ -15972,7 +18928,7 @@
         <v>6.2830500000000002</v>
       </c>
       <c r="D65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4000000000002899E-4</v>
       </c>
       <c r="E65">
@@ -16011,46 +18967,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q65">
+      <c r="P65" s="4">
+        <v>5.0067899999999998E-7</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>2.3841900000000001E-8</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5124789723661001E-13</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V65">
         <v>694</v>
       </c>
-      <c r="R65">
+      <c r="W65">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S65">
+      <c r="X65">
         <v>3.1585000000000001</v>
       </c>
-      <c r="T65">
+      <c r="Y65">
         <v>548</v>
       </c>
-      <c r="AS65">
+      <c r="AX65">
         <v>694</v>
       </c>
-      <c r="AT65" s="3">
+      <c r="AY65" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU65">
+      <c r="AZ65">
         <v>3.1585000000000001</v>
       </c>
-      <c r="AV65">
+      <c r="BA65">
         <v>548</v>
       </c>
-      <c r="AW65">
+      <c r="BB65">
+        <f t="shared" si="9"/>
+        <v>3.1415250000000001</v>
+      </c>
+      <c r="BC65" s="3">
         <f t="shared" si="7"/>
-        <v>3.1415250000000001</v>
-      </c>
-      <c r="AX65" s="3">
-        <f t="shared" si="5"/>
         <v>-1.6907346410206969E-2</v>
       </c>
-      <c r="AY65" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD65" s="3">
+        <f t="shared" si="8"/>
         <v>6.7653589792993074E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>704</v>
       </c>
@@ -16061,7 +19031,7 @@
         <v>6.2831700000000001</v>
       </c>
       <c r="D66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E66">
@@ -16100,46 +19070,60 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q66">
+      <c r="P66" s="4">
+        <v>-2.3841900000000001E-8</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>-7.1525600000000006E-8</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" si="5"/>
+        <v>5.6843476509700013E-15</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V66">
         <v>704</v>
       </c>
-      <c r="R66">
+      <c r="W66">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S66">
+      <c r="X66">
         <v>3.1420499999999998</v>
       </c>
-      <c r="T66">
+      <c r="Y66">
         <v>553</v>
       </c>
-      <c r="AS66">
+      <c r="AX66">
         <v>704</v>
       </c>
-      <c r="AT66" s="3">
+      <c r="AY66" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU66">
+      <c r="AZ66">
         <v>3.1420499999999998</v>
       </c>
-      <c r="AV66">
+      <c r="BA66">
         <v>553</v>
       </c>
-      <c r="AW66">
-        <f t="shared" ref="AW66:AW88" si="9">$C66/2</f>
+      <c r="BB66">
+        <f t="shared" ref="BB66:BB88" si="11">$C66/2</f>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX66" s="3">
-        <f t="shared" si="5"/>
+      <c r="BC66" s="3">
+        <f t="shared" si="7"/>
         <v>-4.5734641020667155E-4</v>
       </c>
-      <c r="AY66" s="3">
-        <f t="shared" si="6"/>
+      <c r="BD66" s="3">
+        <f t="shared" si="8"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>714</v>
       </c>
@@ -16150,7 +19134,7 @@
         <v>6.2831299999999999</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0000000000393072E-5</v>
       </c>
       <c r="E67">
@@ -16178,57 +19162,71 @@
         <v>-1.1920899999999999E-6</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:M87" si="10">I67^2+J67^2</f>
+        <f t="shared" ref="M67:M87" si="12">I67^2+J67^2</f>
         <v>3.4313381845000006E-10</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" ref="N67:N88" si="11">L67^2+K67^2</f>
+        <f t="shared" ref="N67:N88" si="13">L67^2+K67^2</f>
         <v>3.0850464500809999E-10</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O88" si="12">IF(N67&lt;M67,1,0)</f>
+        <f t="shared" ref="O67:O88" si="14">IF(N67&lt;M67,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q67">
+      <c r="P67" s="4">
+        <v>-2.0265600000000001E-7</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>-9.5367400000000005E-8</v>
+      </c>
+      <c r="R67" s="4">
+        <f t="shared" ref="R67:R88" si="15">P67^2+Q67^2</f>
+        <v>5.0164395318760007E-14</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:S87" si="16">IF(R67&lt;M67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V67">
         <v>714</v>
       </c>
-      <c r="R67">
+      <c r="W67">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S67">
+      <c r="X67">
         <v>3.1540599999999999</v>
       </c>
-      <c r="T67">
+      <c r="Y67">
         <v>563</v>
       </c>
-      <c r="AS67">
+      <c r="AX67">
         <v>714</v>
       </c>
-      <c r="AT67" s="3">
+      <c r="AY67" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU67">
+      <c r="AZ67">
         <v>3.1540599999999999</v>
       </c>
-      <c r="AV67">
+      <c r="BA67">
         <v>563</v>
       </c>
-      <c r="AW67">
-        <f t="shared" si="9"/>
+      <c r="BB67">
+        <f t="shared" si="11"/>
         <v>3.1415649999999999</v>
       </c>
-      <c r="AX67" s="3">
-        <f t="shared" ref="AX67:AX88" si="13">AT67-AU67</f>
+      <c r="BC67" s="3">
+        <f t="shared" ref="BC67:BC88" si="17">AY67-AZ67</f>
         <v>-1.2467346410206748E-2</v>
       </c>
-      <c r="AY67" s="3">
-        <f t="shared" ref="AY67:AY88" si="14">AT67-AW67</f>
+      <c r="BD67" s="3">
+        <f t="shared" ref="BD67:BD88" si="18">AY67-BB67</f>
         <v>2.7653589793175115E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>724</v>
       </c>
@@ -16239,7 +19237,7 @@
         <v>6.2831799999999998</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000509601E-5</v>
       </c>
       <c r="E68">
@@ -16267,57 +19265,71 @@
         <v>-5.9604599999999999E-7</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.1304680661716015E-11</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.4611514808515994E-11</v>
       </c>
       <c r="O68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q68">
+      <c r="P68" s="4">
+        <v>2.3841900000000001E-7</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>1.1920900000000001E-7</v>
+      </c>
+      <c r="R68" s="4">
+        <f t="shared" si="15"/>
+        <v>7.1054405242000015E-14</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V68">
         <v>724</v>
       </c>
-      <c r="R68">
+      <c r="W68">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S68">
+      <c r="X68">
         <v>3.1547000000000001</v>
       </c>
-      <c r="T68">
+      <c r="Y68">
         <v>571</v>
       </c>
-      <c r="AS68">
+      <c r="AX68">
         <v>724</v>
       </c>
-      <c r="AT68" s="3">
+      <c r="AY68" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU68">
+      <c r="AZ68">
         <v>3.1547000000000001</v>
       </c>
-      <c r="AV68">
+      <c r="BA68">
         <v>571</v>
       </c>
-      <c r="AW68">
-        <f t="shared" si="9"/>
+      <c r="BB68">
+        <f t="shared" si="11"/>
         <v>3.1415899999999999</v>
       </c>
-      <c r="AX68" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC68" s="3">
+        <f t="shared" si="17"/>
         <v>-1.3107346410206944E-2</v>
       </c>
-      <c r="AY68" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD68" s="3">
+        <f t="shared" si="18"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>734</v>
       </c>
@@ -16328,7 +19340,7 @@
         <v>6.2831700000000001</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E69">
@@ -16356,57 +19368,71 @@
         <v>9.5367399999999999E-7</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9809942241456902E-10</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0214925290827601E-10</v>
       </c>
       <c r="O69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q69">
+      <c r="P69" s="4">
+        <v>6.6757200000000004E-7</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>4.7683700000000002E-8</v>
+      </c>
+      <c r="R69" s="4">
+        <f t="shared" si="15"/>
+        <v>4.4792611042969008E-13</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V69">
         <v>734</v>
       </c>
-      <c r="R69">
+      <c r="W69">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S69">
+      <c r="X69">
         <v>3.1498599999999999</v>
       </c>
-      <c r="T69">
+      <c r="Y69">
         <v>578</v>
       </c>
-      <c r="AS69">
+      <c r="AX69">
         <v>734</v>
       </c>
-      <c r="AT69" s="3">
+      <c r="AY69" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU69">
+      <c r="AZ69">
         <v>3.1498599999999999</v>
       </c>
-      <c r="AV69">
+      <c r="BA69">
         <v>578</v>
       </c>
-      <c r="AW69">
-        <f t="shared" si="9"/>
+      <c r="BB69">
+        <f t="shared" si="11"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX69" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC69" s="3">
+        <f t="shared" si="17"/>
         <v>-8.2673464102067662E-3</v>
       </c>
-      <c r="AY69" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD69" s="3">
+        <f t="shared" si="18"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>754</v>
       </c>
@@ -16417,7 +19443,7 @@
         <v>6.2830599999999999</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3000000000040757E-4</v>
       </c>
       <c r="E70">
@@ -16445,57 +19471,71 @@
         <v>-4.76837E-7</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.7419115682956101E-10</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.7094812873456902E-10</v>
       </c>
       <c r="O70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q70">
+      <c r="P70" s="4">
+        <v>-6.3180899999999996E-7</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>3.5762800000000003E-8</v>
+      </c>
+      <c r="R70" s="4">
+        <f t="shared" si="15"/>
+        <v>4.0046159034483998E-13</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V70">
         <v>754</v>
       </c>
-      <c r="R70">
+      <c r="W70">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S70">
+      <c r="X70">
         <v>3.1458900000000001</v>
       </c>
-      <c r="T70">
+      <c r="Y70">
         <v>593</v>
       </c>
-      <c r="AS70">
+      <c r="AX70">
         <v>754</v>
       </c>
-      <c r="AT70" s="3">
+      <c r="AY70" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU70">
+      <c r="AZ70">
         <v>3.1458900000000001</v>
       </c>
-      <c r="AV70">
+      <c r="BA70">
         <v>593</v>
       </c>
-      <c r="AW70">
-        <f t="shared" si="9"/>
+      <c r="BB70">
+        <f t="shared" si="11"/>
         <v>3.1415299999999999</v>
       </c>
-      <c r="AX70" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC70" s="3">
+        <f t="shared" si="17"/>
         <v>-4.2973464102069592E-3</v>
       </c>
-      <c r="AY70" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD70" s="3">
+        <f t="shared" si="18"/>
         <v>6.2653589793182363E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>764</v>
       </c>
@@ -16506,7 +19546,7 @@
         <v>6.2831700000000001</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E71">
@@ -16534,57 +19574,71 @@
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3702350723999997E-10</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.8221423009000008E-10</v>
       </c>
       <c r="O71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q71">
+      <c r="P71" s="4">
+        <v>-8.7022799999999998E-7</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>-8.3446500000000005E-8</v>
+      </c>
+      <c r="R71" s="4">
+        <f t="shared" si="15"/>
+        <v>7.6426009034625E-13</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V71">
         <v>764</v>
       </c>
-      <c r="R71">
+      <c r="W71">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S71">
+      <c r="X71">
         <v>3.1361300000000001</v>
       </c>
-      <c r="T71">
+      <c r="Y71">
         <v>599</v>
       </c>
-      <c r="AS71">
+      <c r="AX71">
         <v>764</v>
       </c>
-      <c r="AT71" s="3">
+      <c r="AY71" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU71">
+      <c r="AZ71">
         <v>3.1361300000000001</v>
       </c>
-      <c r="AV71">
+      <c r="BA71">
         <v>599</v>
       </c>
-      <c r="AW71">
-        <f t="shared" si="9"/>
+      <c r="BB71">
+        <f t="shared" si="11"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX71" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC71" s="3">
+        <f t="shared" si="17"/>
         <v>5.4626535897930317E-3</v>
       </c>
-      <c r="AY71" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD71" s="3">
+        <f t="shared" si="18"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>774</v>
       </c>
@@ -16595,7 +19649,7 @@
         <v>6.2831099999999998</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000524096E-5</v>
       </c>
       <c r="E72">
@@ -16623,57 +19677,71 @@
         <v>-1.1920900000000001E-7</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.7672073979281005E-11</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.9647394408180992E-11</v>
       </c>
       <c r="O72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q72">
+      <c r="P72" s="4">
+        <v>9.0599099999999995E-7</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4">
+        <f t="shared" si="15"/>
+        <v>1.0000000000008209</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V72">
         <v>774</v>
       </c>
-      <c r="R72">
+      <c r="W72">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S72">
+      <c r="X72">
         <v>3.1421199999999998</v>
       </c>
-      <c r="T72">
+      <c r="Y72">
         <v>608</v>
       </c>
-      <c r="AS72">
+      <c r="AX72">
         <v>774</v>
       </c>
-      <c r="AT72" s="3">
+      <c r="AY72" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU72">
+      <c r="AZ72">
         <v>3.1421199999999998</v>
       </c>
-      <c r="AV72">
+      <c r="BA72">
         <v>608</v>
       </c>
-      <c r="AW72">
-        <f t="shared" si="9"/>
+      <c r="BB72">
+        <f t="shared" si="11"/>
         <v>3.1415549999999999</v>
       </c>
-      <c r="AX72" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC72" s="3">
+        <f t="shared" si="17"/>
         <v>-5.2734641020668604E-4</v>
       </c>
-      <c r="AY72" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD72" s="3">
+        <f t="shared" si="18"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>784</v>
       </c>
@@ -16684,7 +19752,7 @@
         <v>6.2831400000000004</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999883471E-5</v>
       </c>
       <c r="E73">
@@ -16712,57 +19780,71 @@
         <v>-7.1525600000000001E-7</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.7312447934375999E-11</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.1950422435536002E-11</v>
       </c>
       <c r="O73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q73">
+      <c r="P73" s="4">
+        <v>-7.8678100000000004E-7</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>9.5367400000000005E-8</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" si="15"/>
+        <v>6.2811928294376009E-13</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V73">
         <v>784</v>
       </c>
-      <c r="R73">
+      <c r="W73">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S73">
+      <c r="X73">
         <v>3.1377600000000001</v>
       </c>
-      <c r="T73">
+      <c r="Y73">
         <v>615</v>
       </c>
-      <c r="AS73">
+      <c r="AX73">
         <v>784</v>
       </c>
-      <c r="AT73" s="3">
+      <c r="AY73" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU73">
+      <c r="AZ73">
         <v>3.1377600000000001</v>
       </c>
-      <c r="AV73">
+      <c r="BA73">
         <v>615</v>
       </c>
-      <c r="AW73">
-        <f t="shared" si="9"/>
+      <c r="BB73">
+        <f t="shared" si="11"/>
         <v>3.1415700000000002</v>
       </c>
-      <c r="AX73" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC73" s="3">
+        <f t="shared" si="17"/>
         <v>3.8326535897930114E-3</v>
       </c>
-      <c r="AY73" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD73" s="3">
+        <f t="shared" si="18"/>
         <v>2.2653589792920314E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>804</v>
       </c>
@@ -16773,7 +19855,7 @@
         <v>6.2831700000000001</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E74">
@@ -16801,57 +19883,71 @@
         <v>0</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7825988196000001E-10</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7825988196000001E-10</v>
       </c>
       <c r="O74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q74">
+      <c r="P74" s="4">
+        <v>-8.1062300000000002E-7</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4">
+        <f t="shared" si="15"/>
+        <v>1.000000000000657</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V74">
         <v>804</v>
       </c>
-      <c r="R74">
+      <c r="W74">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S74">
+      <c r="X74">
         <v>3.1393</v>
       </c>
-      <c r="T74">
+      <c r="Y74">
         <v>631</v>
       </c>
-      <c r="AS74">
+      <c r="AX74">
         <v>804</v>
       </c>
-      <c r="AT74" s="3">
+      <c r="AY74" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU74">
+      <c r="AZ74">
         <v>3.1393</v>
       </c>
-      <c r="AV74">
+      <c r="BA74">
         <v>631</v>
       </c>
-      <c r="AW74">
-        <f t="shared" si="9"/>
+      <c r="BB74">
+        <f t="shared" si="11"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX74" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC74" s="3">
+        <f t="shared" si="17"/>
         <v>2.2926535897931366E-3</v>
       </c>
-      <c r="AY74" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD74" s="3">
+        <f t="shared" si="18"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>814</v>
       </c>
@@ -16862,7 +19958,7 @@
         <v>6.2831900000000003</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E75">
@@ -16890,57 +19986,71 @@
         <v>1.7881399999999999E-6</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0678058127360002E-10</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2610792690959998E-10</v>
       </c>
       <c r="O75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q75">
+      <c r="P75" s="4">
+        <v>-3.0994399999999999E-7</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>-7.1525600000000006E-8</v>
+      </c>
+      <c r="R75" s="4">
+        <f t="shared" si="15"/>
+        <v>1.0118119459136E-13</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V75">
         <v>814</v>
       </c>
-      <c r="R75">
+      <c r="W75">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S75">
+      <c r="X75">
         <v>3.1449600000000002</v>
       </c>
-      <c r="T75">
+      <c r="Y75">
         <v>640</v>
       </c>
-      <c r="AS75">
+      <c r="AX75">
         <v>814</v>
       </c>
-      <c r="AT75" s="3">
+      <c r="AY75" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU75">
+      <c r="AZ75">
         <v>3.1449600000000002</v>
       </c>
-      <c r="AV75">
+      <c r="BA75">
         <v>640</v>
       </c>
-      <c r="AW75">
-        <f t="shared" si="9"/>
+      <c r="BB75">
+        <f t="shared" si="11"/>
         <v>3.1415950000000001</v>
       </c>
-      <c r="AX75" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC75" s="3">
+        <f t="shared" si="17"/>
         <v>-3.3673464102070838E-3</v>
       </c>
-      <c r="AY75" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD75" s="3">
+        <f t="shared" si="18"/>
         <v>-2.346410207021421E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>824</v>
       </c>
@@ -16951,7 +20061,7 @@
         <v>6.2831099999999998</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000524096E-5</v>
       </c>
       <c r="E76">
@@ -16979,57 +20089,71 @@
         <v>2.3841900000000001E-7</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.28608630844116E-10</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3653764986956101E-10</v>
       </c>
       <c r="O76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q76">
+      <c r="P76" s="4">
+        <v>6.9141400000000003E-7</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>-9.5367400000000005E-8</v>
+      </c>
+      <c r="R76" s="4">
+        <f t="shared" si="15"/>
+        <v>4.8714826037876005E-13</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V76">
         <v>824</v>
       </c>
-      <c r="R76">
+      <c r="W76">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S76">
+      <c r="X76">
         <v>3.1456300000000001</v>
       </c>
-      <c r="T76">
+      <c r="Y76">
         <v>648</v>
       </c>
-      <c r="AS76">
+      <c r="AX76">
         <v>824</v>
       </c>
-      <c r="AT76" s="3">
+      <c r="AY76" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU76">
+      <c r="AZ76">
         <v>3.1456300000000001</v>
       </c>
-      <c r="AV76">
+      <c r="BA76">
         <v>648</v>
       </c>
-      <c r="AW76">
-        <f t="shared" si="9"/>
+      <c r="BB76">
+        <f t="shared" si="11"/>
         <v>3.1415549999999999</v>
       </c>
-      <c r="AX76" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC76" s="3">
+        <f t="shared" si="17"/>
         <v>-4.0373464102070322E-3</v>
       </c>
-      <c r="AY76" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD76" s="3">
+        <f t="shared" si="18"/>
         <v>3.7653589793240627E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>844</v>
       </c>
@@ -17040,7 +20164,7 @@
         <v>6.28315</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E77">
@@ -17068,57 +20192,71 @@
         <v>-1.1920899999999999E-6</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.1054405242000008E-12</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.5280240016999999E-12</v>
       </c>
       <c r="O77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q77">
+      <c r="P77" s="4">
+        <v>4.76837E-7</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>9.5367400000000005E-8</v>
+      </c>
+      <c r="R77" s="4">
+        <f t="shared" si="15"/>
+        <v>2.3646846555176001E-13</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V77">
         <v>844</v>
       </c>
-      <c r="R77">
+      <c r="W77">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S77">
+      <c r="X77">
         <v>3.1374399999999998</v>
       </c>
-      <c r="T77">
+      <c r="Y77">
         <v>662</v>
       </c>
-      <c r="AS77">
+      <c r="AX77">
         <v>844</v>
       </c>
-      <c r="AT77" s="3">
+      <c r="AY77" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU77">
+      <c r="AZ77">
         <v>3.1374399999999998</v>
       </c>
-      <c r="AV77">
+      <c r="BA77">
         <v>662</v>
       </c>
-      <c r="AW77">
-        <f t="shared" si="9"/>
+      <c r="BB77">
+        <f t="shared" si="11"/>
         <v>3.141575</v>
       </c>
-      <c r="AX77" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC77" s="3">
+        <f t="shared" si="17"/>
         <v>4.1526535897933314E-3</v>
       </c>
-      <c r="AY77" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD77" s="3">
+        <f t="shared" si="18"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>864</v>
       </c>
@@ -17129,7 +20267,7 @@
         <v>6.28315</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E78">
@@ -17157,57 +20295,71 @@
         <v>7.1525600000000001E-7</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.5095502432622492E-10</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.4070555978553605E-10</v>
       </c>
       <c r="O78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q78">
+      <c r="P78" s="4">
+        <v>5.2452099999999996E-7</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>1</v>
+      </c>
+      <c r="R78" s="4">
+        <f t="shared" si="15"/>
+        <v>1.0000000000002751</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V78">
         <v>864</v>
       </c>
-      <c r="R78">
+      <c r="W78">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S78">
+      <c r="X78">
         <v>3.1296300000000001</v>
       </c>
-      <c r="T78">
+      <c r="Y78">
         <v>676</v>
       </c>
-      <c r="AS78">
+      <c r="AX78">
         <v>864</v>
       </c>
-      <c r="AT78" s="3">
+      <c r="AY78" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU78">
+      <c r="AZ78">
         <v>3.1296300000000001</v>
       </c>
-      <c r="AV78">
+      <c r="BA78">
         <v>676</v>
       </c>
-      <c r="AW78">
-        <f t="shared" si="9"/>
+      <c r="BB78">
+        <f t="shared" si="11"/>
         <v>3.141575</v>
       </c>
-      <c r="AX78" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC78" s="3">
+        <f t="shared" si="17"/>
         <v>1.1962653589792982E-2</v>
       </c>
-      <c r="AY78" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD78" s="3">
+        <f t="shared" si="18"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>874</v>
       </c>
@@ -17218,7 +20370,7 @@
         <v>6.2830700000000004</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1999999999989797E-4</v>
       </c>
       <c r="E79">
@@ -17246,57 +20398,71 @@
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.0668914443249994E-10</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.8561580025000003E-10</v>
       </c>
       <c r="O79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q79">
+      <c r="P79" s="4">
+        <v>-3.57628E-9</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>2.3841899999999998E-9</v>
+      </c>
+      <c r="R79" s="4">
+        <f t="shared" si="15"/>
+        <v>1.8474140594500001E-17</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V79">
         <v>874</v>
       </c>
-      <c r="R79">
+      <c r="W79">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S79">
+      <c r="X79">
         <v>3.1258599999999999</v>
       </c>
-      <c r="T79">
+      <c r="Y79">
         <v>683</v>
       </c>
-      <c r="AS79">
+      <c r="AX79">
         <v>874</v>
       </c>
-      <c r="AT79" s="3">
+      <c r="AY79" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU79">
+      <c r="AZ79">
         <v>3.1258599999999999</v>
       </c>
-      <c r="AV79">
+      <c r="BA79">
         <v>683</v>
       </c>
-      <c r="AW79">
-        <f t="shared" si="9"/>
+      <c r="BB79">
+        <f t="shared" si="11"/>
         <v>3.1415350000000002</v>
       </c>
-      <c r="AX79" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC79" s="3">
+        <f t="shared" si="17"/>
         <v>1.5732653589793255E-2</v>
       </c>
-      <c r="AY79" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD79" s="3">
+        <f t="shared" si="18"/>
         <v>5.7653589792927562E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>884</v>
       </c>
@@ -17307,7 +20473,7 @@
         <v>6.2831700000000001</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="E80">
@@ -17335,57 +20501,71 @@
         <v>4.76837E-7</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.42235754596384E-10</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5393281836456901E-10</v>
       </c>
       <c r="O80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q80">
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V80">
         <v>884</v>
       </c>
-      <c r="R80">
+      <c r="W80">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S80">
+      <c r="X80">
         <v>3.1357499999999998</v>
       </c>
-      <c r="T80">
+      <c r="Y80">
         <v>693</v>
       </c>
-      <c r="AS80">
+      <c r="AX80">
         <v>884</v>
       </c>
-      <c r="AT80" s="3">
+      <c r="AY80" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU80">
+      <c r="AZ80">
         <v>3.1357499999999998</v>
       </c>
-      <c r="AV80">
+      <c r="BA80">
         <v>693</v>
       </c>
-      <c r="AW80">
-        <f t="shared" si="9"/>
+      <c r="BB80">
+        <f t="shared" si="11"/>
         <v>3.1415850000000001</v>
       </c>
-      <c r="AX80" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC80" s="3">
+        <f t="shared" si="17"/>
         <v>5.8426535897933007E-3</v>
       </c>
-      <c r="AY80" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD80" s="3">
+        <f t="shared" si="18"/>
         <v>7.653589793044091E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>894</v>
       </c>
@@ -17396,7 +20576,7 @@
         <v>6.2831799999999998</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000509601E-5</v>
       </c>
       <c r="E81">
@@ -17424,57 +20604,71 @@
         <v>9.5367399999999999E-7</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3708035085956096E-10</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.1160403745827608E-10</v>
       </c>
       <c r="O81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q81">
+      <c r="P81" s="4">
+        <v>2.3841899999999998E-9</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>-1.1920900000000001E-7</v>
+      </c>
+      <c r="R81" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4216470042956101E-14</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V81">
         <v>894</v>
       </c>
-      <c r="R81">
+      <c r="W81">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S81">
+      <c r="X81">
         <v>3.1364700000000001</v>
       </c>
-      <c r="T81">
+      <c r="Y81">
         <v>701</v>
       </c>
-      <c r="AS81">
+      <c r="AX81">
         <v>894</v>
       </c>
-      <c r="AT81" s="3">
+      <c r="AY81" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU81">
+      <c r="AZ81">
         <v>3.1364700000000001</v>
       </c>
-      <c r="AV81">
+      <c r="BA81">
         <v>701</v>
       </c>
-      <c r="AW81">
-        <f t="shared" si="9"/>
+      <c r="BB81">
+        <f t="shared" si="11"/>
         <v>3.1415899999999999</v>
       </c>
-      <c r="AX81" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC81" s="3">
+        <f t="shared" si="17"/>
         <v>5.1226535897930248E-3</v>
       </c>
-      <c r="AY81" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD81" s="3">
+        <f t="shared" si="18"/>
         <v>2.6535897932333796E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>904</v>
       </c>
@@ -17485,7 +20679,7 @@
         <v>6.28315</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E82">
@@ -17513,57 +20707,71 @@
         <v>1.66893E-6</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.671764037281E-10</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6245887778489999E-10</v>
       </c>
       <c r="O82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q82">
+      <c r="P82" s="4">
+        <v>-4.7683699999999997E-9</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>-1.1920900000000001E-7</v>
+      </c>
+      <c r="R82" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4233523033456903E-14</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V82">
         <v>904</v>
       </c>
-      <c r="R82">
+      <c r="W82">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S82">
+      <c r="X82">
         <v>3.1371699999999998</v>
       </c>
-      <c r="T82">
+      <c r="Y82">
         <v>709</v>
       </c>
-      <c r="AS82">
+      <c r="AX82">
         <v>904</v>
       </c>
-      <c r="AT82" s="3">
+      <c r="AY82" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU82">
+      <c r="AZ82">
         <v>3.1371699999999998</v>
       </c>
-      <c r="AV82">
+      <c r="BA82">
         <v>709</v>
       </c>
-      <c r="AW82">
-        <f t="shared" si="9"/>
+      <c r="BB82">
+        <f t="shared" si="11"/>
         <v>3.141575</v>
       </c>
-      <c r="AX82" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC82" s="3">
+        <f t="shared" si="17"/>
         <v>4.4226535897933239E-3</v>
       </c>
-      <c r="AY82" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD82" s="3">
+        <f t="shared" si="18"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>934</v>
       </c>
@@ -17574,7 +20782,7 @@
         <v>6.28315</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E83">
@@ -17602,57 +20810,71 @@
         <v>2.02656E-6</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.3799168190490001E-10</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.3435410319359997E-10</v>
       </c>
       <c r="O83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q83">
+      <c r="P83" s="4">
+        <v>7.15256E-9</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>-3.57628E-9</v>
+      </c>
+      <c r="R83" s="4">
+        <f t="shared" si="15"/>
+        <v>6.3948893192000001E-17</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V83">
         <v>934</v>
       </c>
-      <c r="R83">
+      <c r="W83">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S83">
+      <c r="X83">
         <v>3.1391900000000001</v>
       </c>
-      <c r="T83">
+      <c r="Y83">
         <v>733</v>
       </c>
-      <c r="AS83">
+      <c r="AX83">
         <v>934</v>
       </c>
-      <c r="AT83" s="3">
+      <c r="AY83" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU83">
+      <c r="AZ83">
         <v>3.1391900000000001</v>
       </c>
-      <c r="AV83">
+      <c r="BA83">
         <v>733</v>
       </c>
-      <c r="AW83">
-        <f t="shared" si="9"/>
+      <c r="BB83">
+        <f t="shared" si="11"/>
         <v>3.141575</v>
       </c>
-      <c r="AX83" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC83" s="3">
+        <f t="shared" si="17"/>
         <v>2.4026535897929691E-3</v>
       </c>
-      <c r="AY83" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD83" s="3">
+        <f t="shared" si="18"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>944</v>
       </c>
@@ -17663,7 +20885,7 @@
         <v>6.2830899999999996</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000065512E-4</v>
       </c>
       <c r="E84">
@@ -17691,57 +20913,71 @@
         <v>-1.7881399999999999E-6</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.8227336174440005E-10</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.3803707221960001E-10</v>
       </c>
       <c r="O84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q84">
+      <c r="P84" s="4">
+        <v>-2.5034000000000001E-8</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="R84" s="4">
+        <f t="shared" si="15"/>
+        <v>5.12217846692E-13</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V84">
         <v>944</v>
       </c>
-      <c r="R84">
+      <c r="W84">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S84">
+      <c r="X84">
         <v>3.1398299999999999</v>
       </c>
-      <c r="T84">
+      <c r="Y84">
         <v>741</v>
       </c>
-      <c r="AS84">
+      <c r="AX84">
         <v>944</v>
       </c>
-      <c r="AT84" s="3">
+      <c r="AY84" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU84">
+      <c r="AZ84">
         <v>3.1398299999999999</v>
       </c>
-      <c r="AV84">
+      <c r="BA84">
         <v>741</v>
       </c>
-      <c r="AW84">
-        <f t="shared" si="9"/>
+      <c r="BB84">
+        <f t="shared" si="11"/>
         <v>3.1415449999999998</v>
       </c>
-      <c r="AX84" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC84" s="3">
+        <f t="shared" si="17"/>
         <v>1.7626535897932172E-3</v>
       </c>
-      <c r="AY84" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD84" s="3">
+        <f t="shared" si="18"/>
         <v>4.7653589793306139E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>954</v>
       </c>
@@ -17752,7 +20988,7 @@
         <v>6.2831200000000003</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.0000000000014495E-5</v>
       </c>
       <c r="E85">
@@ -17780,57 +21016,71 @@
         <v>-3.57628E-7</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.7862175559160994E-11</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.3920386266783998E-11</v>
       </c>
       <c r="O85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q85">
+      <c r="P85" s="4">
+        <v>-1.7881400000000002E-8</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>7.1525600000000001E-7</v>
+      </c>
+      <c r="R85" s="4">
+        <f t="shared" si="15"/>
+        <v>5.1191089000195992E-13</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V85">
         <v>954</v>
       </c>
-      <c r="R85">
+      <c r="W85">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S85">
+      <c r="X85">
         <v>3.1446499999999999</v>
       </c>
-      <c r="T85">
+      <c r="Y85">
         <v>750</v>
       </c>
-      <c r="AS85">
+      <c r="AX85">
         <v>954</v>
       </c>
-      <c r="AT85" s="3">
+      <c r="AY85" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU85">
+      <c r="AZ85">
         <v>3.1446499999999999</v>
       </c>
-      <c r="AV85">
+      <c r="BA85">
         <v>750</v>
       </c>
-      <c r="AW85">
-        <f t="shared" si="9"/>
+      <c r="BB85">
+        <f t="shared" si="11"/>
         <v>3.1415600000000001</v>
       </c>
-      <c r="AX85" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC85" s="3">
+        <f t="shared" si="17"/>
         <v>-3.0573464102068293E-3</v>
       </c>
-      <c r="AY85" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD85" s="3">
+        <f t="shared" si="18"/>
         <v>3.2653589792985827E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>984</v>
       </c>
@@ -17841,7 +21091,7 @@
         <v>6.2831599999999996</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.0000000000640625E-5</v>
       </c>
       <c r="E86">
@@ -17869,57 +21119,71 @@
         <v>1.43051E-6</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2519754875399999E-11</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.02317943005E-11</v>
       </c>
       <c r="O86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q86">
+      <c r="P86" s="4">
+        <v>3.5762800000000003E-8</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>7.15256E-9</v>
+      </c>
+      <c r="R86" s="4">
+        <f t="shared" si="15"/>
+        <v>1.3301369783936002E-15</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V86">
         <v>984</v>
       </c>
-      <c r="R86">
+      <c r="W86">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S86">
+      <c r="X86">
         <v>3.14228</v>
       </c>
-      <c r="T86">
+      <c r="Y86">
         <v>773</v>
       </c>
-      <c r="AS86">
+      <c r="AX86">
         <v>984</v>
       </c>
-      <c r="AT86" s="3">
+      <c r="AY86" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU86">
+      <c r="AZ86">
         <v>3.14228</v>
       </c>
-      <c r="AV86">
+      <c r="BA86">
         <v>773</v>
       </c>
-      <c r="AW86">
-        <f t="shared" si="9"/>
+      <c r="BB86">
+        <f t="shared" si="11"/>
         <v>3.1415799999999998</v>
       </c>
-      <c r="AX86" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC86" s="3">
+        <f t="shared" si="17"/>
         <v>-6.8734641020684606E-4</v>
       </c>
-      <c r="AY86" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD86" s="3">
+        <f t="shared" si="18"/>
         <v>1.2653589793298892E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>994</v>
       </c>
@@ -17930,7 +21194,7 @@
         <v>6.28315</v>
       </c>
       <c r="D87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000262048E-5</v>
       </c>
       <c r="E87">
@@ -17958,57 +21222,71 @@
         <v>1.1920899999999999E-6</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4836016763553601E-10</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.671764037281E-10</v>
       </c>
       <c r="O87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q87">
+      <c r="P87" s="4">
+        <v>4.7683699999999997E-9</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>1.19209E-9</v>
+      </c>
+      <c r="R87" s="4">
+        <f t="shared" si="15"/>
+        <v>2.4158431024999998E-17</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V87">
         <v>994</v>
       </c>
-      <c r="R87">
+      <c r="W87">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S87">
+      <c r="X87">
         <v>3.13883</v>
       </c>
-      <c r="T87">
+      <c r="Y87">
         <v>780</v>
       </c>
-      <c r="AS87">
+      <c r="AX87">
         <v>994</v>
       </c>
-      <c r="AT87" s="3">
+      <c r="AY87" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU87">
+      <c r="AZ87">
         <v>3.13883</v>
       </c>
-      <c r="AV87">
+      <c r="BA87">
         <v>780</v>
       </c>
-      <c r="AW87">
-        <f t="shared" si="9"/>
+      <c r="BB87">
+        <f t="shared" si="11"/>
         <v>3.141575</v>
       </c>
-      <c r="AX87" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC87" s="3">
+        <f t="shared" si="17"/>
         <v>2.762653589793107E-3</v>
       </c>
-      <c r="AY87" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD87" s="3">
+        <f t="shared" si="18"/>
         <v>1.7653589793109603E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1010</v>
       </c>
@@ -18019,7 +21297,7 @@
         <v>6.2830700000000004</v>
       </c>
       <c r="D88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1999999999989797E-4</v>
       </c>
       <c r="E88">
@@ -18051,53 +21329,76 @@
         <v>5.7412055756609993E-10</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.7356633001039994E-10</v>
       </c>
       <c r="O88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q88">
+      <c r="P88" s="4">
+        <v>-2.37E-5</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="R88" s="4">
+        <f t="shared" si="15"/>
+        <v>5.6794000000000001E-10</v>
+      </c>
+      <c r="S88">
+        <f t="shared" ref="S67:S88" si="19">IF(R88-N88&lt;0,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V88">
         <v>1010</v>
       </c>
-      <c r="R88">
+      <c r="W88">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="S88">
+      <c r="X88">
         <v>3.1485099999999999</v>
       </c>
-      <c r="T88">
+      <c r="Y88">
         <v>795</v>
       </c>
-      <c r="AS88">
+      <c r="AX88">
         <v>1010</v>
       </c>
-      <c r="AT88" s="3">
+      <c r="AY88" s="3">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AU88">
+      <c r="AZ88">
         <v>3.1485099999999999</v>
       </c>
-      <c r="AV88">
+      <c r="BA88">
         <v>795</v>
       </c>
-      <c r="AW88">
-        <f t="shared" si="9"/>
+      <c r="BB88">
+        <f t="shared" si="11"/>
         <v>3.1415350000000002</v>
       </c>
-      <c r="AX88" s="3">
-        <f t="shared" si="13"/>
+      <c r="BC88" s="3">
+        <f t="shared" si="17"/>
         <v>-6.9173464102068039E-3</v>
       </c>
-      <c r="AY88" s="3">
-        <f t="shared" si="14"/>
+      <c r="BD88" s="3">
+        <f t="shared" si="18"/>
         <v>5.7653589792927562E-5</v>
       </c>
+    </row>
+    <row r="91" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
